--- a/instance_generator/instances/instance_C3/fragmentation/fragmentation_link2_request400.xlsx
+++ b/instance_generator/instances/instance_C3/fragmentation/fragmentation_link2_request400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C778"/>
+  <dimension ref="A1:C836"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>103.5736</v>
+        <v>102.9312</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4272</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3752</v>
+        <v>0.2248</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.292</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.3392000000000001</v>
+        <v>0.3656</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2784</v>
+        <v>0.3072</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4744</v>
+        <v>0.4144</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2944000000000001</v>
+        <v>0.2952</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2896</v>
+        <v>0.348</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3144</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06720000000000001</v>
+        <v>0.3416</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005600000000000001</v>
+        <v>10.3944</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0176</v>
+        <v>1.4744</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0024</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.004</v>
+        <v>0.4432</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.476</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07920000000000001</v>
+        <v>0.4232</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.076</v>
+        <v>0.4424</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06960000000000001</v>
+        <v>0.4664</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.04480000000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06720000000000001</v>
+        <v>2.3992</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -681,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.504</v>
+        <v>0.968</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8136</v>
+        <v>7.98</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.404</v>
+        <v>0.976</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6696</v>
+        <v>1.4808</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06080000000000001</v>
+        <v>1.4744</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2392</v>
+        <v>0.9616</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3168</v>
+        <v>2.4664</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.3008</v>
+        <v>11.9568</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1448</v>
+        <v>2.9536</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.3808</v>
+        <v>16.484</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2.1752</v>
+        <v>25.0512</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4712000000000001</v>
+        <v>0.0512</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4576</v>
+        <v>0.044</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.44</v>
+        <v>0.032</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3792</v>
+        <v>0.2488</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4824000000000001</v>
+        <v>0.496</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.2968</v>
+        <v>0.0024</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08080000000000001</v>
+        <v>0.1688</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.4144</v>
+        <v>0.016</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.3952</v>
+        <v>0.3048</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.524</v>
+        <v>0.1048</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1136</v>
+        <v>0.52</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1248</v>
+        <v>0.2136</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1576</v>
+        <v>0.4136</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.792</v>
+        <v>0.308</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>3.4392</v>
+        <v>0.5088</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.304</v>
+        <v>0.1384</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.4776</v>
+        <v>0.6352000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="51">
@@ -989,10 +989,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9952000000000001</v>
+        <v>0.2744</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="52">
@@ -1000,10 +1000,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.4704</v>
+        <v>0.09440000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="53">
@@ -1011,10 +1011,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.5928</v>
+        <v>0.6352000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="54">
@@ -1022,10 +1022,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.176</v>
+        <v>0.2024</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="55">
@@ -1033,10 +1033,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.688</v>
+        <v>0.3816000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="56">
@@ -1044,10 +1044,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.048</v>
+        <v>0.444</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="57">
@@ -1055,10 +1055,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.2592</v>
+        <v>0.2512</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="58">
@@ -1066,10 +1066,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.1296</v>
+        <v>0.1448</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="59">
@@ -1077,10 +1077,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.952</v>
+        <v>0.0136</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="60">
@@ -1088,10 +1088,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.152</v>
+        <v>0.24</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="61">
@@ -1099,10 +1099,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.76</v>
+        <v>0.1424</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="62">
@@ -1110,10 +1110,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.744</v>
+        <v>0.716</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="63">
@@ -1121,10 +1121,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.592</v>
+        <v>0.1504</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="64">
@@ -1132,10 +1132,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.2744</v>
+        <v>0.7168000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="65">
@@ -1143,10 +1143,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.2936</v>
+        <v>0.144</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="66">
@@ -1154,10 +1154,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.116</v>
+        <v>0.268</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="67">
@@ -1165,10 +1165,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.376</v>
+        <v>0.0232</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="68">
@@ -1176,10 +1176,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>13.5496</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="69">
@@ -1187,10 +1187,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.528</v>
+        <v>0.624</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="70">
@@ -1198,10 +1198,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7784000000000001</v>
+        <v>0.048</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="71">
@@ -1209,10 +1209,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7712</v>
+        <v>0.4712000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="72">
@@ -1220,10 +1220,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.512</v>
+        <v>0.48</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="73">
@@ -1231,10 +1231,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5032000000000001</v>
+        <v>0.6072000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="74">
@@ -1242,10 +1242,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.7552</v>
+        <v>0.6184000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="75">
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.2488</v>
+        <v>0.5592</v>
       </c>
       <c r="C75" t="n">
         <v>312501</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.2464</v>
+        <v>0.5088</v>
       </c>
       <c r="C76" t="n">
         <v>312501</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.48</v>
+        <v>0.7528</v>
       </c>
       <c r="C77" t="n">
         <v>312501</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0104</v>
+        <v>0.4816</v>
       </c>
       <c r="C78" t="n">
         <v>312501</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.6248</v>
+        <v>0.4576</v>
       </c>
       <c r="C79" t="n">
         <v>312501</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.612</v>
+        <v>0.2304</v>
       </c>
       <c r="C80" t="n">
         <v>312501</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.2128</v>
+        <v>0.2336</v>
       </c>
       <c r="C81" t="n">
         <v>312501</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4888</v>
+        <v>0.8096</v>
       </c>
       <c r="C82" t="n">
         <v>312501</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.9472</v>
+        <v>0.08560000000000001</v>
       </c>
       <c r="C83" t="n">
         <v>312501</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.1968</v>
+        <v>0.06080000000000001</v>
       </c>
       <c r="C84" t="n">
         <v>312501</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6448</v>
+        <v>2.0824</v>
       </c>
       <c r="C85" t="n">
         <v>312501</v>
@@ -1374,7 +1374,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0648</v>
+        <v>0.03680000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>312501</v>
@@ -1385,7 +1385,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.4304000000000001</v>
+        <v>0.6968000000000001</v>
       </c>
       <c r="C87" t="n">
         <v>312501</v>
@@ -1396,7 +1396,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18</v>
+        <v>0.6608000000000001</v>
       </c>
       <c r="C88" t="n">
         <v>312501</v>
@@ -1407,7 +1407,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.3288</v>
+        <v>3.4776</v>
       </c>
       <c r="C89" t="n">
         <v>312501</v>
@@ -1418,7 +1418,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6016</v>
+        <v>0.4816</v>
       </c>
       <c r="C90" t="n">
         <v>312501</v>
@@ -1429,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.68</v>
+        <v>1.9736</v>
       </c>
       <c r="C91" t="n">
         <v>312501</v>
@@ -1440,7 +1440,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1184</v>
+        <v>4.4688</v>
       </c>
       <c r="C92" t="n">
         <v>312501</v>
@@ -1451,7 +1451,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5704</v>
+        <v>0.9784</v>
       </c>
       <c r="C93" t="n">
         <v>312501</v>
@@ -1462,7 +1462,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8576</v>
+        <v>0.1224</v>
       </c>
       <c r="C94" t="n">
         <v>312501</v>
@@ -1473,7 +1473,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.2088</v>
+        <v>1.0304</v>
       </c>
       <c r="C95" t="n">
         <v>312501</v>
@@ -1484,7 +1484,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6032000000000001</v>
+        <v>6.979200000000001</v>
       </c>
       <c r="C96" t="n">
         <v>312501</v>
@@ -1495,7 +1495,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.3656</v>
+        <v>7.8288</v>
       </c>
       <c r="C97" t="n">
         <v>312501</v>
@@ -1506,7 +1506,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4728</v>
+        <v>0.548</v>
       </c>
       <c r="C98" t="n">
         <v>312501</v>
@@ -1517,7 +1517,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8112</v>
+        <v>9.960800000000001</v>
       </c>
       <c r="C99" t="n">
         <v>312501</v>
@@ -1528,7 +1528,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.368</v>
+        <v>9.963200000000001</v>
       </c>
       <c r="C100" t="n">
         <v>312501</v>
@@ -1539,7 +1539,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8008000000000001</v>
+        <v>42.344</v>
       </c>
       <c r="C101" t="n">
         <v>312501</v>
@@ -1550,7 +1550,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.3576</v>
+        <v>4.728</v>
       </c>
       <c r="C102" t="n">
         <v>312501</v>
@@ -1561,7 +1561,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.4624</v>
+        <v>1.2568</v>
       </c>
       <c r="C103" t="n">
         <v>312501</v>
@@ -1572,7 +1572,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3168</v>
+        <v>7.276</v>
       </c>
       <c r="C104" t="n">
         <v>312501</v>
@@ -1583,7 +1583,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5208</v>
+        <v>2.68</v>
       </c>
       <c r="C105" t="n">
         <v>312501</v>
@@ -1594,7 +1594,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8024000000000001</v>
+        <v>4.2888</v>
       </c>
       <c r="C106" t="n">
         <v>312501</v>
@@ -1605,7 +1605,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.6008000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="C107" t="n">
         <v>312501</v>
@@ -1616,7 +1616,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8416</v>
+        <v>0.412</v>
       </c>
       <c r="C108" t="n">
         <v>312501</v>
@@ -1627,7 +1627,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.4544</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="C109" t="n">
         <v>312501</v>
@@ -1638,7 +1638,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.192</v>
+        <v>1.6264</v>
       </c>
       <c r="C110" t="n">
         <v>312501</v>
@@ -1649,7 +1649,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1792</v>
+        <v>4.808</v>
       </c>
       <c r="C111" t="n">
         <v>312501</v>
@@ -1660,7 +1660,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.0232</v>
+        <v>3.18</v>
       </c>
       <c r="C112" t="n">
         <v>312501</v>
@@ -1671,7 +1671,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.652</v>
+        <v>2.6664</v>
       </c>
       <c r="C113" t="n">
         <v>312501</v>
@@ -1682,7 +1682,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.1656</v>
+        <v>1.712</v>
       </c>
       <c r="C114" t="n">
         <v>312501</v>
@@ -1693,7 +1693,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.6952</v>
+        <v>0.07840000000000001</v>
       </c>
       <c r="C115" t="n">
         <v>312501</v>
@@ -1704,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>3.0976</v>
+        <v>2.7168</v>
       </c>
       <c r="C116" t="n">
         <v>312501</v>
@@ -1715,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.9592</v>
+        <v>6.1184</v>
       </c>
       <c r="C117" t="n">
         <v>312501</v>
@@ -1726,7 +1726,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.7736</v>
+        <v>1.8024</v>
       </c>
       <c r="C118" t="n">
         <v>312501</v>
@@ -1737,7 +1737,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4568</v>
+        <v>1.9448</v>
       </c>
       <c r="C119" t="n">
         <v>312501</v>
@@ -1748,7 +1748,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.848</v>
+        <v>1.6848</v>
       </c>
       <c r="C120" t="n">
         <v>312501</v>
@@ -1759,7 +1759,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.316</v>
+        <v>0.096</v>
       </c>
       <c r="C121" t="n">
         <v>312501</v>
@@ -1770,7 +1770,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.3296</v>
+        <v>2.2904</v>
       </c>
       <c r="C122" t="n">
         <v>312501</v>
@@ -1781,7 +1781,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2904</v>
+        <v>2.6624</v>
       </c>
       <c r="C123" t="n">
         <v>312501</v>
@@ -1792,7 +1792,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0088</v>
+        <v>1.4816</v>
       </c>
       <c r="C124" t="n">
         <v>312501</v>
@@ -1803,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.108</v>
+        <v>4.8104</v>
       </c>
       <c r="C125" t="n">
         <v>312501</v>
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4064</v>
+        <v>3.1056</v>
       </c>
       <c r="C126" t="n">
         <v>312501</v>
@@ -1825,7 +1825,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.2672</v>
+        <v>2.128</v>
       </c>
       <c r="C127" t="n">
         <v>312501</v>
@@ -1836,7 +1836,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6.892</v>
+        <v>1.0168</v>
       </c>
       <c r="C128" t="n">
         <v>312501</v>
@@ -1847,7 +1847,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.4784</v>
+        <v>3.612</v>
       </c>
       <c r="C129" t="n">
         <v>312501</v>
@@ -1858,7 +1858,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>2.7488</v>
+        <v>1.2064</v>
       </c>
       <c r="C130" t="n">
         <v>312501</v>
@@ -1869,7 +1869,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.088</v>
+        <v>4.0424</v>
       </c>
       <c r="C131" t="n">
         <v>312501</v>
@@ -1880,7 +1880,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.4864000000000001</v>
+        <v>0.6144000000000001</v>
       </c>
       <c r="C132" t="n">
         <v>312501</v>
@@ -1891,7 +1891,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.464</v>
+        <v>18.18</v>
       </c>
       <c r="C133" t="n">
         <v>312501</v>
@@ -1902,7 +1902,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8528000000000001</v>
+        <v>0.2328</v>
       </c>
       <c r="C134" t="n">
         <v>312501</v>
@@ -1913,7 +1913,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>72.5224</v>
+        <v>18.0112</v>
       </c>
       <c r="C135" t="n">
         <v>312501</v>
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.752</v>
+        <v>3.2408</v>
       </c>
       <c r="C136" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.2624</v>
+        <v>1.084</v>
       </c>
       <c r="C137" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.196</v>
+        <v>41.348</v>
       </c>
       <c r="C138" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9.632</v>
+        <v>23.664</v>
       </c>
       <c r="C139" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.8</v>
+        <v>1.22</v>
       </c>
       <c r="C140" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5584</v>
+        <v>24.1664</v>
       </c>
       <c r="C141" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.5</v>
+        <v>19.8664</v>
       </c>
       <c r="C142" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="143">
@@ -2001,10 +2001,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.3</v>
+        <v>13.1024</v>
       </c>
       <c r="C143" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="144">
@@ -2012,10 +2012,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6.2224</v>
+        <v>1.228</v>
       </c>
       <c r="C144" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="145">
@@ -2023,10 +2023,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.988</v>
+        <v>4.712</v>
       </c>
       <c r="C145" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="146">
@@ -2034,10 +2034,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.712</v>
+        <v>18.988</v>
       </c>
       <c r="C146" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="147">
@@ -2045,10 +2045,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5928000000000001</v>
+        <v>16.2504</v>
       </c>
       <c r="C147" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="148">
@@ -2056,10 +2056,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.4288</v>
+        <v>139.1024</v>
       </c>
       <c r="C148" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="149">
@@ -2067,10 +2067,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>2.9368</v>
+        <v>13.188</v>
       </c>
       <c r="C149" t="n">
-        <v>312501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="150">
@@ -2078,10 +2078,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.1984</v>
+        <v>1.188</v>
       </c>
       <c r="C150" t="n">
-        <v>312501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="151">
@@ -2089,10 +2089,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.412</v>
+        <v>168.244</v>
       </c>
       <c r="C151" t="n">
-        <v>312501</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="152">
@@ -2100,10 +2100,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.7064</v>
+        <v>90.01440000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="153">
@@ -2111,10 +2111,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.204</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="154">
@@ -2122,10 +2122,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.7088000000000001</v>
+        <v>0.2248</v>
       </c>
       <c r="C154" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="155">
@@ -2133,10 +2133,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.58</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C155" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="156">
@@ -2144,10 +2144,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.1184</v>
+        <v>0.3664000000000001</v>
       </c>
       <c r="C156" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="157">
@@ -2155,10 +2155,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.4144</v>
+        <v>0.3064000000000001</v>
       </c>
       <c r="C157" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="158">
@@ -2166,10 +2166,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8496</v>
+        <v>0.4152000000000001</v>
       </c>
       <c r="C158" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="159">
@@ -2177,10 +2177,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3.3952</v>
+        <v>0.2944000000000001</v>
       </c>
       <c r="C159" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="160">
@@ -2188,10 +2188,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.2624</v>
+        <v>0.348</v>
       </c>
       <c r="C160" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="161">
@@ -2199,10 +2199,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9584000000000001</v>
+        <v>0.348</v>
       </c>
       <c r="C161" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="162">
@@ -2210,10 +2210,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.3552</v>
+        <v>0.3408</v>
       </c>
       <c r="C162" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="163">
@@ -2221,10 +2221,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.632</v>
+        <v>10.3944</v>
       </c>
       <c r="C163" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="164">
@@ -2232,10 +2232,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.736</v>
+        <v>1.4744</v>
       </c>
       <c r="C164" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="165">
@@ -2243,10 +2243,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C165" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="166">
@@ -2254,10 +2254,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.9816</v>
+        <v>0.4432</v>
       </c>
       <c r="C166" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="167">
@@ -2265,10 +2265,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3.3392</v>
+        <v>0.476</v>
       </c>
       <c r="C167" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="168">
@@ -2276,10 +2276,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6.972</v>
+        <v>0.4232</v>
       </c>
       <c r="C168" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="169">
@@ -2287,10 +2287,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8.075200000000001</v>
+        <v>0.4424</v>
       </c>
       <c r="C169" t="n">
-        <v>312501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="170">
@@ -2298,10 +2298,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1.3552</v>
+        <v>0.4672000000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="171">
@@ -2309,10 +2309,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>62.964</v>
+        <v>0.92</v>
       </c>
       <c r="C171" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="172">
@@ -2320,10 +2320,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>16.088</v>
+        <v>2.3992</v>
       </c>
       <c r="C172" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="173">
@@ -2331,10 +2331,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>16.6608</v>
+        <v>0.968</v>
       </c>
       <c r="C173" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="174">
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>15.768</v>
+        <v>7.98</v>
       </c>
       <c r="C174" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>11.324</v>
+        <v>0.9768000000000001</v>
       </c>
       <c r="C175" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.2064</v>
+        <v>1.48</v>
       </c>
       <c r="C176" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>40.7544</v>
+        <v>1.4744</v>
       </c>
       <c r="C177" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>87.6504</v>
+        <v>0.9616</v>
       </c>
       <c r="C178" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9.172000000000001</v>
+        <v>2.4664</v>
       </c>
       <c r="C179" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>23.1344</v>
+        <v>11.9568</v>
       </c>
       <c r="C180" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>33.7088</v>
+        <v>2.9536</v>
       </c>
       <c r="C181" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>129.292</v>
+        <v>16.484</v>
       </c>
       <c r="C182" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>47.3024</v>
+        <v>25.0512</v>
       </c>
       <c r="C183" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="184">
@@ -2452,7 +2452,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>71.94240000000001</v>
+        <v>0.0176</v>
       </c>
       <c r="C184" t="n">
         <v>1250001</v>
@@ -2463,7 +2463,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.4272</v>
+        <v>58.1008</v>
       </c>
       <c r="C185" t="n">
         <v>1250001</v>
@@ -2474,10 +2474,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.4008</v>
+        <v>0.4848</v>
       </c>
       <c r="C186" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="187">
@@ -2485,10 +2485,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.3184</v>
+        <v>3.9664</v>
       </c>
       <c r="C187" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="188">
@@ -2496,10 +2496,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3664000000000001</v>
+        <v>1.4768</v>
       </c>
       <c r="C188" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="189">
@@ -2507,10 +2507,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.2784</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="190">
@@ -2518,10 +2518,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.4744</v>
+        <v>0.9664</v>
       </c>
       <c r="C190" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="191">
@@ -2529,10 +2529,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.3536</v>
+        <v>4.979200000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="192">
@@ -2540,10 +2540,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.2896</v>
+        <v>0.4664</v>
       </c>
       <c r="C192" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="193">
@@ -2551,10 +2551,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.3144</v>
+        <v>0.972</v>
       </c>
       <c r="C193" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="194">
@@ -2562,10 +2562,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>10.6896</v>
+        <v>1.4616</v>
       </c>
       <c r="C194" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="195">
@@ -2573,10 +2573,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9776</v>
+        <v>2.9832</v>
       </c>
       <c r="C195" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="196">
@@ -2584,10 +2584,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.9776</v>
+        <v>3.396</v>
       </c>
       <c r="C196" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="197">
@@ -2595,10 +2595,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.9728000000000001</v>
+        <v>1.9608</v>
       </c>
       <c r="C197" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="198">
@@ -2606,10 +2606,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.456</v>
+        <v>5.4368</v>
       </c>
       <c r="C198" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="199">
@@ -2617,10 +2617,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.4712000000000001</v>
+        <v>0.9776</v>
       </c>
       <c r="C199" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="200">
@@ -2628,10 +2628,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.44</v>
+        <v>4.436</v>
       </c>
       <c r="C200" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="201">
@@ -2639,10 +2639,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1.3792</v>
+        <v>1.4744</v>
       </c>
       <c r="C201" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="202">
@@ -2650,10 +2650,10 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0.3848</v>
+        <v>1.4656</v>
       </c>
       <c r="C202" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="203">
@@ -2661,10 +2661,10 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1.3952</v>
+        <v>2.4648</v>
       </c>
       <c r="C203" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="204">
@@ -2672,10 +2672,10 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4656</v>
+        <v>0.9816</v>
       </c>
       <c r="C204" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="205">
@@ -2683,10 +2683,10 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>12.4488</v>
+        <v>2.9792</v>
       </c>
       <c r="C205" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="206">
@@ -2694,10 +2694,10 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1.4976</v>
+        <v>8.4192</v>
       </c>
       <c r="C206" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="207">
@@ -2705,10 +2705,10 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.9688</v>
+        <v>3.4656</v>
       </c>
       <c r="C207" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="208">
@@ -2716,10 +2716,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.4704</v>
+        <v>15.9824</v>
       </c>
       <c r="C208" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="209">
@@ -2727,10 +2727,10 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>12.956</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C209" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="210">
@@ -2738,10 +2738,10 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>3.9784</v>
+        <v>45.9768</v>
       </c>
       <c r="C210" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="211">
@@ -2749,10 +2749,10 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5.9584</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C211" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="212">
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>15.4384</v>
+        <v>4.96</v>
       </c>
       <c r="C212" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="213">
@@ -2771,10 +2771,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>64.47920000000001</v>
+        <v>9.984</v>
       </c>
       <c r="C213" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="214">
@@ -2782,10 +2782,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>6.4848</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="215">
@@ -2793,7 +2793,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>8.4656</v>
+        <v>11.4752</v>
       </c>
       <c r="C215" t="n">
         <v>1562501</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11.9704</v>
+        <v>8.4864</v>
       </c>
       <c r="C216" t="n">
         <v>1562501</v>
@@ -2815,7 +2815,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.9544</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C217" t="n">
         <v>1562501</v>
@@ -2826,7 +2826,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2.432</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C218" t="n">
         <v>1562501</v>
@@ -2837,7 +2837,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5.4744</v>
+        <v>51.9776</v>
       </c>
       <c r="C219" t="n">
         <v>1562501</v>
@@ -2848,10 +2848,10 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1.9808</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="221">
@@ -2859,10 +2859,10 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3.9208</v>
+        <v>75.70240000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="222">
@@ -2870,10 +2870,10 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9512</v>
+        <v>4.686400000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="223">
@@ -2881,10 +2881,10 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1.9672</v>
+        <v>5.0288</v>
       </c>
       <c r="C223" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="224">
@@ -2892,10 +2892,10 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>0.9688000000000001</v>
+        <v>7.3328</v>
       </c>
       <c r="C224" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="225">
@@ -2903,10 +2903,10 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>0.9616</v>
+        <v>41.4592</v>
       </c>
       <c r="C225" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="226">
@@ -2914,10 +2914,10 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>5.4424</v>
+        <v>1.3664</v>
       </c>
       <c r="C226" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="227">
@@ -2925,10 +2925,10 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.408</v>
+        <v>4.8768</v>
       </c>
       <c r="C227" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="228">
@@ -2936,10 +2936,10 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>4.4352</v>
+        <v>362.5696</v>
       </c>
       <c r="C228" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="229">
@@ -2947,10 +2947,10 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>4.4712</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C229" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="230">
@@ -2958,10 +2958,10 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>2.9888</v>
+        <v>0.2248</v>
       </c>
       <c r="C230" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="231">
@@ -2969,10 +2969,10 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>9.959200000000001</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C231" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="232">
@@ -2980,10 +2980,10 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1.9648</v>
+        <v>0.3656</v>
       </c>
       <c r="C232" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="233">
@@ -2991,10 +2991,10 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>7.978400000000001</v>
+        <v>0.3072</v>
       </c>
       <c r="C233" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="234">
@@ -3002,10 +3002,10 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>63.9944</v>
+        <v>0.4144</v>
       </c>
       <c r="C234" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="235">
@@ -3013,10 +3013,10 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10.9552</v>
+        <v>0.2952</v>
       </c>
       <c r="C235" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="236">
@@ -3024,10 +3024,10 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>16.9888</v>
+        <v>0.348</v>
       </c>
       <c r="C236" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="237">
@@ -3035,10 +3035,10 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>4.944</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C237" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="238">
@@ -3046,10 +3046,10 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>15.4784</v>
+        <v>0.3416</v>
       </c>
       <c r="C238" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="239">
@@ -3057,10 +3057,10 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6.9848</v>
+        <v>10.3944</v>
       </c>
       <c r="C239" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="240">
@@ -3068,10 +3068,10 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>20.9752</v>
+        <v>1.4744</v>
       </c>
       <c r="C240" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="241">
@@ -3079,10 +3079,10 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2.4648</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="242">
@@ -3090,10 +3090,10 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>4.969600000000001</v>
+        <v>0.4432</v>
       </c>
       <c r="C242" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="243">
@@ -3101,10 +3101,10 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>16.4736</v>
+        <v>0.476</v>
       </c>
       <c r="C243" t="n">
-        <v>1562501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="244">
@@ -3112,10 +3112,10 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>52.46720000000001</v>
+        <v>0.4232</v>
       </c>
       <c r="C244" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="245">
@@ -3123,10 +3123,10 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>15.9936</v>
+        <v>0.4424</v>
       </c>
       <c r="C245" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="246">
@@ -3134,10 +3134,10 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>69.9712</v>
+        <v>0.4664</v>
       </c>
       <c r="C246" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="247">
@@ -3145,10 +3145,10 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>94.9696</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="248">
@@ -3156,10 +3156,10 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>1.4616</v>
+        <v>2.3992</v>
       </c>
       <c r="C248" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="249">
@@ -3167,10 +3167,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>15.4696</v>
+        <v>0.968</v>
       </c>
       <c r="C249" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="250">
@@ -3178,10 +3178,10 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>352.4664</v>
+        <v>7.98</v>
       </c>
       <c r="C250" t="n">
-        <v>2187501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="251">
@@ -3189,7 +3189,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0.4272</v>
+        <v>0.976</v>
       </c>
       <c r="C251" t="n">
         <v>2500001</v>
@@ -3200,7 +3200,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0.4008</v>
+        <v>1.4808</v>
       </c>
       <c r="C252" t="n">
         <v>2500001</v>
@@ -3211,7 +3211,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>0.3184</v>
+        <v>1.4744</v>
       </c>
       <c r="C253" t="n">
         <v>2500001</v>
@@ -3222,7 +3222,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.9616</v>
       </c>
       <c r="C254" t="n">
         <v>2500001</v>
@@ -3233,7 +3233,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2784</v>
+        <v>2.4664</v>
       </c>
       <c r="C255" t="n">
         <v>2500001</v>
@@ -3244,7 +3244,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.4744</v>
+        <v>11.9568</v>
       </c>
       <c r="C256" t="n">
         <v>2500001</v>
@@ -3255,7 +3255,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.3536</v>
+        <v>2.9536</v>
       </c>
       <c r="C257" t="n">
         <v>2500001</v>
@@ -3266,7 +3266,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2896</v>
+        <v>16.484</v>
       </c>
       <c r="C258" t="n">
         <v>2500001</v>
@@ -3277,7 +3277,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.3144</v>
+        <v>25.0512</v>
       </c>
       <c r="C259" t="n">
         <v>2500001</v>
@@ -3288,7 +3288,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>10.6896</v>
+        <v>0.0104</v>
       </c>
       <c r="C260" t="n">
         <v>2500001</v>
@@ -3299,7 +3299,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.9776</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C261" t="n">
         <v>2500001</v>
@@ -3310,10 +3310,10 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.9776</v>
+        <v>0.4848</v>
       </c>
       <c r="C262" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="263">
@@ -3321,10 +3321,10 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.9728000000000001</v>
+        <v>3.9664</v>
       </c>
       <c r="C263" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="264">
@@ -3332,10 +3332,10 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>0.456</v>
+        <v>1.4776</v>
       </c>
       <c r="C264" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="265">
@@ -3343,10 +3343,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4712000000000001</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C265" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="266">
@@ -3354,10 +3354,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.44</v>
+        <v>0.9664</v>
       </c>
       <c r="C266" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="267">
@@ -3365,10 +3365,10 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>1.3792</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C267" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="268">
@@ -3376,10 +3376,10 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3848</v>
+        <v>0.4664</v>
       </c>
       <c r="C268" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="269">
@@ -3387,10 +3387,10 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>1.3952</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="270">
@@ -3398,10 +3398,10 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.4656</v>
+        <v>1.4616</v>
       </c>
       <c r="C270" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="271">
@@ -3409,10 +3409,10 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>12.4488</v>
+        <v>2.9832</v>
       </c>
       <c r="C271" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="272">
@@ -3420,10 +3420,10 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.4976</v>
+        <v>3.396</v>
       </c>
       <c r="C272" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="273">
@@ -3431,10 +3431,10 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.9688</v>
+        <v>1.96</v>
       </c>
       <c r="C273" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="274">
@@ -3442,10 +3442,10 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4704</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C274" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="275">
@@ -3453,10 +3453,10 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>12.956</v>
+        <v>0.9776</v>
       </c>
       <c r="C275" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="276">
@@ -3464,10 +3464,10 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>3.9784</v>
+        <v>4.4352</v>
       </c>
       <c r="C276" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="277">
@@ -3475,10 +3475,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>5.9584</v>
+        <v>1.4752</v>
       </c>
       <c r="C277" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="278">
@@ -3486,10 +3486,10 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>15.4384</v>
+        <v>1.4648</v>
       </c>
       <c r="C278" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="279">
@@ -3497,10 +3497,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>64.47920000000001</v>
+        <v>2.4656</v>
       </c>
       <c r="C279" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="280">
@@ -3508,10 +3508,10 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6.4848</v>
+        <v>0.9816</v>
       </c>
       <c r="C280" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="281">
@@ -3519,7 +3519,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>8.4656</v>
+        <v>2.9784</v>
       </c>
       <c r="C281" t="n">
         <v>2812501</v>
@@ -3530,7 +3530,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11.9704</v>
+        <v>8.42</v>
       </c>
       <c r="C282" t="n">
         <v>2812501</v>
@@ -3541,7 +3541,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.9544</v>
+        <v>3.4648</v>
       </c>
       <c r="C283" t="n">
         <v>2812501</v>
@@ -3552,7 +3552,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>2.432</v>
+        <v>15.9824</v>
       </c>
       <c r="C284" t="n">
         <v>2812501</v>
@@ -3563,7 +3563,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5.4744</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C285" t="n">
         <v>2812501</v>
@@ -3574,7 +3574,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>1.9808</v>
+        <v>45.9776</v>
       </c>
       <c r="C286" t="n">
         <v>2812501</v>
@@ -3585,7 +3585,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>3.9208</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C287" t="n">
         <v>2812501</v>
@@ -3596,7 +3596,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>0.9512</v>
+        <v>4.96</v>
       </c>
       <c r="C288" t="n">
         <v>2812501</v>
@@ -3607,7 +3607,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1.9672</v>
+        <v>9.984</v>
       </c>
       <c r="C289" t="n">
         <v>2812501</v>
@@ -3618,7 +3618,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.9688000000000001</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C290" t="n">
         <v>2812501</v>
@@ -3629,7 +3629,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>0.9616</v>
+        <v>11.4744</v>
       </c>
       <c r="C291" t="n">
         <v>2812501</v>
@@ -3640,7 +3640,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5.4424</v>
+        <v>8.4864</v>
       </c>
       <c r="C292" t="n">
         <v>2812501</v>
@@ -3651,7 +3651,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1.408</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C293" t="n">
         <v>2812501</v>
@@ -3662,7 +3662,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>4.4352</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C294" t="n">
         <v>2812501</v>
@@ -3673,7 +3673,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>4.4712</v>
+        <v>51.9784</v>
       </c>
       <c r="C295" t="n">
         <v>2812501</v>
@@ -3684,10 +3684,10 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.9888</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C296" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="297">
@@ -3695,10 +3695,10 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>9.959200000000001</v>
+        <v>75.7016</v>
       </c>
       <c r="C297" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="298">
@@ -3706,10 +3706,10 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1.9648</v>
+        <v>4.6872</v>
       </c>
       <c r="C298" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="299">
@@ -3717,10 +3717,10 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>7.978400000000001</v>
+        <v>5.0288</v>
       </c>
       <c r="C299" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="300">
@@ -3728,10 +3728,10 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>63.9944</v>
+        <v>7.3328</v>
       </c>
       <c r="C300" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="301">
@@ -3739,10 +3739,10 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>10.9552</v>
+        <v>41.4592</v>
       </c>
       <c r="C301" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="302">
@@ -3750,10 +3750,10 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>16.9888</v>
+        <v>1.4496</v>
       </c>
       <c r="C302" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="303">
@@ -3761,10 +3761,10 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>4.944</v>
+        <v>4.8848</v>
       </c>
       <c r="C303" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="304">
@@ -3772,10 +3772,10 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>15.4784</v>
+        <v>362.4784</v>
       </c>
       <c r="C304" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="305">
@@ -3783,10 +3783,10 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6.9848</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C305" t="n">
-        <v>2812501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="306">
@@ -3794,10 +3794,10 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>20.9752</v>
+        <v>0.2248</v>
       </c>
       <c r="C306" t="n">
-        <v>2812501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="307">
@@ -3805,10 +3805,10 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.4648</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C307" t="n">
-        <v>2812501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="308">
@@ -3816,10 +3816,10 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>4.969600000000001</v>
+        <v>0.3656</v>
       </c>
       <c r="C308" t="n">
-        <v>2812501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="309">
@@ -3827,10 +3827,10 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>16.4736</v>
+        <v>0.3072</v>
       </c>
       <c r="C309" t="n">
-        <v>2812501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="310">
@@ -3838,10 +3838,10 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>52.46720000000001</v>
+        <v>0.4144</v>
       </c>
       <c r="C310" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="311">
@@ -3849,10 +3849,10 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15.9936</v>
+        <v>0.2952</v>
       </c>
       <c r="C311" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="312">
@@ -3860,10 +3860,10 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>69.9712</v>
+        <v>0.348</v>
       </c>
       <c r="C312" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="313">
@@ -3871,10 +3871,10 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>94.9696</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C313" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="314">
@@ -3882,10 +3882,10 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1.4616</v>
+        <v>0.3416</v>
       </c>
       <c r="C314" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="315">
@@ -3893,10 +3893,10 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>15.4696</v>
+        <v>10.3944</v>
       </c>
       <c r="C315" t="n">
-        <v>3125001</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="316">
@@ -3904,10 +3904,10 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>352.4664</v>
+        <v>1.4744</v>
       </c>
       <c r="C316" t="n">
-        <v>3437501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="317">
@@ -3915,7 +3915,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0.4272</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C317" t="n">
         <v>3750001</v>
@@ -3926,7 +3926,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4008</v>
+        <v>0.4432</v>
       </c>
       <c r="C318" t="n">
         <v>3750001</v>
@@ -3937,7 +3937,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0.3184</v>
+        <v>0.476</v>
       </c>
       <c r="C319" t="n">
         <v>3750001</v>
@@ -3948,7 +3948,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.4232</v>
       </c>
       <c r="C320" t="n">
         <v>3750001</v>
@@ -3959,7 +3959,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0.2784</v>
+        <v>0.4424</v>
       </c>
       <c r="C321" t="n">
         <v>3750001</v>
@@ -3970,7 +3970,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0.4744</v>
+        <v>0.4664</v>
       </c>
       <c r="C322" t="n">
         <v>3750001</v>
@@ -3981,7 +3981,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3536</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C323" t="n">
         <v>3750001</v>
@@ -3992,7 +3992,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.2896</v>
+        <v>2.3992</v>
       </c>
       <c r="C324" t="n">
         <v>3750001</v>
@@ -4003,7 +4003,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3144</v>
+        <v>0.968</v>
       </c>
       <c r="C325" t="n">
         <v>3750001</v>
@@ -4014,7 +4014,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>10.6896</v>
+        <v>7.98</v>
       </c>
       <c r="C326" t="n">
         <v>3750001</v>
@@ -4025,7 +4025,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.9776</v>
+        <v>0.976</v>
       </c>
       <c r="C327" t="n">
         <v>3750001</v>
@@ -4036,7 +4036,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.9776</v>
+        <v>1.4808</v>
       </c>
       <c r="C328" t="n">
         <v>3750001</v>
@@ -4047,7 +4047,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.9728000000000001</v>
+        <v>1.4744</v>
       </c>
       <c r="C329" t="n">
         <v>3750001</v>
@@ -4058,7 +4058,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.456</v>
+        <v>0.9616</v>
       </c>
       <c r="C330" t="n">
         <v>3750001</v>
@@ -4069,7 +4069,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.4712000000000001</v>
+        <v>2.4664</v>
       </c>
       <c r="C331" t="n">
         <v>3750001</v>
@@ -4080,7 +4080,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.44</v>
+        <v>11.9568</v>
       </c>
       <c r="C332" t="n">
         <v>3750001</v>
@@ -4091,7 +4091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>1.3792</v>
+        <v>2.9536</v>
       </c>
       <c r="C333" t="n">
         <v>3750001</v>
@@ -4102,7 +4102,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3848</v>
+        <v>16.484</v>
       </c>
       <c r="C334" t="n">
         <v>3750001</v>
@@ -4113,7 +4113,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>1.3952</v>
+        <v>25.0512</v>
       </c>
       <c r="C335" t="n">
         <v>3750001</v>
@@ -4124,7 +4124,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.4656</v>
+        <v>0.0104</v>
       </c>
       <c r="C336" t="n">
         <v>3750001</v>
@@ -4135,7 +4135,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12.4488</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C337" t="n">
         <v>3750001</v>
@@ -4146,10 +4146,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>1.4976</v>
+        <v>0.4848</v>
       </c>
       <c r="C338" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="339">
@@ -4157,10 +4157,10 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>2.9688</v>
+        <v>3.9664</v>
       </c>
       <c r="C339" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="340">
@@ -4168,10 +4168,10 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.4704</v>
+        <v>1.4776</v>
       </c>
       <c r="C340" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="341">
@@ -4179,10 +4179,10 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>12.956</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C341" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="342">
@@ -4190,10 +4190,10 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>3.9784</v>
+        <v>0.9664</v>
       </c>
       <c r="C342" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="343">
@@ -4201,10 +4201,10 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>5.9584</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C343" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="344">
@@ -4212,10 +4212,10 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>15.4384</v>
+        <v>0.4664</v>
       </c>
       <c r="C344" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="345">
@@ -4223,10 +4223,10 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>64.47920000000001</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C345" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="346">
@@ -4234,10 +4234,10 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>6.4848</v>
+        <v>1.4616</v>
       </c>
       <c r="C346" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="347">
@@ -4245,7 +4245,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>8.4656</v>
+        <v>2.9832</v>
       </c>
       <c r="C347" t="n">
         <v>4062501</v>
@@ -4256,7 +4256,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>11.9704</v>
+        <v>3.396</v>
       </c>
       <c r="C348" t="n">
         <v>4062501</v>
@@ -4267,7 +4267,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.9544</v>
+        <v>1.96</v>
       </c>
       <c r="C349" t="n">
         <v>4062501</v>
@@ -4278,7 +4278,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>2.432</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C350" t="n">
         <v>4062501</v>
@@ -4289,7 +4289,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>5.4744</v>
+        <v>0.9776</v>
       </c>
       <c r="C351" t="n">
         <v>4062501</v>
@@ -4300,7 +4300,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>1.9808</v>
+        <v>4.4352</v>
       </c>
       <c r="C352" t="n">
         <v>4062501</v>
@@ -4311,7 +4311,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>3.9208</v>
+        <v>1.4752</v>
       </c>
       <c r="C353" t="n">
         <v>4062501</v>
@@ -4322,7 +4322,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>0.9512</v>
+        <v>1.4648</v>
       </c>
       <c r="C354" t="n">
         <v>4062501</v>
@@ -4333,7 +4333,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>1.9672</v>
+        <v>2.4656</v>
       </c>
       <c r="C355" t="n">
         <v>4062501</v>
@@ -4344,7 +4344,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>0.9688000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="C356" t="n">
         <v>4062501</v>
@@ -4355,7 +4355,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>0.9616</v>
+        <v>2.9784</v>
       </c>
       <c r="C357" t="n">
         <v>4062501</v>
@@ -4366,7 +4366,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>5.4424</v>
+        <v>8.42</v>
       </c>
       <c r="C358" t="n">
         <v>4062501</v>
@@ -4377,7 +4377,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>1.408</v>
+        <v>3.4648</v>
       </c>
       <c r="C359" t="n">
         <v>4062501</v>
@@ -4388,7 +4388,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>4.4352</v>
+        <v>15.9824</v>
       </c>
       <c r="C360" t="n">
         <v>4062501</v>
@@ -4399,7 +4399,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>4.4712</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C361" t="n">
         <v>4062501</v>
@@ -4410,7 +4410,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>2.9888</v>
+        <v>45.9776</v>
       </c>
       <c r="C362" t="n">
         <v>4062501</v>
@@ -4421,7 +4421,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>9.959200000000001</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C363" t="n">
         <v>4062501</v>
@@ -4432,7 +4432,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>1.9648</v>
+        <v>4.96</v>
       </c>
       <c r="C364" t="n">
         <v>4062501</v>
@@ -4443,7 +4443,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>7.978400000000001</v>
+        <v>9.984</v>
       </c>
       <c r="C365" t="n">
         <v>4062501</v>
@@ -4454,7 +4454,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>63.9944</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C366" t="n">
         <v>4062501</v>
@@ -4465,7 +4465,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>10.9552</v>
+        <v>11.4744</v>
       </c>
       <c r="C367" t="n">
         <v>4062501</v>
@@ -4476,7 +4476,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>16.9888</v>
+        <v>8.4864</v>
       </c>
       <c r="C368" t="n">
         <v>4062501</v>
@@ -4487,7 +4487,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>4.944</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C369" t="n">
         <v>4062501</v>
@@ -4498,7 +4498,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>15.4784</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C370" t="n">
         <v>4062501</v>
@@ -4509,7 +4509,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>6.9848</v>
+        <v>51.9784</v>
       </c>
       <c r="C371" t="n">
         <v>4062501</v>
@@ -4520,10 +4520,10 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>20.9752</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C372" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="373">
@@ -4531,10 +4531,10 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>2.4648</v>
+        <v>75.7848</v>
       </c>
       <c r="C373" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="374">
@@ -4542,10 +4542,10 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>4.969600000000001</v>
+        <v>4.604</v>
       </c>
       <c r="C374" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="375">
@@ -4553,10 +4553,10 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>16.4736</v>
+        <v>5.0288</v>
       </c>
       <c r="C375" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="376">
@@ -4564,7 +4564,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>52.46720000000001</v>
+        <v>7.3328</v>
       </c>
       <c r="C376" t="n">
         <v>4375001</v>
@@ -4575,7 +4575,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>15.9936</v>
+        <v>41.4592</v>
       </c>
       <c r="C377" t="n">
         <v>4375001</v>
@@ -4586,7 +4586,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>69.9712</v>
+        <v>1.4496</v>
       </c>
       <c r="C378" t="n">
         <v>4375001</v>
@@ -4597,7 +4597,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>94.9696</v>
+        <v>4.8848</v>
       </c>
       <c r="C379" t="n">
         <v>4375001</v>
@@ -4608,7 +4608,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>1.4616</v>
+        <v>362.4784</v>
       </c>
       <c r="C380" t="n">
         <v>4375001</v>
@@ -4619,10 +4619,10 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>15.4696</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C381" t="n">
-        <v>4375001</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="382">
@@ -4630,10 +4630,10 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>352.4664</v>
+        <v>0.2248</v>
       </c>
       <c r="C382" t="n">
-        <v>4687501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="383">
@@ -4641,7 +4641,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>0.4272</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C383" t="n">
         <v>5000001</v>
@@ -4652,7 +4652,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>0.4008</v>
+        <v>0.3656</v>
       </c>
       <c r="C384" t="n">
         <v>5000001</v>
@@ -4663,7 +4663,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>0.3184</v>
+        <v>0.3072</v>
       </c>
       <c r="C385" t="n">
         <v>5000001</v>
@@ -4674,7 +4674,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.4144</v>
       </c>
       <c r="C386" t="n">
         <v>5000001</v>
@@ -4685,7 +4685,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>0.2784</v>
+        <v>0.2952</v>
       </c>
       <c r="C387" t="n">
         <v>5000001</v>
@@ -4696,7 +4696,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.4744</v>
+        <v>0.348</v>
       </c>
       <c r="C388" t="n">
         <v>5000001</v>
@@ -4707,7 +4707,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>0.3536</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C389" t="n">
         <v>5000001</v>
@@ -4718,7 +4718,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2896</v>
+        <v>0.3416</v>
       </c>
       <c r="C390" t="n">
         <v>5000001</v>
@@ -4729,7 +4729,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>0.3144</v>
+        <v>10.3944</v>
       </c>
       <c r="C391" t="n">
         <v>5000001</v>
@@ -4740,7 +4740,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>10.6896</v>
+        <v>1.4744</v>
       </c>
       <c r="C392" t="n">
         <v>5000001</v>
@@ -4751,7 +4751,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>0.9776</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C393" t="n">
         <v>5000001</v>
@@ -4762,7 +4762,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.9776</v>
+        <v>0.4432</v>
       </c>
       <c r="C394" t="n">
         <v>5000001</v>
@@ -4773,7 +4773,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.9728000000000001</v>
+        <v>0.476</v>
       </c>
       <c r="C395" t="n">
         <v>5000001</v>
@@ -4784,7 +4784,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.456</v>
+        <v>0.4232</v>
       </c>
       <c r="C396" t="n">
         <v>5000001</v>
@@ -4795,7 +4795,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.4712000000000001</v>
+        <v>0.4424</v>
       </c>
       <c r="C397" t="n">
         <v>5000001</v>
@@ -4806,7 +4806,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.44</v>
+        <v>0.4664</v>
       </c>
       <c r="C398" t="n">
         <v>5000001</v>
@@ -4817,7 +4817,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>1.3792</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C399" t="n">
         <v>5000001</v>
@@ -4828,7 +4828,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.3848</v>
+        <v>2.3992</v>
       </c>
       <c r="C400" t="n">
         <v>5000001</v>
@@ -4839,7 +4839,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>1.3952</v>
+        <v>0.968</v>
       </c>
       <c r="C401" t="n">
         <v>5000001</v>
@@ -4850,7 +4850,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.4656</v>
+        <v>7.98</v>
       </c>
       <c r="C402" t="n">
         <v>5000001</v>
@@ -4861,7 +4861,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>12.4488</v>
+        <v>0.976</v>
       </c>
       <c r="C403" t="n">
         <v>5000001</v>
@@ -4872,7 +4872,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>1.4976</v>
+        <v>1.4808</v>
       </c>
       <c r="C404" t="n">
         <v>5000001</v>
@@ -4883,7 +4883,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>2.9688</v>
+        <v>1.4744</v>
       </c>
       <c r="C405" t="n">
         <v>5000001</v>
@@ -4894,7 +4894,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.4704</v>
+        <v>0.9616</v>
       </c>
       <c r="C406" t="n">
         <v>5000001</v>
@@ -4905,7 +4905,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>12.956</v>
+        <v>2.4664</v>
       </c>
       <c r="C407" t="n">
         <v>5000001</v>
@@ -4916,7 +4916,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>3.9784</v>
+        <v>11.9568</v>
       </c>
       <c r="C408" t="n">
         <v>5000001</v>
@@ -4927,7 +4927,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>5.9584</v>
+        <v>2.9536</v>
       </c>
       <c r="C409" t="n">
         <v>5000001</v>
@@ -4938,7 +4938,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>15.4384</v>
+        <v>16.484</v>
       </c>
       <c r="C410" t="n">
         <v>5000001</v>
@@ -4949,7 +4949,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>64.47920000000001</v>
+        <v>25.0512</v>
       </c>
       <c r="C411" t="n">
         <v>5000001</v>
@@ -4960,7 +4960,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>6.4848</v>
+        <v>0.0104</v>
       </c>
       <c r="C412" t="n">
         <v>5000001</v>
@@ -4971,10 +4971,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>8.4656</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C413" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="414">
@@ -4982,7 +4982,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>11.9704</v>
+        <v>0.4848</v>
       </c>
       <c r="C414" t="n">
         <v>5312501</v>
@@ -4993,7 +4993,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>2.9544</v>
+        <v>3.9664</v>
       </c>
       <c r="C415" t="n">
         <v>5312501</v>
@@ -5004,7 +5004,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>2.432</v>
+        <v>1.4776</v>
       </c>
       <c r="C416" t="n">
         <v>5312501</v>
@@ -5015,7 +5015,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>5.4744</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C417" t="n">
         <v>5312501</v>
@@ -5026,7 +5026,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>1.9808</v>
+        <v>0.9664</v>
       </c>
       <c r="C418" t="n">
         <v>5312501</v>
@@ -5037,7 +5037,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>3.9208</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C419" t="n">
         <v>5312501</v>
@@ -5048,7 +5048,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>0.9512</v>
+        <v>0.4664</v>
       </c>
       <c r="C420" t="n">
         <v>5312501</v>
@@ -5059,7 +5059,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>1.9672</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C421" t="n">
         <v>5312501</v>
@@ -5070,7 +5070,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.9688000000000001</v>
+        <v>1.4616</v>
       </c>
       <c r="C422" t="n">
         <v>5312501</v>
@@ -5081,7 +5081,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.9616</v>
+        <v>2.9832</v>
       </c>
       <c r="C423" t="n">
         <v>5312501</v>
@@ -5092,7 +5092,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>5.4424</v>
+        <v>3.396</v>
       </c>
       <c r="C424" t="n">
         <v>5312501</v>
@@ -5103,7 +5103,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>1.408</v>
+        <v>1.96</v>
       </c>
       <c r="C425" t="n">
         <v>5312501</v>
@@ -5114,7 +5114,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>4.4352</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C426" t="n">
         <v>5312501</v>
@@ -5125,7 +5125,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>4.4712</v>
+        <v>0.9776</v>
       </c>
       <c r="C427" t="n">
         <v>5312501</v>
@@ -5136,7 +5136,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>2.9888</v>
+        <v>4.4352</v>
       </c>
       <c r="C428" t="n">
         <v>5312501</v>
@@ -5147,7 +5147,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>9.959200000000001</v>
+        <v>1.4752</v>
       </c>
       <c r="C429" t="n">
         <v>5312501</v>
@@ -5158,7 +5158,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>1.9648</v>
+        <v>1.4648</v>
       </c>
       <c r="C430" t="n">
         <v>5312501</v>
@@ -5169,7 +5169,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>7.978400000000001</v>
+        <v>2.4656</v>
       </c>
       <c r="C431" t="n">
         <v>5312501</v>
@@ -5180,7 +5180,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>63.9944</v>
+        <v>0.9816</v>
       </c>
       <c r="C432" t="n">
         <v>5312501</v>
@@ -5191,7 +5191,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>10.9552</v>
+        <v>2.9784</v>
       </c>
       <c r="C433" t="n">
         <v>5312501</v>
@@ -5202,7 +5202,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>16.9888</v>
+        <v>8.42</v>
       </c>
       <c r="C434" t="n">
         <v>5312501</v>
@@ -5213,7 +5213,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>4.944</v>
+        <v>3.4648</v>
       </c>
       <c r="C435" t="n">
         <v>5312501</v>
@@ -5224,7 +5224,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>15.4784</v>
+        <v>15.9824</v>
       </c>
       <c r="C436" t="n">
         <v>5312501</v>
@@ -5235,7 +5235,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>6.9848</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C437" t="n">
         <v>5312501</v>
@@ -5246,7 +5246,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>20.9752</v>
+        <v>45.9776</v>
       </c>
       <c r="C438" t="n">
         <v>5312501</v>
@@ -5257,7 +5257,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>2.4648</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C439" t="n">
         <v>5312501</v>
@@ -5268,7 +5268,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>4.969600000000001</v>
+        <v>4.96</v>
       </c>
       <c r="C440" t="n">
         <v>5312501</v>
@@ -5279,7 +5279,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>16.4736</v>
+        <v>9.984</v>
       </c>
       <c r="C441" t="n">
         <v>5312501</v>
@@ -5290,10 +5290,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>52.46720000000001</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C442" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="443">
@@ -5301,10 +5301,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>15.9936</v>
+        <v>11.4744</v>
       </c>
       <c r="C443" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="444">
@@ -5312,10 +5312,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>69.9712</v>
+        <v>8.4864</v>
       </c>
       <c r="C444" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="445">
@@ -5323,10 +5323,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>94.9696</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C445" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="446">
@@ -5334,10 +5334,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>1.4616</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>15.4696</v>
+        <v>51.9784</v>
       </c>
       <c r="C447" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>352.4664</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C448" t="n">
-        <v>5937501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>0.4272</v>
+        <v>75.86799999999999</v>
       </c>
       <c r="C449" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="450">
@@ -5378,10 +5378,10 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>0.4008</v>
+        <v>4.5208</v>
       </c>
       <c r="C450" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="451">
@@ -5389,10 +5389,10 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.3184</v>
+        <v>5.371200000000001</v>
       </c>
       <c r="C451" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="452">
@@ -5400,10 +5400,10 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>0.3664000000000001</v>
+        <v>6.9904</v>
       </c>
       <c r="C452" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="453">
@@ -5411,10 +5411,10 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>0.2784</v>
+        <v>41.4592</v>
       </c>
       <c r="C453" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="454">
@@ -5422,10 +5422,10 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>0.4744</v>
+        <v>1.4496</v>
       </c>
       <c r="C454" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="455">
@@ -5433,10 +5433,10 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>0.3536</v>
+        <v>4.8848</v>
       </c>
       <c r="C455" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="456">
@@ -5444,10 +5444,10 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>0.2896</v>
+        <v>362.4784</v>
       </c>
       <c r="C456" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="457">
@@ -5455,7 +5455,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>0.3144</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C457" t="n">
         <v>6250001</v>
@@ -5466,7 +5466,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>10.6896</v>
+        <v>0.2248</v>
       </c>
       <c r="C458" t="n">
         <v>6250001</v>
@@ -5477,7 +5477,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>0.9776</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C459" t="n">
         <v>6250001</v>
@@ -5488,7 +5488,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>0.9776</v>
+        <v>0.3656</v>
       </c>
       <c r="C460" t="n">
         <v>6250001</v>
@@ -5499,7 +5499,7 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>0.9728000000000001</v>
+        <v>0.3072</v>
       </c>
       <c r="C461" t="n">
         <v>6250001</v>
@@ -5510,7 +5510,7 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>0.456</v>
+        <v>0.4144</v>
       </c>
       <c r="C462" t="n">
         <v>6250001</v>
@@ -5521,7 +5521,7 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>0.4712000000000001</v>
+        <v>0.2952</v>
       </c>
       <c r="C463" t="n">
         <v>6250001</v>
@@ -5532,7 +5532,7 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.44</v>
+        <v>0.348</v>
       </c>
       <c r="C464" t="n">
         <v>6250001</v>
@@ -5543,7 +5543,7 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>1.3792</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C465" t="n">
         <v>6250001</v>
@@ -5554,7 +5554,7 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.3848</v>
+        <v>0.3416</v>
       </c>
       <c r="C466" t="n">
         <v>6250001</v>
@@ -5565,7 +5565,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>1.3952</v>
+        <v>10.3944</v>
       </c>
       <c r="C467" t="n">
         <v>6250001</v>
@@ -5576,7 +5576,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.4656</v>
+        <v>1.4744</v>
       </c>
       <c r="C468" t="n">
         <v>6250001</v>
@@ -5587,7 +5587,7 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>12.4488</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C469" t="n">
         <v>6250001</v>
@@ -5598,7 +5598,7 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>1.4976</v>
+        <v>0.4432</v>
       </c>
       <c r="C470" t="n">
         <v>6250001</v>
@@ -5609,7 +5609,7 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>2.9688</v>
+        <v>0.476</v>
       </c>
       <c r="C471" t="n">
         <v>6250001</v>
@@ -5620,7 +5620,7 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.4704</v>
+        <v>0.4232</v>
       </c>
       <c r="C472" t="n">
         <v>6250001</v>
@@ -5631,7 +5631,7 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>12.956</v>
+        <v>0.4424</v>
       </c>
       <c r="C473" t="n">
         <v>6250001</v>
@@ -5642,7 +5642,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>3.9784</v>
+        <v>0.4664</v>
       </c>
       <c r="C474" t="n">
         <v>6250001</v>
@@ -5653,7 +5653,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>5.9584</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C475" t="n">
         <v>6250001</v>
@@ -5664,7 +5664,7 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>15.4384</v>
+        <v>2.3992</v>
       </c>
       <c r="C476" t="n">
         <v>6250001</v>
@@ -5675,7 +5675,7 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>64.47920000000001</v>
+        <v>0.968</v>
       </c>
       <c r="C477" t="n">
         <v>6250001</v>
@@ -5686,7 +5686,7 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>6.4848</v>
+        <v>7.98</v>
       </c>
       <c r="C478" t="n">
         <v>6250001</v>
@@ -5697,10 +5697,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>8.4656</v>
+        <v>0.976</v>
       </c>
       <c r="C479" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="480">
@@ -5708,10 +5708,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>11.9704</v>
+        <v>1.4808</v>
       </c>
       <c r="C480" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="481">
@@ -5719,10 +5719,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>2.9544</v>
+        <v>1.4744</v>
       </c>
       <c r="C481" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="482">
@@ -5730,10 +5730,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>2.432</v>
+        <v>0.9616</v>
       </c>
       <c r="C482" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="483">
@@ -5741,10 +5741,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>5.4744</v>
+        <v>2.4664</v>
       </c>
       <c r="C483" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="484">
@@ -5752,10 +5752,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>1.9808</v>
+        <v>11.9568</v>
       </c>
       <c r="C484" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="485">
@@ -5763,10 +5763,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>3.9208</v>
+        <v>2.9536</v>
       </c>
       <c r="C485" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="486">
@@ -5774,10 +5774,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>0.9512</v>
+        <v>16.484</v>
       </c>
       <c r="C486" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="487">
@@ -5785,10 +5785,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.9672</v>
+        <v>25.0512</v>
       </c>
       <c r="C487" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="488">
@@ -5796,10 +5796,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>0.9688000000000001</v>
+        <v>0.0104</v>
       </c>
       <c r="C488" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="489">
@@ -5807,10 +5807,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>0.9616</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C489" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="490">
@@ -5818,7 +5818,7 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>5.4424</v>
+        <v>0.4848</v>
       </c>
       <c r="C490" t="n">
         <v>6562501</v>
@@ -5829,7 +5829,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>1.408</v>
+        <v>3.9664</v>
       </c>
       <c r="C491" t="n">
         <v>6562501</v>
@@ -5840,7 +5840,7 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>4.4352</v>
+        <v>1.4776</v>
       </c>
       <c r="C492" t="n">
         <v>6562501</v>
@@ -5851,7 +5851,7 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>4.4712</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C493" t="n">
         <v>6562501</v>
@@ -5862,7 +5862,7 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>2.9888</v>
+        <v>0.9664</v>
       </c>
       <c r="C494" t="n">
         <v>6562501</v>
@@ -5873,7 +5873,7 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>9.959200000000001</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C495" t="n">
         <v>6562501</v>
@@ -5884,7 +5884,7 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>1.9648</v>
+        <v>0.4664</v>
       </c>
       <c r="C496" t="n">
         <v>6562501</v>
@@ -5895,7 +5895,7 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>7.978400000000001</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C497" t="n">
         <v>6562501</v>
@@ -5906,7 +5906,7 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>63.9944</v>
+        <v>1.4616</v>
       </c>
       <c r="C498" t="n">
         <v>6562501</v>
@@ -5917,7 +5917,7 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>10.9552</v>
+        <v>2.9832</v>
       </c>
       <c r="C499" t="n">
         <v>6562501</v>
@@ -5928,7 +5928,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>16.9888</v>
+        <v>3.396</v>
       </c>
       <c r="C500" t="n">
         <v>6562501</v>
@@ -5939,7 +5939,7 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>4.944</v>
+        <v>1.96</v>
       </c>
       <c r="C501" t="n">
         <v>6562501</v>
@@ -5950,7 +5950,7 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>15.4784</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C502" t="n">
         <v>6562501</v>
@@ -5961,7 +5961,7 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>6.9848</v>
+        <v>0.9776</v>
       </c>
       <c r="C503" t="n">
         <v>6562501</v>
@@ -5972,7 +5972,7 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>20.9752</v>
+        <v>4.4352</v>
       </c>
       <c r="C504" t="n">
         <v>6562501</v>
@@ -5983,7 +5983,7 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>2.4648</v>
+        <v>1.4752</v>
       </c>
       <c r="C505" t="n">
         <v>6562501</v>
@@ -5994,7 +5994,7 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>4.969600000000001</v>
+        <v>1.4648</v>
       </c>
       <c r="C506" t="n">
         <v>6562501</v>
@@ -6005,7 +6005,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>16.4736</v>
+        <v>2.4656</v>
       </c>
       <c r="C507" t="n">
         <v>6562501</v>
@@ -6016,10 +6016,10 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>52.46720000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="C508" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="509">
@@ -6027,10 +6027,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>15.9936</v>
+        <v>2.9784</v>
       </c>
       <c r="C509" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="510">
@@ -6038,10 +6038,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>69.9712</v>
+        <v>8.42</v>
       </c>
       <c r="C510" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="511">
@@ -6049,10 +6049,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>94.9696</v>
+        <v>3.4648</v>
       </c>
       <c r="C511" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="512">
@@ -6060,10 +6060,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>1.4616</v>
+        <v>15.9824</v>
       </c>
       <c r="C512" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="513">
@@ -6071,10 +6071,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>15.4696</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C513" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="514">
@@ -6082,10 +6082,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>352.4664</v>
+        <v>45.9776</v>
       </c>
       <c r="C514" t="n">
-        <v>7187501</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="515">
@@ -6093,10 +6093,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>0.4272</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C515" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="516">
@@ -6104,10 +6104,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>0.4008</v>
+        <v>4.96</v>
       </c>
       <c r="C516" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="517">
@@ -6115,10 +6115,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>0.3184</v>
+        <v>9.984</v>
       </c>
       <c r="C517" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="518">
@@ -6126,10 +6126,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>0.3664000000000001</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C518" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="519">
@@ -6137,10 +6137,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>0.2784</v>
+        <v>11.4744</v>
       </c>
       <c r="C519" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="520">
@@ -6148,10 +6148,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>0.4744</v>
+        <v>8.4864</v>
       </c>
       <c r="C520" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="521">
@@ -6159,10 +6159,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0.3536</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C521" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="522">
@@ -6170,10 +6170,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2896</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C522" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="523">
@@ -6181,10 +6181,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>0.3144</v>
+        <v>51.9784</v>
       </c>
       <c r="C523" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="524">
@@ -6192,10 +6192,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>10.6896</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C524" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="525">
@@ -6203,10 +6203,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>0.9776</v>
+        <v>75.9512</v>
       </c>
       <c r="C525" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="526">
@@ -6214,10 +6214,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>0.9776</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C526" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="527">
@@ -6225,10 +6225,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>0.9728000000000001</v>
+        <v>5.371200000000001</v>
       </c>
       <c r="C527" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="528">
@@ -6236,10 +6236,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>0.456</v>
+        <v>6.9904</v>
       </c>
       <c r="C528" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="529">
@@ -6247,10 +6247,10 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>0.4712000000000001</v>
+        <v>41.4592</v>
       </c>
       <c r="C529" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="530">
@@ -6258,10 +6258,10 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>0.44</v>
+        <v>1.4496</v>
       </c>
       <c r="C530" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="531">
@@ -6269,10 +6269,10 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>1.3792</v>
+        <v>4.8848</v>
       </c>
       <c r="C531" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="532">
@@ -6280,10 +6280,10 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>0.3848</v>
+        <v>362.4784</v>
       </c>
       <c r="C532" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="533">
@@ -6291,7 +6291,7 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>1.3952</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C533" t="n">
         <v>7500001</v>
@@ -6302,7 +6302,7 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>0.4656</v>
+        <v>0.2248</v>
       </c>
       <c r="C534" t="n">
         <v>7500001</v>
@@ -6313,7 +6313,7 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>12.4488</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C535" t="n">
         <v>7500001</v>
@@ -6324,7 +6324,7 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>1.4976</v>
+        <v>0.3656</v>
       </c>
       <c r="C536" t="n">
         <v>7500001</v>
@@ -6335,7 +6335,7 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>2.9688</v>
+        <v>0.3072</v>
       </c>
       <c r="C537" t="n">
         <v>7500001</v>
@@ -6346,7 +6346,7 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0.4704</v>
+        <v>0.4144</v>
       </c>
       <c r="C538" t="n">
         <v>7500001</v>
@@ -6357,7 +6357,7 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>12.956</v>
+        <v>0.2952</v>
       </c>
       <c r="C539" t="n">
         <v>7500001</v>
@@ -6368,7 +6368,7 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>3.9784</v>
+        <v>0.348</v>
       </c>
       <c r="C540" t="n">
         <v>7500001</v>
@@ -6379,7 +6379,7 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>5.9584</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C541" t="n">
         <v>7500001</v>
@@ -6390,7 +6390,7 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>15.4384</v>
+        <v>0.3416</v>
       </c>
       <c r="C542" t="n">
         <v>7500001</v>
@@ -6401,7 +6401,7 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>64.47920000000001</v>
+        <v>10.3944</v>
       </c>
       <c r="C543" t="n">
         <v>7500001</v>
@@ -6412,7 +6412,7 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>6.4848</v>
+        <v>1.4744</v>
       </c>
       <c r="C544" t="n">
         <v>7500001</v>
@@ -6423,10 +6423,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>8.4656</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C545" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="546">
@@ -6434,10 +6434,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>11.9704</v>
+        <v>0.4432</v>
       </c>
       <c r="C546" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="547">
@@ -6445,10 +6445,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>2.9544</v>
+        <v>0.476</v>
       </c>
       <c r="C547" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="548">
@@ -6456,10 +6456,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>2.432</v>
+        <v>0.4232</v>
       </c>
       <c r="C548" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="549">
@@ -6467,10 +6467,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>5.4744</v>
+        <v>0.4424</v>
       </c>
       <c r="C549" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="550">
@@ -6478,10 +6478,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>1.9808</v>
+        <v>0.4664</v>
       </c>
       <c r="C550" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="551">
@@ -6489,10 +6489,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>3.9208</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C551" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="552">
@@ -6500,10 +6500,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>0.9512</v>
+        <v>2.3992</v>
       </c>
       <c r="C552" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="553">
@@ -6511,10 +6511,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>1.9672</v>
+        <v>0.968</v>
       </c>
       <c r="C553" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="554">
@@ -6522,10 +6522,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0.9688000000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C554" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="555">
@@ -6533,10 +6533,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0.9616</v>
+        <v>0.976</v>
       </c>
       <c r="C555" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="556">
@@ -6544,10 +6544,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>5.4424</v>
+        <v>1.4808</v>
       </c>
       <c r="C556" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="557">
@@ -6555,10 +6555,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>1.408</v>
+        <v>1.4744</v>
       </c>
       <c r="C557" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="558">
@@ -6566,10 +6566,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>4.4352</v>
+        <v>0.9616</v>
       </c>
       <c r="C558" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="559">
@@ -6577,10 +6577,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>4.4712</v>
+        <v>2.4664</v>
       </c>
       <c r="C559" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="560">
@@ -6588,10 +6588,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>2.9888</v>
+        <v>11.9568</v>
       </c>
       <c r="C560" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="561">
@@ -6599,10 +6599,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>9.959200000000001</v>
+        <v>2.9536</v>
       </c>
       <c r="C561" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="562">
@@ -6610,10 +6610,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>1.9648</v>
+        <v>16.484</v>
       </c>
       <c r="C562" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="563">
@@ -6621,10 +6621,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>7.978400000000001</v>
+        <v>25.0512</v>
       </c>
       <c r="C563" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="564">
@@ -6632,10 +6632,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>63.9944</v>
+        <v>0.0104</v>
       </c>
       <c r="C564" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="565">
@@ -6643,10 +6643,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>10.9552</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C565" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="566">
@@ -6654,7 +6654,7 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>16.9888</v>
+        <v>0.4848</v>
       </c>
       <c r="C566" t="n">
         <v>7812501</v>
@@ -6665,7 +6665,7 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>4.944</v>
+        <v>3.9664</v>
       </c>
       <c r="C567" t="n">
         <v>7812501</v>
@@ -6676,7 +6676,7 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>15.4784</v>
+        <v>1.4776</v>
       </c>
       <c r="C568" t="n">
         <v>7812501</v>
@@ -6687,7 +6687,7 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>6.9848</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C569" t="n">
         <v>7812501</v>
@@ -6698,7 +6698,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>20.9752</v>
+        <v>0.9664</v>
       </c>
       <c r="C570" t="n">
         <v>7812501</v>
@@ -6709,7 +6709,7 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>2.4648</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C571" t="n">
         <v>7812501</v>
@@ -6720,7 +6720,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>4.969600000000001</v>
+        <v>0.4664</v>
       </c>
       <c r="C572" t="n">
         <v>7812501</v>
@@ -6731,7 +6731,7 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>16.4736</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C573" t="n">
         <v>7812501</v>
@@ -6742,10 +6742,10 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>52.46720000000001</v>
+        <v>1.4616</v>
       </c>
       <c r="C574" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="575">
@@ -6753,10 +6753,10 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>15.9936</v>
+        <v>2.9832</v>
       </c>
       <c r="C575" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="576">
@@ -6764,10 +6764,10 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>69.9712</v>
+        <v>3.396</v>
       </c>
       <c r="C576" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="577">
@@ -6775,10 +6775,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>94.9696</v>
+        <v>1.96</v>
       </c>
       <c r="C577" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="578">
@@ -6786,10 +6786,10 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>1.4616</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C578" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="579">
@@ -6797,10 +6797,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>15.4696</v>
+        <v>0.9776</v>
       </c>
       <c r="C579" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="580">
@@ -6808,10 +6808,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>352.4664</v>
+        <v>4.4352</v>
       </c>
       <c r="C580" t="n">
-        <v>8437501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="581">
@@ -6819,10 +6819,10 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>0.4272</v>
+        <v>1.4752</v>
       </c>
       <c r="C581" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="582">
@@ -6830,10 +6830,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>0.4008</v>
+        <v>1.4648</v>
       </c>
       <c r="C582" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="583">
@@ -6841,10 +6841,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>0.3184</v>
+        <v>2.4656</v>
       </c>
       <c r="C583" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="584">
@@ -6852,10 +6852,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.9816</v>
       </c>
       <c r="C584" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="585">
@@ -6863,10 +6863,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>0.2784</v>
+        <v>2.9784</v>
       </c>
       <c r="C585" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="586">
@@ -6874,10 +6874,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4744</v>
+        <v>8.42</v>
       </c>
       <c r="C586" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="587">
@@ -6885,10 +6885,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>0.3536</v>
+        <v>3.4648</v>
       </c>
       <c r="C587" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="588">
@@ -6896,10 +6896,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>0.2896</v>
+        <v>15.9824</v>
       </c>
       <c r="C588" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="589">
@@ -6907,10 +6907,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>0.3144</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C589" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="590">
@@ -6918,10 +6918,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>10.6896</v>
+        <v>45.9776</v>
       </c>
       <c r="C590" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="591">
@@ -6929,10 +6929,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>0.9776</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C591" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="592">
@@ -6940,10 +6940,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>0.9776</v>
+        <v>4.96</v>
       </c>
       <c r="C592" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="593">
@@ -6951,10 +6951,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>0.9728000000000001</v>
+        <v>9.984</v>
       </c>
       <c r="C593" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="594">
@@ -6962,10 +6962,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>0.456</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C594" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="595">
@@ -6973,10 +6973,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>0.4712000000000001</v>
+        <v>11.4744</v>
       </c>
       <c r="C595" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="596">
@@ -6984,10 +6984,10 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>0.44</v>
+        <v>8.4864</v>
       </c>
       <c r="C596" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="597">
@@ -6995,10 +6995,10 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>1.3792</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C597" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="598">
@@ -7006,10 +7006,10 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.3848</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C598" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="599">
@@ -7017,10 +7017,10 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>1.3952</v>
+        <v>51.9784</v>
       </c>
       <c r="C599" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="600">
@@ -7028,10 +7028,10 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>0.4656</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C600" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="601">
@@ -7039,10 +7039,10 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>12.4488</v>
+        <v>75.9512</v>
       </c>
       <c r="C601" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="602">
@@ -7050,10 +7050,10 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>1.4976</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C602" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="603">
@@ -7061,10 +7061,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>2.9688</v>
+        <v>5.371200000000001</v>
       </c>
       <c r="C603" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="604">
@@ -7072,10 +7072,10 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>0.4704</v>
+        <v>6.9904</v>
       </c>
       <c r="C604" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="605">
@@ -7083,10 +7083,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>12.956</v>
+        <v>41.4592</v>
       </c>
       <c r="C605" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="606">
@@ -7094,10 +7094,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>3.9784</v>
+        <v>1.4496</v>
       </c>
       <c r="C606" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="607">
@@ -7105,10 +7105,10 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>5.9584</v>
+        <v>4.8848</v>
       </c>
       <c r="C607" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="608">
@@ -7116,10 +7116,10 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>15.4384</v>
+        <v>362.4784</v>
       </c>
       <c r="C608" t="n">
-        <v>8750001</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="609">
@@ -7127,7 +7127,7 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>64.47920000000001</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C609" t="n">
         <v>8750001</v>
@@ -7138,7 +7138,7 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>6.4848</v>
+        <v>0.2248</v>
       </c>
       <c r="C610" t="n">
         <v>8750001</v>
@@ -7149,10 +7149,10 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>8.4656</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C611" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="612">
@@ -7160,10 +7160,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>11.9704</v>
+        <v>0.3656</v>
       </c>
       <c r="C612" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="613">
@@ -7171,10 +7171,10 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>2.9544</v>
+        <v>0.3072</v>
       </c>
       <c r="C613" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="614">
@@ -7182,10 +7182,10 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>2.432</v>
+        <v>0.4144</v>
       </c>
       <c r="C614" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="615">
@@ -7193,10 +7193,10 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>5.4744</v>
+        <v>0.2952</v>
       </c>
       <c r="C615" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="616">
@@ -7204,10 +7204,10 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>1.9808</v>
+        <v>0.348</v>
       </c>
       <c r="C616" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="617">
@@ -7215,10 +7215,10 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>3.9208</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C617" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="618">
@@ -7226,10 +7226,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>0.9512</v>
+        <v>0.3416</v>
       </c>
       <c r="C618" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="619">
@@ -7237,10 +7237,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>1.9672</v>
+        <v>10.3944</v>
       </c>
       <c r="C619" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="620">
@@ -7248,10 +7248,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>0.9688000000000001</v>
+        <v>1.4744</v>
       </c>
       <c r="C620" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="621">
@@ -7259,10 +7259,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>0.9616</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C621" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="622">
@@ -7270,10 +7270,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>5.4424</v>
+        <v>0.4432</v>
       </c>
       <c r="C622" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="623">
@@ -7281,10 +7281,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>1.408</v>
+        <v>0.476</v>
       </c>
       <c r="C623" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="624">
@@ -7292,10 +7292,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>4.4352</v>
+        <v>0.4232</v>
       </c>
       <c r="C624" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="625">
@@ -7303,10 +7303,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>4.4712</v>
+        <v>0.4424</v>
       </c>
       <c r="C625" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="626">
@@ -7314,10 +7314,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>2.9888</v>
+        <v>0.4664</v>
       </c>
       <c r="C626" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="627">
@@ -7325,10 +7325,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>9.959200000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C627" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="628">
@@ -7336,10 +7336,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>1.9648</v>
+        <v>2.3992</v>
       </c>
       <c r="C628" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="629">
@@ -7347,10 +7347,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>7.978400000000001</v>
+        <v>0.968</v>
       </c>
       <c r="C629" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="630">
@@ -7358,10 +7358,10 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>63.9944</v>
+        <v>7.98</v>
       </c>
       <c r="C630" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="631">
@@ -7369,10 +7369,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>10.9552</v>
+        <v>0.976</v>
       </c>
       <c r="C631" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="632">
@@ -7380,10 +7380,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>16.9888</v>
+        <v>1.4808</v>
       </c>
       <c r="C632" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="633">
@@ -7391,10 +7391,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>4.944</v>
+        <v>1.4744</v>
       </c>
       <c r="C633" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="634">
@@ -7402,10 +7402,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>15.4784</v>
+        <v>0.9616</v>
       </c>
       <c r="C634" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="635">
@@ -7413,10 +7413,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>6.9848</v>
+        <v>2.4664</v>
       </c>
       <c r="C635" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="636">
@@ -7424,10 +7424,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>20.9752</v>
+        <v>11.9568</v>
       </c>
       <c r="C636" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="637">
@@ -7435,10 +7435,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>2.4648</v>
+        <v>2.9536</v>
       </c>
       <c r="C637" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="638">
@@ -7446,10 +7446,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>4.969600000000001</v>
+        <v>16.484</v>
       </c>
       <c r="C638" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="639">
@@ -7457,10 +7457,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>16.4736</v>
+        <v>25.0512</v>
       </c>
       <c r="C639" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="640">
@@ -7468,10 +7468,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>52.46720000000001</v>
+        <v>0.0104</v>
       </c>
       <c r="C640" t="n">
-        <v>9375001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="641">
@@ -7479,10 +7479,10 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>15.9936</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C641" t="n">
-        <v>9375001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="642">
@@ -7490,10 +7490,10 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>69.9712</v>
+        <v>0.4848</v>
       </c>
       <c r="C642" t="n">
-        <v>9375001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="643">
@@ -7501,10 +7501,10 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>94.9696</v>
+        <v>3.9664</v>
       </c>
       <c r="C643" t="n">
-        <v>9375001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="644">
@@ -7512,10 +7512,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>1.4616</v>
+        <v>1.4776</v>
       </c>
       <c r="C644" t="n">
-        <v>9375001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="645">
@@ -7523,10 +7523,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>15.4696</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C645" t="n">
-        <v>9375001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="646">
@@ -7534,10 +7534,10 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>352.4664</v>
+        <v>0.9664</v>
       </c>
       <c r="C646" t="n">
-        <v>9687501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="647">
@@ -7545,10 +7545,10 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>0.4272</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C647" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="648">
@@ -7556,10 +7556,10 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>0.4008</v>
+        <v>0.4664</v>
       </c>
       <c r="C648" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="649">
@@ -7567,10 +7567,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>0.3184</v>
+        <v>0.9728000000000001</v>
       </c>
       <c r="C649" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="650">
@@ -7578,10 +7578,10 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>0.3664000000000001</v>
+        <v>1.4616</v>
       </c>
       <c r="C650" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="651">
@@ -7589,10 +7589,10 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>0.2784</v>
+        <v>2.9832</v>
       </c>
       <c r="C651" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="652">
@@ -7600,10 +7600,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>0.4744</v>
+        <v>3.396</v>
       </c>
       <c r="C652" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="653">
@@ -7611,10 +7611,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>0.3536</v>
+        <v>1.96</v>
       </c>
       <c r="C653" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="654">
@@ -7622,10 +7622,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>0.2896</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C654" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="655">
@@ -7633,10 +7633,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>0.3144</v>
+        <v>0.9776</v>
       </c>
       <c r="C655" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="656">
@@ -7644,10 +7644,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>10.6896</v>
+        <v>4.4352</v>
       </c>
       <c r="C656" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="657">
@@ -7655,10 +7655,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>0.9776</v>
+        <v>1.4752</v>
       </c>
       <c r="C657" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="658">
@@ -7666,10 +7666,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>0.9776</v>
+        <v>1.4648</v>
       </c>
       <c r="C658" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="659">
@@ -7677,10 +7677,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>0.9728000000000001</v>
+        <v>2.4656</v>
       </c>
       <c r="C659" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="660">
@@ -7688,10 +7688,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>0.456</v>
+        <v>0.9816</v>
       </c>
       <c r="C660" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="661">
@@ -7699,10 +7699,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>0.4712000000000001</v>
+        <v>2.9784</v>
       </c>
       <c r="C661" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="662">
@@ -7710,10 +7710,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>0.44</v>
+        <v>8.42</v>
       </c>
       <c r="C662" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="663">
@@ -7721,10 +7721,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>1.3792</v>
+        <v>3.4648</v>
       </c>
       <c r="C663" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="664">
@@ -7732,10 +7732,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>0.3848</v>
+        <v>15.9824</v>
       </c>
       <c r="C664" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="665">
@@ -7743,10 +7743,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>1.3952</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C665" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="666">
@@ -7754,10 +7754,10 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>0.4656</v>
+        <v>45.9776</v>
       </c>
       <c r="C666" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="667">
@@ -7765,10 +7765,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>12.4488</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C667" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="668">
@@ -7776,10 +7776,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>1.4976</v>
+        <v>4.96</v>
       </c>
       <c r="C668" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="669">
@@ -7787,10 +7787,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>2.9688</v>
+        <v>9.984</v>
       </c>
       <c r="C669" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="670">
@@ -7798,10 +7798,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>0.4704</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C670" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="671">
@@ -7809,10 +7809,10 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>12.956</v>
+        <v>11.4744</v>
       </c>
       <c r="C671" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="672">
@@ -7820,10 +7820,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>3.9784</v>
+        <v>8.4864</v>
       </c>
       <c r="C672" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="673">
@@ -7831,10 +7831,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>5.9584</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C673" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="674">
@@ -7842,10 +7842,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>15.4384</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C674" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="675">
@@ -7853,10 +7853,10 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>64.47920000000001</v>
+        <v>51.9784</v>
       </c>
       <c r="C675" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="676">
@@ -7864,10 +7864,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>6.4848</v>
+        <v>79.48399999999999</v>
       </c>
       <c r="C676" t="n">
-        <v>10000001</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="677">
@@ -7875,10 +7875,10 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>8.4656</v>
+        <v>75.9512</v>
       </c>
       <c r="C677" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="678">
@@ -7886,10 +7886,10 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>11.9704</v>
+        <v>4.437600000000001</v>
       </c>
       <c r="C678" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="679">
@@ -7897,10 +7897,10 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>2.9544</v>
+        <v>5.371200000000001</v>
       </c>
       <c r="C679" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="680">
@@ -7908,10 +7908,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>2.432</v>
+        <v>6.9904</v>
       </c>
       <c r="C680" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="681">
@@ -7919,10 +7919,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>5.4744</v>
+        <v>41.4592</v>
       </c>
       <c r="C681" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="682">
@@ -7930,10 +7930,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>1.9808</v>
+        <v>1.4496</v>
       </c>
       <c r="C682" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="683">
@@ -7941,10 +7941,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>3.9208</v>
+        <v>4.8848</v>
       </c>
       <c r="C683" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="684">
@@ -7952,10 +7952,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>0.9512</v>
+        <v>362.4784</v>
       </c>
       <c r="C684" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="685">
@@ -7963,10 +7963,10 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>1.9672</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C685" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="686">
@@ -7974,10 +7974,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>0.9688000000000001</v>
+        <v>0.2248</v>
       </c>
       <c r="C686" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="687">
@@ -7985,10 +7985,10 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>0.9616</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C687" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="688">
@@ -7996,10 +7996,10 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>5.4424</v>
+        <v>0.3656</v>
       </c>
       <c r="C688" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="689">
@@ -8007,10 +8007,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>1.408</v>
+        <v>0.3072</v>
       </c>
       <c r="C689" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="690">
@@ -8018,10 +8018,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>4.4352</v>
+        <v>0.4144</v>
       </c>
       <c r="C690" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="691">
@@ -8029,10 +8029,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>4.4712</v>
+        <v>0.2952</v>
       </c>
       <c r="C691" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="692">
@@ -8040,10 +8040,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>2.9888</v>
+        <v>0.348</v>
       </c>
       <c r="C692" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="693">
@@ -8051,10 +8051,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>9.959200000000001</v>
+        <v>0.3472000000000001</v>
       </c>
       <c r="C693" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="694">
@@ -8062,10 +8062,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>1.9648</v>
+        <v>0.3416</v>
       </c>
       <c r="C694" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="695">
@@ -8073,10 +8073,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>7.978400000000001</v>
+        <v>10.3944</v>
       </c>
       <c r="C695" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="696">
@@ -8084,10 +8084,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>63.9944</v>
+        <v>1.4744</v>
       </c>
       <c r="C696" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="697">
@@ -8095,10 +8095,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>10.9552</v>
+        <v>0.9624000000000001</v>
       </c>
       <c r="C697" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="698">
@@ -8106,10 +8106,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>16.9888</v>
+        <v>0.4432</v>
       </c>
       <c r="C698" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="699">
@@ -8117,10 +8117,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>4.944</v>
+        <v>0.476</v>
       </c>
       <c r="C699" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="700">
@@ -8128,10 +8128,10 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>15.4784</v>
+        <v>0.4232</v>
       </c>
       <c r="C700" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="701">
@@ -8139,10 +8139,10 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>6.9848</v>
+        <v>0.4424</v>
       </c>
       <c r="C701" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="702">
@@ -8150,10 +8150,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>20.9752</v>
+        <v>0.4664</v>
       </c>
       <c r="C702" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="703">
@@ -8161,10 +8161,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>2.4648</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C703" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="704">
@@ -8172,10 +8172,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>4.969600000000001</v>
+        <v>2.3992</v>
       </c>
       <c r="C704" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="705">
@@ -8183,10 +8183,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>16.4736</v>
+        <v>0.968</v>
       </c>
       <c r="C705" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="706">
@@ -8194,10 +8194,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>52.46720000000001</v>
+        <v>7.98</v>
       </c>
       <c r="C706" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="707">
@@ -8205,10 +8205,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>15.9936</v>
+        <v>0.976</v>
       </c>
       <c r="C707" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="708">
@@ -8216,10 +8216,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>69.9712</v>
+        <v>1.4808</v>
       </c>
       <c r="C708" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="709">
@@ -8227,10 +8227,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>94.9696</v>
+        <v>1.4744</v>
       </c>
       <c r="C709" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="710">
@@ -8238,10 +8238,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>1.4616</v>
+        <v>0.9616</v>
       </c>
       <c r="C710" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="711">
@@ -8249,10 +8249,10 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>15.4696</v>
+        <v>2.4664</v>
       </c>
       <c r="C711" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="712">
@@ -8260,10 +8260,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>352.4664</v>
+        <v>11.9568</v>
       </c>
       <c r="C712" t="n">
-        <v>10937501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="713">
@@ -8271,10 +8271,10 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>0.4272</v>
+        <v>2.9536</v>
       </c>
       <c r="C713" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="714">
@@ -8282,10 +8282,10 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>0.4008</v>
+        <v>16.484</v>
       </c>
       <c r="C714" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="715">
@@ -8293,10 +8293,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>0.3184</v>
+        <v>25.0512</v>
       </c>
       <c r="C715" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="716">
@@ -8304,10 +8304,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>0.3664000000000001</v>
+        <v>0.0104</v>
       </c>
       <c r="C716" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="717">
@@ -8315,10 +8315,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>0.2784</v>
+        <v>58.10720000000001</v>
       </c>
       <c r="C717" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="718">
@@ -8326,10 +8326,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>0.4744</v>
+        <v>0.4848</v>
       </c>
       <c r="C718" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="719">
@@ -8337,10 +8337,10 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>0.3536</v>
+        <v>3.9664</v>
       </c>
       <c r="C719" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="720">
@@ -8348,10 +8348,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>0.2896</v>
+        <v>1.4776</v>
       </c>
       <c r="C720" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="721">
@@ -8359,10 +8359,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>0.3144</v>
+        <v>4.478400000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="722">
@@ -8370,10 +8370,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>10.6896</v>
+        <v>0.9664</v>
       </c>
       <c r="C722" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="723">
@@ -8381,10 +8381,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>0.9776</v>
+        <v>4.978400000000001</v>
       </c>
       <c r="C723" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="724">
@@ -8392,10 +8392,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>0.9776</v>
+        <v>0.4664</v>
       </c>
       <c r="C724" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="725">
@@ -8406,7 +8406,7 @@
         <v>0.9728000000000001</v>
       </c>
       <c r="C725" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="726">
@@ -8414,10 +8414,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>0.456</v>
+        <v>1.4616</v>
       </c>
       <c r="C726" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="727">
@@ -8425,10 +8425,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>0.4712000000000001</v>
+        <v>2.9832</v>
       </c>
       <c r="C727" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="728">
@@ -8436,10 +8436,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>0.44</v>
+        <v>3.396</v>
       </c>
       <c r="C728" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="729">
@@ -8447,10 +8447,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>1.3792</v>
+        <v>1.96</v>
       </c>
       <c r="C729" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="730">
@@ -8458,10 +8458,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>0.3848</v>
+        <v>5.437600000000001</v>
       </c>
       <c r="C730" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="731">
@@ -8469,10 +8469,10 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>1.3952</v>
+        <v>0.9776</v>
       </c>
       <c r="C731" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="732">
@@ -8480,10 +8480,10 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>0.4656</v>
+        <v>4.4352</v>
       </c>
       <c r="C732" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="733">
@@ -8491,10 +8491,10 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>12.4488</v>
+        <v>1.4752</v>
       </c>
       <c r="C733" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="734">
@@ -8502,10 +8502,10 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>1.4976</v>
+        <v>1.4648</v>
       </c>
       <c r="C734" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="735">
@@ -8513,10 +8513,10 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>2.9688</v>
+        <v>2.4656</v>
       </c>
       <c r="C735" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="736">
@@ -8524,10 +8524,10 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>0.4704</v>
+        <v>0.9816</v>
       </c>
       <c r="C736" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="737">
@@ -8535,10 +8535,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>12.956</v>
+        <v>2.9784</v>
       </c>
       <c r="C737" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="738">
@@ -8546,10 +8546,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>3.9784</v>
+        <v>8.42</v>
       </c>
       <c r="C738" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="739">
@@ -8557,10 +8557,10 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>5.9584</v>
+        <v>3.4648</v>
       </c>
       <c r="C739" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="740">
@@ -8568,10 +8568,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>15.4384</v>
+        <v>15.9824</v>
       </c>
       <c r="C740" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="741">
@@ -8579,10 +8579,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>64.47920000000001</v>
+        <v>7.954400000000001</v>
       </c>
       <c r="C741" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="742">
@@ -8590,10 +8590,10 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>6.4848</v>
+        <v>45.9776</v>
       </c>
       <c r="C742" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="743">
@@ -8601,10 +8601,10 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>8.4656</v>
+        <v>8.975200000000001</v>
       </c>
       <c r="C743" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="744">
@@ -8612,10 +8612,10 @@
         <v>742</v>
       </c>
       <c r="B744" t="n">
-        <v>11.9704</v>
+        <v>4.96</v>
       </c>
       <c r="C744" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="745">
@@ -8623,10 +8623,10 @@
         <v>743</v>
       </c>
       <c r="B745" t="n">
-        <v>2.9544</v>
+        <v>9.984</v>
       </c>
       <c r="C745" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="746">
@@ -8634,10 +8634,10 @@
         <v>744</v>
       </c>
       <c r="B746" t="n">
-        <v>2.432</v>
+        <v>9.957600000000001</v>
       </c>
       <c r="C746" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="747">
@@ -8645,10 +8645,10 @@
         <v>745</v>
       </c>
       <c r="B747" t="n">
-        <v>5.4744</v>
+        <v>11.4744</v>
       </c>
       <c r="C747" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="748">
@@ -8656,10 +8656,10 @@
         <v>746</v>
       </c>
       <c r="B748" t="n">
-        <v>1.9808</v>
+        <v>8.4864</v>
       </c>
       <c r="C748" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="749">
@@ -8667,10 +8667,10 @@
         <v>747</v>
       </c>
       <c r="B749" t="n">
-        <v>3.9208</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="C749" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="750">
@@ -8678,10 +8678,10 @@
         <v>748</v>
       </c>
       <c r="B750" t="n">
-        <v>0.9512</v>
+        <v>9.962400000000001</v>
       </c>
       <c r="C750" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="751">
@@ -8689,10 +8689,10 @@
         <v>749</v>
       </c>
       <c r="B751" t="n">
-        <v>1.9672</v>
+        <v>51.97920000000001</v>
       </c>
       <c r="C751" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="752">
@@ -8700,10 +8700,10 @@
         <v>750</v>
       </c>
       <c r="B752" t="n">
-        <v>0.9688000000000001</v>
+        <v>79.48320000000001</v>
       </c>
       <c r="C752" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="753">
@@ -8711,10 +8711,10 @@
         <v>751</v>
       </c>
       <c r="B753" t="n">
-        <v>0.9616</v>
+        <v>75.7032</v>
       </c>
       <c r="C753" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="754">
@@ -8722,10 +8722,10 @@
         <v>752</v>
       </c>
       <c r="B754" t="n">
-        <v>5.4424</v>
+        <v>4.6856</v>
       </c>
       <c r="C754" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="755">
@@ -8733,10 +8733,10 @@
         <v>753</v>
       </c>
       <c r="B755" t="n">
-        <v>1.408</v>
+        <v>5.372</v>
       </c>
       <c r="C755" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="756">
@@ -8744,10 +8744,10 @@
         <v>754</v>
       </c>
       <c r="B756" t="n">
-        <v>4.4352</v>
+        <v>6.9904</v>
       </c>
       <c r="C756" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="757">
@@ -8755,10 +8755,10 @@
         <v>755</v>
       </c>
       <c r="B757" t="n">
-        <v>4.4712</v>
+        <v>41.4592</v>
       </c>
       <c r="C757" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="758">
@@ -8766,10 +8766,10 @@
         <v>756</v>
       </c>
       <c r="B758" t="n">
-        <v>2.9888</v>
+        <v>1.4496</v>
       </c>
       <c r="C758" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="759">
@@ -8777,10 +8777,10 @@
         <v>757</v>
       </c>
       <c r="B759" t="n">
-        <v>9.959200000000001</v>
+        <v>4.8848</v>
       </c>
       <c r="C759" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="760">
@@ -8788,10 +8788,10 @@
         <v>758</v>
       </c>
       <c r="B760" t="n">
-        <v>1.9648</v>
+        <v>362.4776000000001</v>
       </c>
       <c r="C760" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="761">
@@ -8799,10 +8799,10 @@
         <v>759</v>
       </c>
       <c r="B761" t="n">
-        <v>7.978400000000001</v>
+        <v>0.4752000000000001</v>
       </c>
       <c r="C761" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="762">
@@ -8810,10 +8810,10 @@
         <v>760</v>
       </c>
       <c r="B762" t="n">
-        <v>63.9944</v>
+        <v>0.2256</v>
       </c>
       <c r="C762" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="763">
@@ -8821,10 +8821,10 @@
         <v>761</v>
       </c>
       <c r="B763" t="n">
-        <v>10.9552</v>
+        <v>0.3952000000000001</v>
       </c>
       <c r="C763" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="764">
@@ -8832,10 +8832,10 @@
         <v>762</v>
       </c>
       <c r="B764" t="n">
-        <v>16.9888</v>
+        <v>0.3648</v>
       </c>
       <c r="C764" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="765">
@@ -8843,10 +8843,10 @@
         <v>763</v>
       </c>
       <c r="B765" t="n">
-        <v>4.944</v>
+        <v>0.3072</v>
       </c>
       <c r="C765" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="766">
@@ -8854,10 +8854,10 @@
         <v>764</v>
       </c>
       <c r="B766" t="n">
-        <v>15.4784</v>
+        <v>0.4144</v>
       </c>
       <c r="C766" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="767">
@@ -8865,10 +8865,10 @@
         <v>765</v>
       </c>
       <c r="B767" t="n">
-        <v>6.9848</v>
+        <v>0.296</v>
       </c>
       <c r="C767" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="768">
@@ -8876,10 +8876,10 @@
         <v>766</v>
       </c>
       <c r="B768" t="n">
-        <v>20.9752</v>
+        <v>0.348</v>
       </c>
       <c r="C768" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="769">
@@ -8887,10 +8887,10 @@
         <v>767</v>
       </c>
       <c r="B769" t="n">
-        <v>2.4648</v>
+        <v>0.3464</v>
       </c>
       <c r="C769" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="770">
@@ -8898,10 +8898,10 @@
         <v>768</v>
       </c>
       <c r="B770" t="n">
-        <v>4.969600000000001</v>
+        <v>0.3416</v>
       </c>
       <c r="C770" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="771">
@@ -8909,10 +8909,10 @@
         <v>769</v>
       </c>
       <c r="B771" t="n">
-        <v>16.4736</v>
+        <v>10.3944</v>
       </c>
       <c r="C771" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="772">
@@ -8920,10 +8920,10 @@
         <v>770</v>
       </c>
       <c r="B772" t="n">
-        <v>52.46720000000001</v>
+        <v>1.4752</v>
       </c>
       <c r="C772" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="773">
@@ -8931,10 +8931,10 @@
         <v>771</v>
       </c>
       <c r="B773" t="n">
-        <v>15.9936</v>
+        <v>0.9616</v>
       </c>
       <c r="C773" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="774">
@@ -8942,10 +8942,10 @@
         <v>772</v>
       </c>
       <c r="B774" t="n">
-        <v>69.9712</v>
+        <v>0.4432</v>
       </c>
       <c r="C774" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="775">
@@ -8953,10 +8953,10 @@
         <v>773</v>
       </c>
       <c r="B775" t="n">
-        <v>94.9696</v>
+        <v>0.4768</v>
       </c>
       <c r="C775" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="776">
@@ -8964,10 +8964,10 @@
         <v>774</v>
       </c>
       <c r="B776" t="n">
-        <v>1.4616</v>
+        <v>0.4232</v>
       </c>
       <c r="C776" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="777">
@@ -8975,10 +8975,10 @@
         <v>775</v>
       </c>
       <c r="B777" t="n">
-        <v>15.4696</v>
+        <v>0.4416</v>
       </c>
       <c r="C777" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="778">
@@ -8986,10 +8986,648 @@
         <v>776</v>
       </c>
       <c r="B778" t="n">
-        <v>248.8928</v>
+        <v>0.4664</v>
       </c>
       <c r="C778" t="n">
-        <v>12187501</v>
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0.9208000000000001</v>
+      </c>
+      <c r="C779" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.3992</v>
+      </c>
+      <c r="C780" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="C781" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="C782" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="C783" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>1.4808</v>
+      </c>
+      <c r="C784" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>1.4752</v>
+      </c>
+      <c r="C785" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.9616</v>
+      </c>
+      <c r="C786" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>2.4664</v>
+      </c>
+      <c r="C787" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>11.9568</v>
+      </c>
+      <c r="C788" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>2.9536</v>
+      </c>
+      <c r="C789" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>16.484</v>
+      </c>
+      <c r="C790" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>25.0512</v>
+      </c>
+      <c r="C791" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0.0104</v>
+      </c>
+      <c r="C792" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>58.1064</v>
+      </c>
+      <c r="C793" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.4848</v>
+      </c>
+      <c r="C794" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>3.9664</v>
+      </c>
+      <c r="C795" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>1.4784</v>
+      </c>
+      <c r="C796" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>4.477600000000001</v>
+      </c>
+      <c r="C797" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>0.9672000000000001</v>
+      </c>
+      <c r="C798" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>4.977600000000001</v>
+      </c>
+      <c r="C799" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>0.4664</v>
+      </c>
+      <c r="C800" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.9736</v>
+      </c>
+      <c r="C801" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>1.4616</v>
+      </c>
+      <c r="C802" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.9832</v>
+      </c>
+      <c r="C803" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>3.3952</v>
+      </c>
+      <c r="C804" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C805" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>5.438400000000001</v>
+      </c>
+      <c r="C806" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>0.9776</v>
+      </c>
+      <c r="C807" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>4.4344</v>
+      </c>
+      <c r="C808" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>1.476</v>
+      </c>
+      <c r="C809" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>1.464</v>
+      </c>
+      <c r="C810" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>2.4664</v>
+      </c>
+      <c r="C811" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>0.9816</v>
+      </c>
+      <c r="C812" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>811</v>
+      </c>
+      <c r="B813" t="n">
+        <v>2.9776</v>
+      </c>
+      <c r="C813" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>812</v>
+      </c>
+      <c r="B814" t="n">
+        <v>8.420800000000002</v>
+      </c>
+      <c r="C814" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>813</v>
+      </c>
+      <c r="B815" t="n">
+        <v>3.464</v>
+      </c>
+      <c r="C815" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>814</v>
+      </c>
+      <c r="B816" t="n">
+        <v>15.9824</v>
+      </c>
+      <c r="C816" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>815</v>
+      </c>
+      <c r="B817" t="n">
+        <v>7.954400000000001</v>
+      </c>
+      <c r="C817" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>45.9776</v>
+      </c>
+      <c r="C818" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>8.975200000000001</v>
+      </c>
+      <c r="C819" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="C820" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>9.984</v>
+      </c>
+      <c r="C821" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>9.957600000000001</v>
+      </c>
+      <c r="C822" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>11.4744</v>
+      </c>
+      <c r="C823" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>8.4864</v>
+      </c>
+      <c r="C824" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C825" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>9.962400000000001</v>
+      </c>
+      <c r="C826" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>51.97920000000001</v>
+      </c>
+      <c r="C827" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>79.48320000000001</v>
+      </c>
+      <c r="C828" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>75.7032</v>
+      </c>
+      <c r="C829" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>4.6856</v>
+      </c>
+      <c r="C830" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>5.372</v>
+      </c>
+      <c r="C831" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>6.9904</v>
+      </c>
+      <c r="C832" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>41.4592</v>
+      </c>
+      <c r="C833" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>1.4496</v>
+      </c>
+      <c r="C834" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>4.8848</v>
+      </c>
+      <c r="C835" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>259.5464</v>
+      </c>
+      <c r="C836" t="n">
+        <v>11875001</v>
       </c>
     </row>
   </sheetData>

--- a/instance_generator/instances/instance_C3/fragmentation/fragmentation_link2_request400.xlsx
+++ b/instance_generator/instances/instance_C3/fragmentation/fragmentation_link2_request400.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C743"/>
+  <dimension ref="A1:C812"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>102.9312</v>
+        <v>100.0072</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3552000000000001</v>
+        <v>0.0352</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -472,7 +472,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1304</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -483,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04</v>
+        <v>0.0248</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0264</v>
+        <v>0.0168</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3368</v>
+        <v>0.0256</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08</v>
+        <v>0.012</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.024</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0576</v>
+        <v>0.044</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -549,7 +549,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0488</v>
+        <v>0.03680000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -560,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0328</v>
+        <v>0.005600000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.0056</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4176</v>
+        <v>0.0288</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7664000000000001</v>
+        <v>58.212</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1904</v>
+        <v>0.552</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3336</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2592</v>
+        <v>0.52</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.408</v>
+        <v>0.004</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3344</v>
+        <v>1.196</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.4104</v>
+        <v>0.716</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.736</v>
+        <v>0.708</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4104</v>
+        <v>0.408</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4056</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.4176</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.428</v>
+        <v>0.1032</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.4168</v>
+        <v>0.5808000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.9104</v>
+        <v>0.1976</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>53.9984</v>
+        <v>0.252</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04720000000000001</v>
+        <v>0.1416</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.036</v>
+        <v>0.128</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.028</v>
+        <v>0.48</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0072</v>
+        <v>0.076</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0208</v>
+        <v>0.0072</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0464</v>
+        <v>0.3376</v>
       </c>
       <c r="C35" t="n">
         <v>312501</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3712</v>
+        <v>0.012</v>
       </c>
       <c r="C36" t="n">
         <v>312501</v>
@@ -835,7 +835,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.408</v>
+        <v>0.4952</v>
       </c>
       <c r="C37" t="n">
         <v>312501</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.424</v>
       </c>
       <c r="C38" t="n">
         <v>312501</v>
@@ -857,7 +857,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C39" t="n">
         <v>312501</v>
@@ -868,7 +868,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.184</v>
+        <v>0.108</v>
       </c>
       <c r="C40" t="n">
         <v>312501</v>
@@ -879,7 +879,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5744</v>
+        <v>0.0168</v>
       </c>
       <c r="C41" t="n">
         <v>312501</v>
@@ -890,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.248</v>
+        <v>0.5304</v>
       </c>
       <c r="C42" t="n">
         <v>312501</v>
@@ -901,7 +901,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.152</v>
+        <v>0.056</v>
       </c>
       <c r="C43" t="n">
         <v>312501</v>
@@ -912,7 +912,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.644</v>
+        <v>0.5208</v>
       </c>
       <c r="C44" t="n">
         <v>312501</v>
@@ -923,7 +923,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07360000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="C45" t="n">
         <v>312501</v>
@@ -934,7 +934,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0176</v>
+        <v>0.6928000000000001</v>
       </c>
       <c r="C46" t="n">
         <v>312501</v>
@@ -945,7 +945,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1272</v>
+        <v>0.036</v>
       </c>
       <c r="C47" t="n">
         <v>312501</v>
@@ -956,7 +956,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.604</v>
+        <v>0.3688</v>
       </c>
       <c r="C48" t="n">
         <v>312501</v>
@@ -967,7 +967,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.596</v>
+        <v>0.6912</v>
       </c>
       <c r="C49" t="n">
         <v>312501</v>
@@ -978,7 +978,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3072</v>
+        <v>0.004</v>
       </c>
       <c r="C50" t="n">
         <v>312501</v>
@@ -989,7 +989,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0776</v>
+        <v>1.32</v>
       </c>
       <c r="C51" t="n">
         <v>312501</v>
@@ -1000,7 +1000,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0936</v>
+        <v>1.4976</v>
       </c>
       <c r="C52" t="n">
         <v>312501</v>
@@ -1011,7 +1011,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.048</v>
+        <v>0.424</v>
       </c>
       <c r="C53" t="n">
         <v>312501</v>
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0216</v>
+        <v>5.112</v>
       </c>
       <c r="C54" t="n">
         <v>312501</v>
@@ -1033,7 +1033,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.096</v>
+        <v>7.406400000000001</v>
       </c>
       <c r="C55" t="n">
         <v>312501</v>
@@ -1044,7 +1044,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06080000000000001</v>
+        <v>9.4184</v>
       </c>
       <c r="C56" t="n">
         <v>312501</v>
@@ -1055,7 +1055,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0384</v>
+        <v>5.9264</v>
       </c>
       <c r="C57" t="n">
         <v>312501</v>
@@ -1066,7 +1066,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5504</v>
+        <v>40.764</v>
       </c>
       <c r="C58" t="n">
         <v>312501</v>
@@ -1077,7 +1077,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.612</v>
+        <v>16.9208</v>
       </c>
       <c r="C59" t="n">
         <v>312501</v>
@@ -1088,7 +1088,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06560000000000001</v>
+        <v>0.6984000000000001</v>
       </c>
       <c r="C60" t="n">
         <v>312501</v>
@@ -1099,7 +1099,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0152</v>
+        <v>4.956</v>
       </c>
       <c r="C61" t="n">
         <v>312501</v>
@@ -1110,7 +1110,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.008</v>
+        <v>4.628</v>
       </c>
       <c r="C62" t="n">
         <v>312501</v>
@@ -1121,7 +1121,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4624</v>
+        <v>0.7</v>
       </c>
       <c r="C63" t="n">
         <v>312501</v>
@@ -1132,7 +1132,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.08480000000000001</v>
+        <v>3.1176</v>
       </c>
       <c r="C64" t="n">
         <v>312501</v>
@@ -1143,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.068</v>
+        <v>2.776</v>
       </c>
       <c r="C65" t="n">
         <v>312501</v>
@@ -1154,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3944</v>
+        <v>2.192</v>
       </c>
       <c r="C66" t="n">
         <v>312501</v>
@@ -1165,7 +1165,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1152</v>
+        <v>0.1864</v>
       </c>
       <c r="C67" t="n">
         <v>312501</v>
@@ -1176,7 +1176,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08</v>
+        <v>0.5943999999999999</v>
       </c>
       <c r="C68" t="n">
         <v>312501</v>
@@ -1187,7 +1187,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3504</v>
+        <v>0.232</v>
       </c>
       <c r="C69" t="n">
         <v>312501</v>
@@ -1198,7 +1198,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.024</v>
+        <v>3.272</v>
       </c>
       <c r="C70" t="n">
         <v>312501</v>
@@ -1209,7 +1209,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>14.5224</v>
+        <v>1.3376</v>
       </c>
       <c r="C71" t="n">
         <v>312501</v>
@@ -1220,7 +1220,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18.78</v>
+        <v>0.604</v>
       </c>
       <c r="C72" t="n">
         <v>312501</v>
@@ -1231,7 +1231,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.28</v>
+        <v>2.072</v>
       </c>
       <c r="C73" t="n">
         <v>312501</v>
@@ -1242,7 +1242,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.264</v>
+        <v>0.804</v>
       </c>
       <c r="C74" t="n">
         <v>312501</v>
@@ -1253,7 +1253,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2.256</v>
+        <v>0.0328</v>
       </c>
       <c r="C75" t="n">
         <v>312501</v>
@@ -1264,7 +1264,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.248</v>
+        <v>0.58</v>
       </c>
       <c r="C76" t="n">
         <v>312501</v>
@@ -1275,7 +1275,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.24</v>
+        <v>0.628</v>
       </c>
       <c r="C77" t="n">
         <v>312501</v>
@@ -1286,7 +1286,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.248</v>
+        <v>0.596</v>
       </c>
       <c r="C78" t="n">
         <v>312501</v>
@@ -1297,7 +1297,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>3.28</v>
+        <v>3.0544</v>
       </c>
       <c r="C79" t="n">
         <v>312501</v>
@@ -1308,7 +1308,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.644</v>
+        <v>4.2</v>
       </c>
       <c r="C80" t="n">
         <v>312501</v>
@@ -1319,7 +1319,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.0824</v>
+        <v>1.0168</v>
       </c>
       <c r="C81" t="n">
         <v>312501</v>
@@ -1330,7 +1330,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.472</v>
+        <v>11.9104</v>
       </c>
       <c r="C82" t="n">
         <v>312501</v>
@@ -1341,7 +1341,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.092</v>
+        <v>2.9224</v>
       </c>
       <c r="C83" t="n">
         <v>312501</v>
@@ -1352,7 +1352,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.352</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C84" t="n">
         <v>312501</v>
@@ -1363,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.572</v>
+        <v>6.4248</v>
       </c>
       <c r="C85" t="n">
         <v>312501</v>
@@ -1374,10 +1374,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.128</v>
+        <v>7.572</v>
       </c>
       <c r="C86" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="87">
@@ -1385,10 +1385,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.668</v>
+        <v>14.652</v>
       </c>
       <c r="C87" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="88">
@@ -1396,10 +1396,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.068</v>
+        <v>60.144</v>
       </c>
       <c r="C88" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="89">
@@ -1407,10 +1407,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.4</v>
+        <v>1.628</v>
       </c>
       <c r="C89" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="90">
@@ -1418,10 +1418,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.064</v>
+        <v>4.732</v>
       </c>
       <c r="C90" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="91">
@@ -1429,10 +1429,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.176</v>
+        <v>4.216</v>
       </c>
       <c r="C91" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="92">
@@ -1440,10 +1440,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.916</v>
+        <v>5.692</v>
       </c>
       <c r="C92" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="93">
@@ -1451,10 +1451,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.572</v>
+        <v>0.4048</v>
       </c>
       <c r="C93" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="94">
@@ -1462,10 +1462,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>5.588</v>
+        <v>11.716</v>
       </c>
       <c r="C94" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="95">
@@ -1473,10 +1473,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.62</v>
+        <v>0.112</v>
       </c>
       <c r="C95" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="96">
@@ -1484,10 +1484,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2.852</v>
+        <v>2.4216</v>
       </c>
       <c r="C96" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="97">
@@ -1495,10 +1495,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.104</v>
+        <v>5.136</v>
       </c>
       <c r="C97" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="98">
@@ -1506,10 +1506,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.1216</v>
+        <v>4.588</v>
       </c>
       <c r="C98" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="99">
@@ -1517,10 +1517,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8.564</v>
+        <v>2.112</v>
       </c>
       <c r="C99" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="100">
@@ -1528,10 +1528,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.056</v>
+        <v>1.9112</v>
       </c>
       <c r="C100" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="101">
@@ -1539,10 +1539,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.413600000000001</v>
+        <v>106.2472</v>
       </c>
       <c r="C101" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="102">
@@ -1550,10 +1550,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.08</v>
+        <v>61.636</v>
       </c>
       <c r="C102" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="103">
@@ -1561,10 +1561,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.556</v>
+        <v>290.004</v>
       </c>
       <c r="C103" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="104">
@@ -1572,10 +1572,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>42.66</v>
+        <v>0.0144</v>
       </c>
       <c r="C104" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="105">
@@ -1583,10 +1583,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>24.176</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="106">
@@ -1594,10 +1594,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.28</v>
+        <v>0.028</v>
       </c>
       <c r="C106" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="107">
@@ -1605,10 +1605,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7.248</v>
+        <v>0.0416</v>
       </c>
       <c r="C107" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="108">
@@ -1616,10 +1616,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.708</v>
+        <v>0.032</v>
       </c>
       <c r="C108" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="109">
@@ -1627,10 +1627,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>19.748</v>
+        <v>0.009600000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="110">
@@ -1638,10 +1638,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.208</v>
+        <v>0.0024</v>
       </c>
       <c r="C110" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="111">
@@ -1649,10 +1649,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16.676</v>
+        <v>0.068</v>
       </c>
       <c r="C111" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="112">
@@ -1660,10 +1660,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5.556</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="C112" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="113">
@@ -1671,10 +1671,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>174.16</v>
+        <v>0.044</v>
       </c>
       <c r="C113" t="n">
-        <v>625001</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="114">
@@ -1682,10 +1682,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>265.928</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="115">
@@ -1693,7 +1693,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.3552000000000001</v>
+        <v>9.4536</v>
       </c>
       <c r="C115" t="n">
         <v>1250001</v>
@@ -1704,7 +1704,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.1304</v>
+        <v>0.428</v>
       </c>
       <c r="C116" t="n">
         <v>1250001</v>
@@ -1715,7 +1715,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.04</v>
+        <v>0.4216</v>
       </c>
       <c r="C117" t="n">
         <v>1250001</v>
@@ -1726,7 +1726,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.0272</v>
+        <v>0.2592</v>
       </c>
       <c r="C118" t="n">
         <v>1250001</v>
@@ -1737,7 +1737,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.336</v>
+        <v>0.1856</v>
       </c>
       <c r="C119" t="n">
         <v>1250001</v>
@@ -1748,7 +1748,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.08</v>
+        <v>0.752</v>
       </c>
       <c r="C120" t="n">
         <v>1250001</v>
@@ -1759,7 +1759,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.4088</v>
       </c>
       <c r="C121" t="n">
         <v>1250001</v>
@@ -1770,7 +1770,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.0576</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C122" t="n">
         <v>1250001</v>
@@ -1781,7 +1781,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0488</v>
+        <v>0.8272</v>
       </c>
       <c r="C123" t="n">
         <v>1250001</v>
@@ -1792,7 +1792,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0328</v>
+        <v>0.9128000000000001</v>
       </c>
       <c r="C124" t="n">
         <v>1250001</v>
@@ -1803,7 +1803,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>11.0064</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C125" t="n">
         <v>1250001</v>
@@ -1814,7 +1814,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4168</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C126" t="n">
         <v>1250001</v>
@@ -1825,7 +1825,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7664000000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C127" t="n">
         <v>1250001</v>
@@ -1836,7 +1836,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.1904</v>
+        <v>1.9184</v>
       </c>
       <c r="C128" t="n">
         <v>1250001</v>
@@ -1847,7 +1847,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3344</v>
+        <v>1.92</v>
       </c>
       <c r="C129" t="n">
         <v>1250001</v>
@@ -1858,7 +1858,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2584</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C130" t="n">
         <v>1250001</v>
@@ -1869,7 +1869,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.408</v>
+        <v>11.9208</v>
       </c>
       <c r="C131" t="n">
         <v>1250001</v>
@@ -1880,7 +1880,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.3344</v>
+        <v>1.9032</v>
       </c>
       <c r="C132" t="n">
         <v>1250001</v>
@@ -1891,7 +1891,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.4104</v>
+        <v>96.51600000000001</v>
       </c>
       <c r="C133" t="n">
         <v>1250001</v>
@@ -1902,10 +1902,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.736</v>
+        <v>1.8088</v>
       </c>
       <c r="C134" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="135">
@@ -1913,10 +1913,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.4104</v>
+        <v>4.4096</v>
       </c>
       <c r="C135" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="136">
@@ -1924,10 +1924,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.4056</v>
+        <v>3.9176</v>
       </c>
       <c r="C136" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="137">
@@ -1935,10 +1935,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>11.4176</v>
+        <v>0.4064</v>
       </c>
       <c r="C137" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="138">
@@ -1946,10 +1946,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.428</v>
+        <v>4.3136</v>
       </c>
       <c r="C138" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="139">
@@ -1957,10 +1957,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.4168</v>
+        <v>1.4216</v>
       </c>
       <c r="C139" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="140">
@@ -1968,10 +1968,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>2.9104</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="141">
@@ -1979,10 +1979,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>53.9984</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="142">
@@ -1990,10 +1990,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>57.896</v>
+        <v>2.8272</v>
       </c>
       <c r="C142" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="143">
@@ -2001,7 +2001,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.4088</v>
+        <v>1.4208</v>
       </c>
       <c r="C143" t="n">
         <v>1562501</v>
@@ -2012,7 +2012,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.424</v>
+        <v>0.4248</v>
       </c>
       <c r="C144" t="n">
         <v>1562501</v>
@@ -2023,7 +2023,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3.9048</v>
+        <v>0.2616</v>
       </c>
       <c r="C145" t="n">
         <v>1562501</v>
@@ -2034,7 +2034,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.7472</v>
+        <v>5.42</v>
       </c>
       <c r="C146" t="n">
         <v>1562501</v>
@@ -2045,7 +2045,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6.4176</v>
+        <v>1.9056</v>
       </c>
       <c r="C147" t="n">
         <v>1562501</v>
@@ -2056,7 +2056,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>2.4088</v>
+        <v>2.1128</v>
       </c>
       <c r="C148" t="n">
         <v>1562501</v>
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.904</v>
+        <v>0.7384000000000001</v>
       </c>
       <c r="C149" t="n">
         <v>1562501</v>
@@ -2078,7 +2078,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3.3168</v>
+        <v>0.412</v>
       </c>
       <c r="C150" t="n">
         <v>1562501</v>
@@ -2089,7 +2089,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.42</v>
+        <v>0.4208</v>
       </c>
       <c r="C151" t="n">
         <v>1562501</v>
@@ -2100,7 +2100,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3.8424</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C152" t="n">
         <v>1562501</v>
@@ -2111,7 +2111,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9104000000000001</v>
+        <v>1.916</v>
       </c>
       <c r="C153" t="n">
         <v>1562501</v>
@@ -2122,7 +2122,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9168000000000001</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C154" t="n">
         <v>1562501</v>
@@ -2133,7 +2133,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.3232</v>
+        <v>3.5672</v>
       </c>
       <c r="C155" t="n">
         <v>1562501</v>
@@ -2144,7 +2144,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.4136</v>
+        <v>5.4048</v>
       </c>
       <c r="C156" t="n">
         <v>1562501</v>
@@ -2155,7 +2155,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3.9048</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C157" t="n">
         <v>1562501</v>
@@ -2166,7 +2166,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.912</v>
+        <v>0.912</v>
       </c>
       <c r="C158" t="n">
         <v>1562501</v>
@@ -2188,7 +2188,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>2.9248</v>
+        <v>10.4248</v>
       </c>
       <c r="C160" t="n">
         <v>1562501</v>
@@ -2199,7 +2199,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3.408</v>
+        <v>15.4056</v>
       </c>
       <c r="C161" t="n">
         <v>1562501</v>
@@ -2210,7 +2210,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.408</v>
+        <v>15.4264</v>
       </c>
       <c r="C162" t="n">
         <v>1562501</v>
@@ -2221,7 +2221,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.912</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C163" t="n">
         <v>1562501</v>
@@ -2232,7 +2232,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6.8296</v>
+        <v>18.4064</v>
       </c>
       <c r="C164" t="n">
         <v>1562501</v>
@@ -2243,7 +2243,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7.4288</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C165" t="n">
         <v>1562501</v>
@@ -2254,7 +2254,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8.426399999999999</v>
+        <v>4.9168</v>
       </c>
       <c r="C166" t="n">
         <v>1562501</v>
@@ -2265,7 +2265,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.4216</v>
+        <v>2.9144</v>
       </c>
       <c r="C167" t="n">
         <v>1562501</v>
@@ -2276,7 +2276,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1.9088</v>
+        <v>9.913600000000001</v>
       </c>
       <c r="C168" t="n">
         <v>1562501</v>
@@ -2287,7 +2287,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3.9144</v>
+        <v>3.9176</v>
       </c>
       <c r="C169" t="n">
         <v>1562501</v>
@@ -2298,7 +2298,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>11.9144</v>
+        <v>16.8392</v>
       </c>
       <c r="C170" t="n">
         <v>1562501</v>
@@ -2309,7 +2309,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>17.0896</v>
+        <v>4.84</v>
       </c>
       <c r="C171" t="n">
         <v>1562501</v>
@@ -2320,7 +2320,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>15.6816</v>
+        <v>2.9104</v>
       </c>
       <c r="C172" t="n">
         <v>1562501</v>
@@ -2331,7 +2331,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14.9208</v>
+        <v>16.9256</v>
       </c>
       <c r="C173" t="n">
         <v>1562501</v>
@@ -2342,10 +2342,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.9248</v>
+        <v>43.9048</v>
       </c>
       <c r="C174" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="175">
@@ -2353,10 +2353,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>14.8312</v>
+        <v>35.8312</v>
       </c>
       <c r="C175" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="176">
@@ -2364,10 +2364,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8.928000000000001</v>
+        <v>23.9056</v>
       </c>
       <c r="C176" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="177">
@@ -2375,10 +2375,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7.416</v>
+        <v>30.9096</v>
       </c>
       <c r="C177" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="178">
@@ -2386,10 +2386,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>0.4248</v>
+        <v>9.9216</v>
       </c>
       <c r="C178" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="179">
@@ -2397,10 +2397,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9.912800000000001</v>
+        <v>115.4208</v>
       </c>
       <c r="C179" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="180">
@@ -2408,10 +2408,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>53.9144</v>
+        <v>335.504</v>
       </c>
       <c r="C180" t="n">
-        <v>1562501</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="181">
@@ -2419,10 +2419,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>17.9136</v>
+        <v>0.0568</v>
       </c>
       <c r="C181" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="182">
@@ -2430,10 +2430,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>195.9096</v>
+        <v>0.012</v>
       </c>
       <c r="C182" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="183">
@@ -2441,10 +2441,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>368.928</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C183" t="n">
-        <v>1875001</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="184">
@@ -2452,7 +2452,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>0.3552000000000001</v>
+        <v>0.0216</v>
       </c>
       <c r="C184" t="n">
         <v>2500001</v>
@@ -2463,7 +2463,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>0.1296</v>
+        <v>0.0272</v>
       </c>
       <c r="C185" t="n">
         <v>2500001</v>
@@ -2474,7 +2474,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>0.0408</v>
+        <v>0.0416</v>
       </c>
       <c r="C186" t="n">
         <v>2500001</v>
@@ -2485,7 +2485,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0264</v>
+        <v>0.0344</v>
       </c>
       <c r="C187" t="n">
         <v>2500001</v>
@@ -2496,7 +2496,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>0.3368</v>
+        <v>0.016</v>
       </c>
       <c r="C188" t="n">
         <v>2500001</v>
@@ -2507,7 +2507,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0.08</v>
+        <v>0.008</v>
       </c>
       <c r="C189" t="n">
         <v>2500001</v>
@@ -2518,7 +2518,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C190" t="n">
         <v>2500001</v>
@@ -2529,7 +2529,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0576</v>
+        <v>0.0568</v>
       </c>
       <c r="C191" t="n">
         <v>2500001</v>
@@ -2540,7 +2540,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0488</v>
+        <v>0.044</v>
       </c>
       <c r="C192" t="n">
         <v>2500001</v>
@@ -2551,7 +2551,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0328</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C193" t="n">
         <v>2500001</v>
@@ -2562,7 +2562,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>11.0056</v>
+        <v>9.3712</v>
       </c>
       <c r="C194" t="n">
         <v>2500001</v>
@@ -2573,7 +2573,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0.4176</v>
+        <v>0.428</v>
       </c>
       <c r="C195" t="n">
         <v>2500001</v>
@@ -2584,7 +2584,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0.7664000000000001</v>
+        <v>0.4216</v>
       </c>
       <c r="C196" t="n">
         <v>2500001</v>
@@ -2595,7 +2595,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0.1904</v>
+        <v>0.2592</v>
       </c>
       <c r="C197" t="n">
         <v>2500001</v>
@@ -2606,7 +2606,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0.3336</v>
+        <v>0.1856</v>
       </c>
       <c r="C198" t="n">
         <v>2500001</v>
@@ -2617,7 +2617,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0.2592</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C199" t="n">
         <v>2500001</v>
@@ -2628,7 +2628,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0.408</v>
+        <v>0.4096</v>
       </c>
       <c r="C200" t="n">
         <v>2500001</v>
@@ -2639,7 +2639,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0.3344</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C201" t="n">
         <v>2500001</v>
@@ -2650,7 +2650,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1.4104</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C202" t="n">
         <v>2500001</v>
@@ -2661,7 +2661,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0.736</v>
+        <v>0.9136</v>
       </c>
       <c r="C203" t="n">
         <v>2500001</v>
@@ -2672,7 +2672,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0.4104</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C204" t="n">
         <v>2500001</v>
@@ -2683,7 +2683,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0.4056</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C205" t="n">
         <v>2500001</v>
@@ -2694,7 +2694,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>11.4176</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C206" t="n">
         <v>2500001</v>
@@ -2705,7 +2705,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.428</v>
+        <v>1.9184</v>
       </c>
       <c r="C207" t="n">
         <v>2500001</v>
@@ -2716,7 +2716,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.4168</v>
+        <v>1.92</v>
       </c>
       <c r="C208" t="n">
         <v>2500001</v>
@@ -2727,7 +2727,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.9104</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C209" t="n">
         <v>2500001</v>
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>53.9984</v>
+        <v>11.92</v>
       </c>
       <c r="C210" t="n">
         <v>2500001</v>
@@ -2749,7 +2749,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>57.896</v>
+        <v>1.9032</v>
       </c>
       <c r="C211" t="n">
         <v>2500001</v>
@@ -2760,10 +2760,10 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.408</v>
+        <v>96.604</v>
       </c>
       <c r="C212" t="n">
-        <v>2812501</v>
+        <v>2500001</v>
       </c>
     </row>
     <row r="213">
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.424</v>
+        <v>1.7216</v>
       </c>
       <c r="C213" t="n">
         <v>2812501</v>
@@ -2782,7 +2782,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3.9056</v>
+        <v>4.4096</v>
       </c>
       <c r="C214" t="n">
         <v>2812501</v>
@@ -2793,7 +2793,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5.7472</v>
+        <v>3.9176</v>
       </c>
       <c r="C215" t="n">
         <v>2812501</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>6.4176</v>
+        <v>0.4064</v>
       </c>
       <c r="C216" t="n">
         <v>2812501</v>
@@ -2815,7 +2815,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.408</v>
+        <v>4.3136</v>
       </c>
       <c r="C217" t="n">
         <v>2812501</v>
@@ -2826,7 +2826,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>4.9048</v>
+        <v>1.4216</v>
       </c>
       <c r="C218" t="n">
         <v>2812501</v>
@@ -2837,7 +2837,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3.316</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C219" t="n">
         <v>2812501</v>
@@ -2848,7 +2848,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
       <c r="C220" t="n">
         <v>2812501</v>
@@ -2859,7 +2859,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>3.8432</v>
+        <v>2.828</v>
       </c>
       <c r="C221" t="n">
         <v>2812501</v>
@@ -2870,7 +2870,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>0.9104000000000001</v>
+        <v>1.4208</v>
       </c>
       <c r="C222" t="n">
         <v>2812501</v>
@@ -2881,7 +2881,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>0.9168000000000001</v>
+        <v>0.424</v>
       </c>
       <c r="C223" t="n">
         <v>2812501</v>
@@ -2892,7 +2892,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>4.3232</v>
+        <v>0.2616</v>
       </c>
       <c r="C224" t="n">
         <v>2812501</v>
@@ -2903,7 +2903,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1.4136</v>
+        <v>5.4208</v>
       </c>
       <c r="C225" t="n">
         <v>2812501</v>
@@ -2914,7 +2914,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>3.904</v>
+        <v>1.9056</v>
       </c>
       <c r="C226" t="n">
         <v>2812501</v>
@@ -2925,7 +2925,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1.912</v>
+        <v>2.26</v>
       </c>
       <c r="C227" t="n">
         <v>2812501</v>
@@ -2936,7 +2936,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>5.4168</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C228" t="n">
         <v>2812501</v>
@@ -2947,7 +2947,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>2.924</v>
+        <v>0.4128</v>
       </c>
       <c r="C229" t="n">
         <v>2812501</v>
@@ -2958,7 +2958,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3.408</v>
+        <v>0.42</v>
       </c>
       <c r="C230" t="n">
         <v>2812501</v>
@@ -2969,7 +2969,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1.408</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C231" t="n">
         <v>2812501</v>
@@ -2980,7 +2980,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>4.912</v>
+        <v>1.9168</v>
       </c>
       <c r="C232" t="n">
         <v>2812501</v>
@@ -2991,7 +2991,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6.830400000000001</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C233" t="n">
         <v>2812501</v>
@@ -3002,7 +3002,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>7.428</v>
+        <v>3.5672</v>
       </c>
       <c r="C234" t="n">
         <v>2812501</v>
@@ -3013,7 +3013,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>8.427200000000001</v>
+        <v>5.4048</v>
       </c>
       <c r="C235" t="n">
         <v>2812501</v>
@@ -3024,7 +3024,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>0.4216</v>
+        <v>0.92</v>
       </c>
       <c r="C236" t="n">
         <v>2812501</v>
@@ -3035,7 +3035,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>1.9088</v>
+        <v>0.912</v>
       </c>
       <c r="C237" t="n">
         <v>2812501</v>
@@ -3046,7 +3046,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3.9144</v>
+        <v>5.4168</v>
       </c>
       <c r="C238" t="n">
         <v>2812501</v>
@@ -3057,7 +3057,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>11.9144</v>
+        <v>10.424</v>
       </c>
       <c r="C239" t="n">
         <v>2812501</v>
@@ -3068,7 +3068,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>17.0664</v>
+        <v>15.4064</v>
       </c>
       <c r="C240" t="n">
         <v>2812501</v>
@@ -3079,7 +3079,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0.16</v>
+        <v>15.4264</v>
       </c>
       <c r="C241" t="n">
         <v>2812501</v>
@@ -3090,7 +3090,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>15.544</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C242" t="n">
         <v>2812501</v>
@@ -3101,7 +3101,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14.9216</v>
+        <v>18.4064</v>
       </c>
       <c r="C243" t="n">
         <v>2812501</v>
@@ -3112,7 +3112,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>5.924</v>
+        <v>0.924</v>
       </c>
       <c r="C244" t="n">
         <v>2812501</v>
@@ -3123,7 +3123,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>14.8312</v>
+        <v>4.9176</v>
       </c>
       <c r="C245" t="n">
         <v>2812501</v>
@@ -3134,7 +3134,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>8.928000000000001</v>
+        <v>2.9144</v>
       </c>
       <c r="C246" t="n">
         <v>2812501</v>
@@ -3145,7 +3145,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7.416</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C247" t="n">
         <v>2812501</v>
@@ -3156,7 +3156,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0.4248</v>
+        <v>3.9184</v>
       </c>
       <c r="C248" t="n">
         <v>2812501</v>
@@ -3167,7 +3167,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>9.913600000000001</v>
+        <v>16.8384</v>
       </c>
       <c r="C249" t="n">
         <v>2812501</v>
@@ -3178,7 +3178,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>53.9144</v>
+        <v>4.8408</v>
       </c>
       <c r="C250" t="n">
         <v>2812501</v>
@@ -3189,10 +3189,10 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>17.9136</v>
+        <v>2.9104</v>
       </c>
       <c r="C251" t="n">
-        <v>3125001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="252">
@@ -3200,10 +3200,10 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>195.9096</v>
+        <v>16.9248</v>
       </c>
       <c r="C252" t="n">
-        <v>3125001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="253">
@@ -3211,7 +3211,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>368.928</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C253" t="n">
         <v>3125001</v>
@@ -3222,10 +3222,10 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0.3552000000000001</v>
+        <v>35.8312</v>
       </c>
       <c r="C254" t="n">
-        <v>3750001</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="255">
@@ -3233,10 +3233,10 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0.1296</v>
+        <v>23.9048</v>
       </c>
       <c r="C255" t="n">
-        <v>3750001</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="256">
@@ -3244,10 +3244,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0408</v>
+        <v>30.9104</v>
       </c>
       <c r="C256" t="n">
-        <v>3750001</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="257">
@@ -3255,10 +3255,10 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>0.0264</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C257" t="n">
-        <v>3750001</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="258">
@@ -3266,10 +3266,10 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>0.3368</v>
+        <v>115.4216</v>
       </c>
       <c r="C258" t="n">
-        <v>3750001</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="259">
@@ -3277,10 +3277,10 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0.08</v>
+        <v>335.504</v>
       </c>
       <c r="C259" t="n">
-        <v>3750001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="260">
@@ -3288,7 +3288,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.0568</v>
       </c>
       <c r="C260" t="n">
         <v>3750001</v>
@@ -3299,7 +3299,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>0.0576</v>
+        <v>0.012</v>
       </c>
       <c r="C261" t="n">
         <v>3750001</v>
@@ -3310,7 +3310,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>0.0488</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C262" t="n">
         <v>3750001</v>
@@ -3321,7 +3321,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>0.0328</v>
+        <v>0.0216</v>
       </c>
       <c r="C263" t="n">
         <v>3750001</v>
@@ -3332,7 +3332,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>11.0056</v>
+        <v>0.0272</v>
       </c>
       <c r="C264" t="n">
         <v>3750001</v>
@@ -3343,7 +3343,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>0.4176</v>
+        <v>0.0416</v>
       </c>
       <c r="C265" t="n">
         <v>3750001</v>
@@ -3354,7 +3354,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>0.7664000000000001</v>
+        <v>0.0344</v>
       </c>
       <c r="C266" t="n">
         <v>3750001</v>
@@ -3365,7 +3365,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>0.1904</v>
+        <v>0.016</v>
       </c>
       <c r="C267" t="n">
         <v>3750001</v>
@@ -3376,7 +3376,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>0.3336</v>
+        <v>0.008</v>
       </c>
       <c r="C268" t="n">
         <v>3750001</v>
@@ -3387,7 +3387,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>0.2592</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C269" t="n">
         <v>3750001</v>
@@ -3398,7 +3398,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>0.408</v>
+        <v>0.0568</v>
       </c>
       <c r="C270" t="n">
         <v>3750001</v>
@@ -3409,7 +3409,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>0.3344</v>
+        <v>0.044</v>
       </c>
       <c r="C271" t="n">
         <v>3750001</v>
@@ -3420,7 +3420,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1.4104</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C272" t="n">
         <v>3750001</v>
@@ -3431,7 +3431,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>0.736</v>
+        <v>9.3712</v>
       </c>
       <c r="C273" t="n">
         <v>3750001</v>
@@ -3442,7 +3442,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>0.4104</v>
+        <v>0.428</v>
       </c>
       <c r="C274" t="n">
         <v>3750001</v>
@@ -3453,7 +3453,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>0.4056</v>
+        <v>0.4216</v>
       </c>
       <c r="C275" t="n">
         <v>3750001</v>
@@ -3464,7 +3464,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>11.4176</v>
+        <v>0.2592</v>
       </c>
       <c r="C276" t="n">
         <v>3750001</v>
@@ -3475,7 +3475,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>1.428</v>
+        <v>0.1856</v>
       </c>
       <c r="C277" t="n">
         <v>3750001</v>
@@ -3486,7 +3486,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.4168</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C278" t="n">
         <v>3750001</v>
@@ -3497,7 +3497,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.9104</v>
+        <v>0.4096</v>
       </c>
       <c r="C279" t="n">
         <v>3750001</v>
@@ -3508,7 +3508,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>53.9984</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C280" t="n">
         <v>3750001</v>
@@ -3519,7 +3519,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>57.896</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C281" t="n">
         <v>3750001</v>
@@ -3530,10 +3530,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>0.408</v>
+        <v>0.9136</v>
       </c>
       <c r="C282" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="283">
@@ -3541,10 +3541,10 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>0.424</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C283" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="284">
@@ -3552,10 +3552,10 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>3.9056</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C284" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="285">
@@ -3563,10 +3563,10 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>5.7472</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C285" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="286">
@@ -3574,10 +3574,10 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>6.4176</v>
+        <v>1.9184</v>
       </c>
       <c r="C286" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="287">
@@ -3585,10 +3585,10 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>2.408</v>
+        <v>1.92</v>
       </c>
       <c r="C287" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="288">
@@ -3596,10 +3596,10 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4.9048</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C288" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="289">
@@ -3607,10 +3607,10 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>3.316</v>
+        <v>11.92</v>
       </c>
       <c r="C289" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="290">
@@ -3618,10 +3618,10 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>0.42</v>
+        <v>1.9032</v>
       </c>
       <c r="C290" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="291">
@@ -3629,10 +3629,10 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>3.8432</v>
+        <v>96.604</v>
       </c>
       <c r="C291" t="n">
-        <v>4062501</v>
+        <v>3750001</v>
       </c>
     </row>
     <row r="292">
@@ -3640,7 +3640,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>0.9104000000000001</v>
+        <v>1.7216</v>
       </c>
       <c r="C292" t="n">
         <v>4062501</v>
@@ -3651,7 +3651,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>0.9168000000000001</v>
+        <v>4.4096</v>
       </c>
       <c r="C293" t="n">
         <v>4062501</v>
@@ -3662,7 +3662,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>4.3232</v>
+        <v>3.9176</v>
       </c>
       <c r="C294" t="n">
         <v>4062501</v>
@@ -3673,7 +3673,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1.4136</v>
+        <v>0.4064</v>
       </c>
       <c r="C295" t="n">
         <v>4062501</v>
@@ -3684,7 +3684,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>3.904</v>
+        <v>4.3136</v>
       </c>
       <c r="C296" t="n">
         <v>4062501</v>
@@ -3695,7 +3695,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1.912</v>
+        <v>1.4216</v>
       </c>
       <c r="C297" t="n">
         <v>4062501</v>
@@ -3706,7 +3706,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5.4168</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C298" t="n">
         <v>4062501</v>
@@ -3717,7 +3717,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>2.924</v>
+        <v>0.92</v>
       </c>
       <c r="C299" t="n">
         <v>4062501</v>
@@ -3728,7 +3728,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>3.408</v>
+        <v>2.828</v>
       </c>
       <c r="C300" t="n">
         <v>4062501</v>
@@ -3739,7 +3739,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>1.408</v>
+        <v>1.4208</v>
       </c>
       <c r="C301" t="n">
         <v>4062501</v>
@@ -3750,7 +3750,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>4.912</v>
+        <v>0.424</v>
       </c>
       <c r="C302" t="n">
         <v>4062501</v>
@@ -3761,7 +3761,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6.830400000000001</v>
+        <v>0.2616</v>
       </c>
       <c r="C303" t="n">
         <v>4062501</v>
@@ -3772,7 +3772,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>7.428</v>
+        <v>5.4208</v>
       </c>
       <c r="C304" t="n">
         <v>4062501</v>
@@ -3783,7 +3783,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>8.427200000000001</v>
+        <v>1.9056</v>
       </c>
       <c r="C305" t="n">
         <v>4062501</v>
@@ -3794,7 +3794,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>0.4216</v>
+        <v>2.26</v>
       </c>
       <c r="C306" t="n">
         <v>4062501</v>
@@ -3805,7 +3805,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1.9088</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C307" t="n">
         <v>4062501</v>
@@ -3816,7 +3816,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>3.9144</v>
+        <v>0.4128</v>
       </c>
       <c r="C308" t="n">
         <v>4062501</v>
@@ -3827,7 +3827,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>11.9144</v>
+        <v>0.42</v>
       </c>
       <c r="C309" t="n">
         <v>4062501</v>
@@ -3838,7 +3838,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>17.0664</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C310" t="n">
         <v>4062501</v>
@@ -3849,7 +3849,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>0.16</v>
+        <v>1.9168</v>
       </c>
       <c r="C311" t="n">
         <v>4062501</v>
@@ -3860,7 +3860,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15.544</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C312" t="n">
         <v>4062501</v>
@@ -3871,7 +3871,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>14.9216</v>
+        <v>3.5672</v>
       </c>
       <c r="C313" t="n">
         <v>4062501</v>
@@ -3882,7 +3882,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>5.924</v>
+        <v>5.4048</v>
       </c>
       <c r="C314" t="n">
         <v>4062501</v>
@@ -3893,7 +3893,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>14.8312</v>
+        <v>0.92</v>
       </c>
       <c r="C315" t="n">
         <v>4062501</v>
@@ -3904,7 +3904,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8.928000000000001</v>
+        <v>0.912</v>
       </c>
       <c r="C316" t="n">
         <v>4062501</v>
@@ -3915,7 +3915,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>7.416</v>
+        <v>5.4168</v>
       </c>
       <c r="C317" t="n">
         <v>4062501</v>
@@ -3926,7 +3926,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0.4248</v>
+        <v>10.424</v>
       </c>
       <c r="C318" t="n">
         <v>4062501</v>
@@ -3937,7 +3937,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>9.913600000000001</v>
+        <v>15.4064</v>
       </c>
       <c r="C319" t="n">
         <v>4062501</v>
@@ -3948,7 +3948,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>53.9144</v>
+        <v>15.4264</v>
       </c>
       <c r="C320" t="n">
         <v>4062501</v>
@@ -3959,10 +3959,10 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17.9136</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C321" t="n">
-        <v>4375001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="322">
@@ -3970,10 +3970,10 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>195.9096</v>
+        <v>18.4064</v>
       </c>
       <c r="C322" t="n">
-        <v>4375001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="323">
@@ -3981,10 +3981,10 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>368.928</v>
+        <v>0.924</v>
       </c>
       <c r="C323" t="n">
-        <v>4375001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="324">
@@ -3992,10 +3992,10 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3552000000000001</v>
+        <v>4.9176</v>
       </c>
       <c r="C324" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="325">
@@ -4003,10 +4003,10 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>0.1296</v>
+        <v>2.9144</v>
       </c>
       <c r="C325" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="326">
@@ -4014,10 +4014,10 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>0.0408</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C326" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="327">
@@ -4025,10 +4025,10 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>0.0264</v>
+        <v>3.9184</v>
       </c>
       <c r="C327" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="328">
@@ -4036,10 +4036,10 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3368</v>
+        <v>16.8384</v>
       </c>
       <c r="C328" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="329">
@@ -4047,10 +4047,10 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>0.08</v>
+        <v>4.8408</v>
       </c>
       <c r="C329" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="330">
@@ -4058,10 +4058,10 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>0.07440000000000001</v>
+        <v>2.9104</v>
       </c>
       <c r="C330" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="331">
@@ -4069,10 +4069,10 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>0.0576</v>
+        <v>16.9248</v>
       </c>
       <c r="C331" t="n">
-        <v>5000001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="332">
@@ -4080,10 +4080,10 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>0.0488</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C332" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="333">
@@ -4091,10 +4091,10 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>0.0328</v>
+        <v>35.8312</v>
       </c>
       <c r="C333" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="334">
@@ -4102,10 +4102,10 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11.0056</v>
+        <v>23.9048</v>
       </c>
       <c r="C334" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="335">
@@ -4113,10 +4113,10 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>0.4176</v>
+        <v>30.9104</v>
       </c>
       <c r="C335" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="336">
@@ -4124,10 +4124,10 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>0.7664000000000001</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C336" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="337">
@@ -4135,10 +4135,10 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>0.1904</v>
+        <v>115.4216</v>
       </c>
       <c r="C337" t="n">
-        <v>5000001</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="338">
@@ -4146,10 +4146,10 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3336</v>
+        <v>335.504</v>
       </c>
       <c r="C338" t="n">
-        <v>5000001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="339">
@@ -4157,7 +4157,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>0.2592</v>
+        <v>0.0568</v>
       </c>
       <c r="C339" t="n">
         <v>5000001</v>
@@ -4168,7 +4168,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>0.408</v>
+        <v>0.012</v>
       </c>
       <c r="C340" t="n">
         <v>5000001</v>
@@ -4179,7 +4179,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3344</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C341" t="n">
         <v>5000001</v>
@@ -4190,7 +4190,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>1.4104</v>
+        <v>0.0216</v>
       </c>
       <c r="C342" t="n">
         <v>5000001</v>
@@ -4201,7 +4201,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>0.736</v>
+        <v>0.0272</v>
       </c>
       <c r="C343" t="n">
         <v>5000001</v>
@@ -4212,7 +4212,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>0.4104</v>
+        <v>0.0416</v>
       </c>
       <c r="C344" t="n">
         <v>5000001</v>
@@ -4223,7 +4223,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>0.4056</v>
+        <v>0.0344</v>
       </c>
       <c r="C345" t="n">
         <v>5000001</v>
@@ -4234,7 +4234,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>11.4176</v>
+        <v>0.016</v>
       </c>
       <c r="C346" t="n">
         <v>5000001</v>
@@ -4245,7 +4245,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>1.428</v>
+        <v>0.008</v>
       </c>
       <c r="C347" t="n">
         <v>5000001</v>
@@ -4256,7 +4256,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>2.4168</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C348" t="n">
         <v>5000001</v>
@@ -4267,7 +4267,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>2.9104</v>
+        <v>0.0568</v>
       </c>
       <c r="C349" t="n">
         <v>5000001</v>
@@ -4278,7 +4278,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>53.9984</v>
+        <v>0.044</v>
       </c>
       <c r="C350" t="n">
         <v>5000001</v>
@@ -4289,7 +4289,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>57.896</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C351" t="n">
         <v>5000001</v>
@@ -4300,10 +4300,10 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>0.408</v>
+        <v>9.3712</v>
       </c>
       <c r="C352" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="353">
@@ -4311,10 +4311,10 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>0.424</v>
+        <v>0.428</v>
       </c>
       <c r="C353" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="354">
@@ -4322,10 +4322,10 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>3.9056</v>
+        <v>0.4216</v>
       </c>
       <c r="C354" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="355">
@@ -4333,10 +4333,10 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>5.7472</v>
+        <v>0.2592</v>
       </c>
       <c r="C355" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="356">
@@ -4344,10 +4344,10 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>6.4176</v>
+        <v>0.1856</v>
       </c>
       <c r="C356" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="357">
@@ -4355,10 +4355,10 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>2.408</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C357" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="358">
@@ -4366,10 +4366,10 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>4.9048</v>
+        <v>0.4096</v>
       </c>
       <c r="C358" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="359">
@@ -4377,10 +4377,10 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>3.316</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C359" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="360">
@@ -4388,10 +4388,10 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>0.42</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C360" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="361">
@@ -4399,10 +4399,10 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>3.8432</v>
+        <v>0.9136</v>
       </c>
       <c r="C361" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="362">
@@ -4410,10 +4410,10 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>0.9104000000000001</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C362" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="363">
@@ -4421,10 +4421,10 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9168000000000001</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C363" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="364">
@@ -4432,10 +4432,10 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>4.3232</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C364" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="365">
@@ -4443,10 +4443,10 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>1.4136</v>
+        <v>1.9184</v>
       </c>
       <c r="C365" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="366">
@@ -4454,10 +4454,10 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>3.904</v>
+        <v>1.92</v>
       </c>
       <c r="C366" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="367">
@@ -4465,10 +4465,10 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>1.912</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C367" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="368">
@@ -4476,10 +4476,10 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>5.4168</v>
+        <v>11.92</v>
       </c>
       <c r="C368" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="369">
@@ -4487,10 +4487,10 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>2.924</v>
+        <v>1.9032</v>
       </c>
       <c r="C369" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="370">
@@ -4498,10 +4498,10 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>3.408</v>
+        <v>96.604</v>
       </c>
       <c r="C370" t="n">
-        <v>5312501</v>
+        <v>5000001</v>
       </c>
     </row>
     <row r="371">
@@ -4509,7 +4509,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>1.408</v>
+        <v>1.7216</v>
       </c>
       <c r="C371" t="n">
         <v>5312501</v>
@@ -4520,7 +4520,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>4.912</v>
+        <v>4.4096</v>
       </c>
       <c r="C372" t="n">
         <v>5312501</v>
@@ -4531,7 +4531,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>6.830400000000001</v>
+        <v>3.9176</v>
       </c>
       <c r="C373" t="n">
         <v>5312501</v>
@@ -4542,7 +4542,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>7.428</v>
+        <v>0.4064</v>
       </c>
       <c r="C374" t="n">
         <v>5312501</v>
@@ -4553,7 +4553,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>8.427200000000001</v>
+        <v>4.3136</v>
       </c>
       <c r="C375" t="n">
         <v>5312501</v>
@@ -4564,7 +4564,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>0.4216</v>
+        <v>1.4216</v>
       </c>
       <c r="C376" t="n">
         <v>5312501</v>
@@ -4575,7 +4575,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>1.9088</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C377" t="n">
         <v>5312501</v>
@@ -4586,7 +4586,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>3.9144</v>
+        <v>0.92</v>
       </c>
       <c r="C378" t="n">
         <v>5312501</v>
@@ -4597,7 +4597,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>11.9144</v>
+        <v>2.828</v>
       </c>
       <c r="C379" t="n">
         <v>5312501</v>
@@ -4608,7 +4608,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>17.0664</v>
+        <v>1.4208</v>
       </c>
       <c r="C380" t="n">
         <v>5312501</v>
@@ -4619,7 +4619,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>0.16</v>
+        <v>0.424</v>
       </c>
       <c r="C381" t="n">
         <v>5312501</v>
@@ -4630,7 +4630,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>15.544</v>
+        <v>0.2616</v>
       </c>
       <c r="C382" t="n">
         <v>5312501</v>
@@ -4641,7 +4641,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>14.9216</v>
+        <v>5.4208</v>
       </c>
       <c r="C383" t="n">
         <v>5312501</v>
@@ -4652,7 +4652,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>5.924</v>
+        <v>1.9056</v>
       </c>
       <c r="C384" t="n">
         <v>5312501</v>
@@ -4663,7 +4663,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>14.8312</v>
+        <v>2.26</v>
       </c>
       <c r="C385" t="n">
         <v>5312501</v>
@@ -4674,7 +4674,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>8.928000000000001</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C386" t="n">
         <v>5312501</v>
@@ -4685,7 +4685,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>7.416</v>
+        <v>0.4128</v>
       </c>
       <c r="C387" t="n">
         <v>5312501</v>
@@ -4696,7 +4696,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>0.4248</v>
+        <v>0.42</v>
       </c>
       <c r="C388" t="n">
         <v>5312501</v>
@@ -4707,7 +4707,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>9.913600000000001</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C389" t="n">
         <v>5312501</v>
@@ -4718,7 +4718,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>53.9144</v>
+        <v>1.9168</v>
       </c>
       <c r="C390" t="n">
         <v>5312501</v>
@@ -4729,10 +4729,10 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>17.9136</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C391" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="392">
@@ -4740,10 +4740,10 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>195.9096</v>
+        <v>3.5672</v>
       </c>
       <c r="C392" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="393">
@@ -4751,10 +4751,10 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>368.928</v>
+        <v>5.4048</v>
       </c>
       <c r="C393" t="n">
-        <v>5625001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="394">
@@ -4762,10 +4762,10 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>0.3552000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C394" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="395">
@@ -4773,10 +4773,10 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>0.1296</v>
+        <v>0.912</v>
       </c>
       <c r="C395" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="396">
@@ -4784,10 +4784,10 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>0.0408</v>
+        <v>5.4168</v>
       </c>
       <c r="C396" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="397">
@@ -4795,10 +4795,10 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>0.0264</v>
+        <v>10.424</v>
       </c>
       <c r="C397" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="398">
@@ -4806,10 +4806,10 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>0.3368</v>
+        <v>15.4064</v>
       </c>
       <c r="C398" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="399">
@@ -4817,10 +4817,10 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>0.08</v>
+        <v>15.4264</v>
       </c>
       <c r="C399" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="400">
@@ -4828,10 +4828,10 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>0.07440000000000001</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C400" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="401">
@@ -4839,10 +4839,10 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>0.0576</v>
+        <v>18.4064</v>
       </c>
       <c r="C401" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="402">
@@ -4850,10 +4850,10 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>0.0488</v>
+        <v>0.924</v>
       </c>
       <c r="C402" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="403">
@@ -4861,10 +4861,10 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>0.0328</v>
+        <v>4.9176</v>
       </c>
       <c r="C403" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="404">
@@ -4872,10 +4872,10 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>11.0056</v>
+        <v>2.9144</v>
       </c>
       <c r="C404" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="405">
@@ -4883,10 +4883,10 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>0.4176</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C405" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="406">
@@ -4894,10 +4894,10 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>0.7664000000000001</v>
+        <v>3.9184</v>
       </c>
       <c r="C406" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="407">
@@ -4905,10 +4905,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>0.1904</v>
+        <v>16.8384</v>
       </c>
       <c r="C407" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="408">
@@ -4916,10 +4916,10 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>0.3336</v>
+        <v>4.8408</v>
       </c>
       <c r="C408" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="409">
@@ -4927,10 +4927,10 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>0.2592</v>
+        <v>2.9104</v>
       </c>
       <c r="C409" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="410">
@@ -4938,10 +4938,10 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>0.408</v>
+        <v>16.9248</v>
       </c>
       <c r="C410" t="n">
-        <v>6250001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="411">
@@ -4949,10 +4949,10 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>0.3344</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C411" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="412">
@@ -4960,10 +4960,10 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>1.4104</v>
+        <v>35.8312</v>
       </c>
       <c r="C412" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="413">
@@ -4971,10 +4971,10 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>0.736</v>
+        <v>23.9048</v>
       </c>
       <c r="C413" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="414">
@@ -4982,10 +4982,10 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>0.4104</v>
+        <v>30.9104</v>
       </c>
       <c r="C414" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="415">
@@ -4993,10 +4993,10 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>0.4056</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C415" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="416">
@@ -5004,10 +5004,10 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>11.4176</v>
+        <v>115.4216</v>
       </c>
       <c r="C416" t="n">
-        <v>6250001</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="417">
@@ -5015,10 +5015,10 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>1.428</v>
+        <v>335.504</v>
       </c>
       <c r="C417" t="n">
-        <v>6250001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="418">
@@ -5026,7 +5026,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>2.4168</v>
+        <v>0.0568</v>
       </c>
       <c r="C418" t="n">
         <v>6250001</v>
@@ -5037,7 +5037,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>2.9104</v>
+        <v>0.012</v>
       </c>
       <c r="C419" t="n">
         <v>6250001</v>
@@ -5048,7 +5048,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>53.9984</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C420" t="n">
         <v>6250001</v>
@@ -5059,7 +5059,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>57.896</v>
+        <v>0.0216</v>
       </c>
       <c r="C421" t="n">
         <v>6250001</v>
@@ -5070,10 +5070,10 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>0.408</v>
+        <v>0.0272</v>
       </c>
       <c r="C422" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="423">
@@ -5081,10 +5081,10 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>0.424</v>
+        <v>0.0416</v>
       </c>
       <c r="C423" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="424">
@@ -5092,10 +5092,10 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>3.9056</v>
+        <v>0.0344</v>
       </c>
       <c r="C424" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="425">
@@ -5103,10 +5103,10 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>5.7472</v>
+        <v>0.016</v>
       </c>
       <c r="C425" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="426">
@@ -5114,10 +5114,10 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>6.4176</v>
+        <v>0.008</v>
       </c>
       <c r="C426" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="427">
@@ -5125,10 +5125,10 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>2.408</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C427" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="428">
@@ -5136,10 +5136,10 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>4.9048</v>
+        <v>0.0568</v>
       </c>
       <c r="C428" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="429">
@@ -5147,10 +5147,10 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>3.316</v>
+        <v>0.044</v>
       </c>
       <c r="C429" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="430">
@@ -5158,10 +5158,10 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>0.42</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C430" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="431">
@@ -5169,10 +5169,10 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>3.8432</v>
+        <v>9.3712</v>
       </c>
       <c r="C431" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="432">
@@ -5180,10 +5180,10 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>0.9104000000000001</v>
+        <v>0.428</v>
       </c>
       <c r="C432" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="433">
@@ -5191,10 +5191,10 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>0.9168000000000001</v>
+        <v>0.4216</v>
       </c>
       <c r="C433" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="434">
@@ -5202,10 +5202,10 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>4.3232</v>
+        <v>0.2592</v>
       </c>
       <c r="C434" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="435">
@@ -5213,10 +5213,10 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>1.4136</v>
+        <v>0.1856</v>
       </c>
       <c r="C435" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="436">
@@ -5224,10 +5224,10 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>3.904</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C436" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="437">
@@ -5235,10 +5235,10 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>1.912</v>
+        <v>0.4096</v>
       </c>
       <c r="C437" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="438">
@@ -5246,10 +5246,10 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>5.4168</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C438" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="439">
@@ -5257,10 +5257,10 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>2.924</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C439" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="440">
@@ -5268,10 +5268,10 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>3.408</v>
+        <v>0.9136</v>
       </c>
       <c r="C440" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="441">
@@ -5279,10 +5279,10 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>1.408</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C441" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="442">
@@ -5290,10 +5290,10 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>4.912</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C442" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="443">
@@ -5301,10 +5301,10 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>6.830400000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C443" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="444">
@@ -5312,10 +5312,10 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>7.428</v>
+        <v>1.9184</v>
       </c>
       <c r="C444" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="445">
@@ -5323,10 +5323,10 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>8.427200000000001</v>
+        <v>1.92</v>
       </c>
       <c r="C445" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="446">
@@ -5334,10 +5334,10 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>0.4216</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C446" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="447">
@@ -5345,10 +5345,10 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>1.9088</v>
+        <v>11.92</v>
       </c>
       <c r="C447" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="448">
@@ -5356,10 +5356,10 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>3.9144</v>
+        <v>1.9032</v>
       </c>
       <c r="C448" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="449">
@@ -5367,10 +5367,10 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>11.9144</v>
+        <v>96.604</v>
       </c>
       <c r="C449" t="n">
-        <v>6562501</v>
+        <v>6250001</v>
       </c>
     </row>
     <row r="450">
@@ -5378,7 +5378,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>17.0664</v>
+        <v>1.7216</v>
       </c>
       <c r="C450" t="n">
         <v>6562501</v>
@@ -5389,7 +5389,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>0.16</v>
+        <v>4.4096</v>
       </c>
       <c r="C451" t="n">
         <v>6562501</v>
@@ -5400,7 +5400,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>15.544</v>
+        <v>3.9176</v>
       </c>
       <c r="C452" t="n">
         <v>6562501</v>
@@ -5411,7 +5411,7 @@
         <v>451</v>
       </c>
       <c r="B453" t="n">
-        <v>14.9216</v>
+        <v>0.4064</v>
       </c>
       <c r="C453" t="n">
         <v>6562501</v>
@@ -5422,7 +5422,7 @@
         <v>452</v>
       </c>
       <c r="B454" t="n">
-        <v>5.924</v>
+        <v>4.3136</v>
       </c>
       <c r="C454" t="n">
         <v>6562501</v>
@@ -5433,7 +5433,7 @@
         <v>453</v>
       </c>
       <c r="B455" t="n">
-        <v>14.8312</v>
+        <v>1.4216</v>
       </c>
       <c r="C455" t="n">
         <v>6562501</v>
@@ -5444,7 +5444,7 @@
         <v>454</v>
       </c>
       <c r="B456" t="n">
-        <v>8.928000000000001</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C456" t="n">
         <v>6562501</v>
@@ -5455,7 +5455,7 @@
         <v>455</v>
       </c>
       <c r="B457" t="n">
-        <v>7.416</v>
+        <v>0.92</v>
       </c>
       <c r="C457" t="n">
         <v>6562501</v>
@@ -5466,7 +5466,7 @@
         <v>456</v>
       </c>
       <c r="B458" t="n">
-        <v>0.4248</v>
+        <v>2.828</v>
       </c>
       <c r="C458" t="n">
         <v>6562501</v>
@@ -5477,7 +5477,7 @@
         <v>457</v>
       </c>
       <c r="B459" t="n">
-        <v>9.913600000000001</v>
+        <v>1.4208</v>
       </c>
       <c r="C459" t="n">
         <v>6562501</v>
@@ -5488,7 +5488,7 @@
         <v>458</v>
       </c>
       <c r="B460" t="n">
-        <v>53.9144</v>
+        <v>0.424</v>
       </c>
       <c r="C460" t="n">
         <v>6562501</v>
@@ -5499,10 +5499,10 @@
         <v>459</v>
       </c>
       <c r="B461" t="n">
-        <v>17.9136</v>
+        <v>0.2616</v>
       </c>
       <c r="C461" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="462">
@@ -5510,10 +5510,10 @@
         <v>460</v>
       </c>
       <c r="B462" t="n">
-        <v>195.9096</v>
+        <v>5.4208</v>
       </c>
       <c r="C462" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="463">
@@ -5521,10 +5521,10 @@
         <v>461</v>
       </c>
       <c r="B463" t="n">
-        <v>368.928</v>
+        <v>1.9056</v>
       </c>
       <c r="C463" t="n">
-        <v>6875001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="464">
@@ -5532,10 +5532,10 @@
         <v>462</v>
       </c>
       <c r="B464" t="n">
-        <v>0.3552000000000001</v>
+        <v>2.26</v>
       </c>
       <c r="C464" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="465">
@@ -5543,10 +5543,10 @@
         <v>463</v>
       </c>
       <c r="B465" t="n">
-        <v>0.1296</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C465" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="466">
@@ -5554,10 +5554,10 @@
         <v>464</v>
       </c>
       <c r="B466" t="n">
-        <v>0.0408</v>
+        <v>0.4128</v>
       </c>
       <c r="C466" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="467">
@@ -5565,10 +5565,10 @@
         <v>465</v>
       </c>
       <c r="B467" t="n">
-        <v>0.0264</v>
+        <v>0.42</v>
       </c>
       <c r="C467" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="468">
@@ -5576,10 +5576,10 @@
         <v>466</v>
       </c>
       <c r="B468" t="n">
-        <v>0.3368</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C468" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="469">
@@ -5587,10 +5587,10 @@
         <v>467</v>
       </c>
       <c r="B469" t="n">
-        <v>0.08</v>
+        <v>1.9168</v>
       </c>
       <c r="C469" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="470">
@@ -5598,10 +5598,10 @@
         <v>468</v>
       </c>
       <c r="B470" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C470" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="471">
@@ -5609,10 +5609,10 @@
         <v>469</v>
       </c>
       <c r="B471" t="n">
-        <v>0.0576</v>
+        <v>3.5672</v>
       </c>
       <c r="C471" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="472">
@@ -5620,10 +5620,10 @@
         <v>470</v>
       </c>
       <c r="B472" t="n">
-        <v>0.0488</v>
+        <v>5.4048</v>
       </c>
       <c r="C472" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="473">
@@ -5631,10 +5631,10 @@
         <v>471</v>
       </c>
       <c r="B473" t="n">
-        <v>0.0328</v>
+        <v>0.92</v>
       </c>
       <c r="C473" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="474">
@@ -5642,10 +5642,10 @@
         <v>472</v>
       </c>
       <c r="B474" t="n">
-        <v>11.0056</v>
+        <v>0.912</v>
       </c>
       <c r="C474" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="475">
@@ -5653,10 +5653,10 @@
         <v>473</v>
       </c>
       <c r="B475" t="n">
-        <v>0.4176</v>
+        <v>5.4168</v>
       </c>
       <c r="C475" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="476">
@@ -5664,10 +5664,10 @@
         <v>474</v>
       </c>
       <c r="B476" t="n">
-        <v>0.7664000000000001</v>
+        <v>10.424</v>
       </c>
       <c r="C476" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="477">
@@ -5675,10 +5675,10 @@
         <v>475</v>
       </c>
       <c r="B477" t="n">
-        <v>0.1904</v>
+        <v>15.4064</v>
       </c>
       <c r="C477" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="478">
@@ -5686,10 +5686,10 @@
         <v>476</v>
       </c>
       <c r="B478" t="n">
-        <v>0.3336</v>
+        <v>15.4264</v>
       </c>
       <c r="C478" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="479">
@@ -5697,10 +5697,10 @@
         <v>477</v>
       </c>
       <c r="B479" t="n">
-        <v>0.2592</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C479" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="480">
@@ -5708,10 +5708,10 @@
         <v>478</v>
       </c>
       <c r="B480" t="n">
-        <v>0.408</v>
+        <v>18.4064</v>
       </c>
       <c r="C480" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="481">
@@ -5719,10 +5719,10 @@
         <v>479</v>
       </c>
       <c r="B481" t="n">
-        <v>0.3344</v>
+        <v>0.924</v>
       </c>
       <c r="C481" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="482">
@@ -5730,10 +5730,10 @@
         <v>480</v>
       </c>
       <c r="B482" t="n">
-        <v>1.4104</v>
+        <v>4.9176</v>
       </c>
       <c r="C482" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="483">
@@ -5741,10 +5741,10 @@
         <v>481</v>
       </c>
       <c r="B483" t="n">
-        <v>0.736</v>
+        <v>2.9144</v>
       </c>
       <c r="C483" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="484">
@@ -5752,10 +5752,10 @@
         <v>482</v>
       </c>
       <c r="B484" t="n">
-        <v>0.4104</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C484" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="485">
@@ -5763,10 +5763,10 @@
         <v>483</v>
       </c>
       <c r="B485" t="n">
-        <v>0.4056</v>
+        <v>3.9184</v>
       </c>
       <c r="C485" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="486">
@@ -5774,10 +5774,10 @@
         <v>484</v>
       </c>
       <c r="B486" t="n">
-        <v>11.4176</v>
+        <v>16.8384</v>
       </c>
       <c r="C486" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="487">
@@ -5785,10 +5785,10 @@
         <v>485</v>
       </c>
       <c r="B487" t="n">
-        <v>1.428</v>
+        <v>4.8408</v>
       </c>
       <c r="C487" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="488">
@@ -5796,10 +5796,10 @@
         <v>486</v>
       </c>
       <c r="B488" t="n">
-        <v>2.4168</v>
+        <v>2.9104</v>
       </c>
       <c r="C488" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="489">
@@ -5807,10 +5807,10 @@
         <v>487</v>
       </c>
       <c r="B489" t="n">
-        <v>2.9104</v>
+        <v>16.9248</v>
       </c>
       <c r="C489" t="n">
-        <v>7500001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="490">
@@ -5818,10 +5818,10 @@
         <v>488</v>
       </c>
       <c r="B490" t="n">
-        <v>53.9984</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C490" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="491">
@@ -5829,10 +5829,10 @@
         <v>489</v>
       </c>
       <c r="B491" t="n">
-        <v>57.896</v>
+        <v>35.8312</v>
       </c>
       <c r="C491" t="n">
-        <v>7500001</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="492">
@@ -5840,10 +5840,10 @@
         <v>490</v>
       </c>
       <c r="B492" t="n">
-        <v>0.408</v>
+        <v>23.9048</v>
       </c>
       <c r="C492" t="n">
-        <v>7812501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="493">
@@ -5851,10 +5851,10 @@
         <v>491</v>
       </c>
       <c r="B493" t="n">
-        <v>0.424</v>
+        <v>30.9104</v>
       </c>
       <c r="C493" t="n">
-        <v>7812501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="494">
@@ -5862,10 +5862,10 @@
         <v>492</v>
       </c>
       <c r="B494" t="n">
-        <v>3.9056</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C494" t="n">
-        <v>7812501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="495">
@@ -5873,10 +5873,10 @@
         <v>493</v>
       </c>
       <c r="B495" t="n">
-        <v>5.7472</v>
+        <v>115.4216</v>
       </c>
       <c r="C495" t="n">
-        <v>7812501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="496">
@@ -5884,10 +5884,10 @@
         <v>494</v>
       </c>
       <c r="B496" t="n">
-        <v>6.4176</v>
+        <v>335.504</v>
       </c>
       <c r="C496" t="n">
-        <v>7812501</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="497">
@@ -5895,10 +5895,10 @@
         <v>495</v>
       </c>
       <c r="B497" t="n">
-        <v>2.408</v>
+        <v>0.0568</v>
       </c>
       <c r="C497" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="498">
@@ -5906,10 +5906,10 @@
         <v>496</v>
       </c>
       <c r="B498" t="n">
-        <v>4.9048</v>
+        <v>0.012</v>
       </c>
       <c r="C498" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="499">
@@ -5917,10 +5917,10 @@
         <v>497</v>
       </c>
       <c r="B499" t="n">
-        <v>3.316</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C499" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="500">
@@ -5928,10 +5928,10 @@
         <v>498</v>
       </c>
       <c r="B500" t="n">
-        <v>0.42</v>
+        <v>0.0216</v>
       </c>
       <c r="C500" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="501">
@@ -5939,10 +5939,10 @@
         <v>499</v>
       </c>
       <c r="B501" t="n">
-        <v>3.8432</v>
+        <v>0.0272</v>
       </c>
       <c r="C501" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="502">
@@ -5950,10 +5950,10 @@
         <v>500</v>
       </c>
       <c r="B502" t="n">
-        <v>0.9104000000000001</v>
+        <v>0.0416</v>
       </c>
       <c r="C502" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="503">
@@ -5961,10 +5961,10 @@
         <v>501</v>
       </c>
       <c r="B503" t="n">
-        <v>0.9168000000000001</v>
+        <v>0.0344</v>
       </c>
       <c r="C503" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="504">
@@ -5972,10 +5972,10 @@
         <v>502</v>
       </c>
       <c r="B504" t="n">
-        <v>4.3232</v>
+        <v>0.016</v>
       </c>
       <c r="C504" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="505">
@@ -5983,10 +5983,10 @@
         <v>503</v>
       </c>
       <c r="B505" t="n">
-        <v>1.4136</v>
+        <v>0.008</v>
       </c>
       <c r="C505" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="506">
@@ -5994,10 +5994,10 @@
         <v>504</v>
       </c>
       <c r="B506" t="n">
-        <v>3.904</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C506" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="507">
@@ -6005,10 +6005,10 @@
         <v>505</v>
       </c>
       <c r="B507" t="n">
-        <v>1.912</v>
+        <v>0.0568</v>
       </c>
       <c r="C507" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="508">
@@ -6016,10 +6016,10 @@
         <v>506</v>
       </c>
       <c r="B508" t="n">
-        <v>5.4168</v>
+        <v>0.044</v>
       </c>
       <c r="C508" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="509">
@@ -6027,10 +6027,10 @@
         <v>507</v>
       </c>
       <c r="B509" t="n">
-        <v>2.924</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C509" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="510">
@@ -6038,10 +6038,10 @@
         <v>508</v>
       </c>
       <c r="B510" t="n">
-        <v>3.408</v>
+        <v>9.3712</v>
       </c>
       <c r="C510" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="511">
@@ -6049,10 +6049,10 @@
         <v>509</v>
       </c>
       <c r="B511" t="n">
-        <v>1.408</v>
+        <v>0.428</v>
       </c>
       <c r="C511" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="512">
@@ -6060,10 +6060,10 @@
         <v>510</v>
       </c>
       <c r="B512" t="n">
-        <v>4.912</v>
+        <v>0.4216</v>
       </c>
       <c r="C512" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="513">
@@ -6071,10 +6071,10 @@
         <v>511</v>
       </c>
       <c r="B513" t="n">
-        <v>6.830400000000001</v>
+        <v>0.2592</v>
       </c>
       <c r="C513" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="514">
@@ -6082,10 +6082,10 @@
         <v>512</v>
       </c>
       <c r="B514" t="n">
-        <v>7.428</v>
+        <v>0.1856</v>
       </c>
       <c r="C514" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="515">
@@ -6093,10 +6093,10 @@
         <v>513</v>
       </c>
       <c r="B515" t="n">
-        <v>8.427200000000001</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C515" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="516">
@@ -6104,10 +6104,10 @@
         <v>514</v>
       </c>
       <c r="B516" t="n">
-        <v>0.4216</v>
+        <v>0.4096</v>
       </c>
       <c r="C516" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="517">
@@ -6115,10 +6115,10 @@
         <v>515</v>
       </c>
       <c r="B517" t="n">
-        <v>1.9088</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C517" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="518">
@@ -6126,10 +6126,10 @@
         <v>516</v>
       </c>
       <c r="B518" t="n">
-        <v>3.9144</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C518" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="519">
@@ -6137,10 +6137,10 @@
         <v>517</v>
       </c>
       <c r="B519" t="n">
-        <v>11.9144</v>
+        <v>0.9136</v>
       </c>
       <c r="C519" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="520">
@@ -6148,10 +6148,10 @@
         <v>518</v>
       </c>
       <c r="B520" t="n">
-        <v>17.0664</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C520" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="521">
@@ -6159,10 +6159,10 @@
         <v>519</v>
       </c>
       <c r="B521" t="n">
-        <v>0.16</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C521" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="522">
@@ -6170,10 +6170,10 @@
         <v>520</v>
       </c>
       <c r="B522" t="n">
-        <v>15.544</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C522" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="523">
@@ -6181,10 +6181,10 @@
         <v>521</v>
       </c>
       <c r="B523" t="n">
-        <v>14.9216</v>
+        <v>1.9184</v>
       </c>
       <c r="C523" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="524">
@@ -6192,10 +6192,10 @@
         <v>522</v>
       </c>
       <c r="B524" t="n">
-        <v>5.924</v>
+        <v>1.92</v>
       </c>
       <c r="C524" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="525">
@@ -6203,10 +6203,10 @@
         <v>523</v>
       </c>
       <c r="B525" t="n">
-        <v>14.8312</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C525" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="526">
@@ -6214,10 +6214,10 @@
         <v>524</v>
       </c>
       <c r="B526" t="n">
-        <v>8.928000000000001</v>
+        <v>11.92</v>
       </c>
       <c r="C526" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="527">
@@ -6225,10 +6225,10 @@
         <v>525</v>
       </c>
       <c r="B527" t="n">
-        <v>7.416</v>
+        <v>1.9032</v>
       </c>
       <c r="C527" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="528">
@@ -6236,10 +6236,10 @@
         <v>526</v>
       </c>
       <c r="B528" t="n">
-        <v>0.4248</v>
+        <v>96.604</v>
       </c>
       <c r="C528" t="n">
-        <v>7812501</v>
+        <v>7500001</v>
       </c>
     </row>
     <row r="529">
@@ -6247,7 +6247,7 @@
         <v>527</v>
       </c>
       <c r="B529" t="n">
-        <v>9.913600000000001</v>
+        <v>1.7216</v>
       </c>
       <c r="C529" t="n">
         <v>7812501</v>
@@ -6258,7 +6258,7 @@
         <v>528</v>
       </c>
       <c r="B530" t="n">
-        <v>53.9144</v>
+        <v>4.4096</v>
       </c>
       <c r="C530" t="n">
         <v>7812501</v>
@@ -6269,10 +6269,10 @@
         <v>529</v>
       </c>
       <c r="B531" t="n">
-        <v>17.9136</v>
+        <v>3.9176</v>
       </c>
       <c r="C531" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="532">
@@ -6280,10 +6280,10 @@
         <v>530</v>
       </c>
       <c r="B532" t="n">
-        <v>195.9096</v>
+        <v>0.4064</v>
       </c>
       <c r="C532" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="533">
@@ -6291,10 +6291,10 @@
         <v>531</v>
       </c>
       <c r="B533" t="n">
-        <v>368.928</v>
+        <v>4.3136</v>
       </c>
       <c r="C533" t="n">
-        <v>8125001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="534">
@@ -6302,10 +6302,10 @@
         <v>532</v>
       </c>
       <c r="B534" t="n">
-        <v>0.3552000000000001</v>
+        <v>1.4216</v>
       </c>
       <c r="C534" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="535">
@@ -6313,10 +6313,10 @@
         <v>533</v>
       </c>
       <c r="B535" t="n">
-        <v>0.1296</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C535" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="536">
@@ -6324,10 +6324,10 @@
         <v>534</v>
       </c>
       <c r="B536" t="n">
-        <v>0.0408</v>
+        <v>0.92</v>
       </c>
       <c r="C536" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="537">
@@ -6335,10 +6335,10 @@
         <v>535</v>
       </c>
       <c r="B537" t="n">
-        <v>0.0264</v>
+        <v>2.828</v>
       </c>
       <c r="C537" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="538">
@@ -6346,10 +6346,10 @@
         <v>536</v>
       </c>
       <c r="B538" t="n">
-        <v>0.3368</v>
+        <v>1.4208</v>
       </c>
       <c r="C538" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="539">
@@ -6357,10 +6357,10 @@
         <v>537</v>
       </c>
       <c r="B539" t="n">
-        <v>0.08</v>
+        <v>0.424</v>
       </c>
       <c r="C539" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="540">
@@ -6368,10 +6368,10 @@
         <v>538</v>
       </c>
       <c r="B540" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.2616</v>
       </c>
       <c r="C540" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="541">
@@ -6379,10 +6379,10 @@
         <v>539</v>
       </c>
       <c r="B541" t="n">
-        <v>0.0576</v>
+        <v>5.4208</v>
       </c>
       <c r="C541" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="542">
@@ -6390,10 +6390,10 @@
         <v>540</v>
       </c>
       <c r="B542" t="n">
-        <v>0.0488</v>
+        <v>1.9056</v>
       </c>
       <c r="C542" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="543">
@@ -6401,10 +6401,10 @@
         <v>541</v>
       </c>
       <c r="B543" t="n">
-        <v>0.0328</v>
+        <v>2.26</v>
       </c>
       <c r="C543" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="544">
@@ -6412,10 +6412,10 @@
         <v>542</v>
       </c>
       <c r="B544" t="n">
-        <v>11.0056</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C544" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="545">
@@ -6423,10 +6423,10 @@
         <v>543</v>
       </c>
       <c r="B545" t="n">
-        <v>0.4176</v>
+        <v>0.4128</v>
       </c>
       <c r="C545" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="546">
@@ -6434,10 +6434,10 @@
         <v>544</v>
       </c>
       <c r="B546" t="n">
-        <v>0.7664000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="C546" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="547">
@@ -6445,10 +6445,10 @@
         <v>545</v>
       </c>
       <c r="B547" t="n">
-        <v>0.1904</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C547" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="548">
@@ -6456,10 +6456,10 @@
         <v>546</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3336</v>
+        <v>1.9168</v>
       </c>
       <c r="C548" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="549">
@@ -6467,10 +6467,10 @@
         <v>547</v>
       </c>
       <c r="B549" t="n">
-        <v>0.2592</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C549" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="550">
@@ -6478,10 +6478,10 @@
         <v>548</v>
       </c>
       <c r="B550" t="n">
-        <v>0.408</v>
+        <v>3.5672</v>
       </c>
       <c r="C550" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="551">
@@ -6489,10 +6489,10 @@
         <v>549</v>
       </c>
       <c r="B551" t="n">
-        <v>0.3344</v>
+        <v>5.4048</v>
       </c>
       <c r="C551" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="552">
@@ -6500,10 +6500,10 @@
         <v>550</v>
       </c>
       <c r="B552" t="n">
-        <v>1.4104</v>
+        <v>0.92</v>
       </c>
       <c r="C552" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="553">
@@ -6511,10 +6511,10 @@
         <v>551</v>
       </c>
       <c r="B553" t="n">
-        <v>0.736</v>
+        <v>0.912</v>
       </c>
       <c r="C553" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="554">
@@ -6522,10 +6522,10 @@
         <v>552</v>
       </c>
       <c r="B554" t="n">
-        <v>0.4104</v>
+        <v>5.4168</v>
       </c>
       <c r="C554" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="555">
@@ -6533,10 +6533,10 @@
         <v>553</v>
       </c>
       <c r="B555" t="n">
-        <v>0.4056</v>
+        <v>10.424</v>
       </c>
       <c r="C555" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="556">
@@ -6544,10 +6544,10 @@
         <v>554</v>
       </c>
       <c r="B556" t="n">
-        <v>11.4176</v>
+        <v>15.4064</v>
       </c>
       <c r="C556" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="557">
@@ -6555,10 +6555,10 @@
         <v>555</v>
       </c>
       <c r="B557" t="n">
-        <v>1.428</v>
+        <v>15.4264</v>
       </c>
       <c r="C557" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="558">
@@ -6566,10 +6566,10 @@
         <v>556</v>
       </c>
       <c r="B558" t="n">
-        <v>2.4168</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C558" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="559">
@@ -6577,10 +6577,10 @@
         <v>557</v>
       </c>
       <c r="B559" t="n">
-        <v>2.9104</v>
+        <v>18.4064</v>
       </c>
       <c r="C559" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="560">
@@ -6588,10 +6588,10 @@
         <v>558</v>
       </c>
       <c r="B560" t="n">
-        <v>53.9984</v>
+        <v>0.924</v>
       </c>
       <c r="C560" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="561">
@@ -6599,10 +6599,10 @@
         <v>559</v>
       </c>
       <c r="B561" t="n">
-        <v>57.896</v>
+        <v>4.9176</v>
       </c>
       <c r="C561" t="n">
-        <v>8750001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="562">
@@ -6610,10 +6610,10 @@
         <v>560</v>
       </c>
       <c r="B562" t="n">
-        <v>0.408</v>
+        <v>2.9144</v>
       </c>
       <c r="C562" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="563">
@@ -6621,10 +6621,10 @@
         <v>561</v>
       </c>
       <c r="B563" t="n">
-        <v>0.424</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C563" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="564">
@@ -6632,10 +6632,10 @@
         <v>562</v>
       </c>
       <c r="B564" t="n">
-        <v>3.9056</v>
+        <v>3.9184</v>
       </c>
       <c r="C564" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="565">
@@ -6643,10 +6643,10 @@
         <v>563</v>
       </c>
       <c r="B565" t="n">
-        <v>5.7472</v>
+        <v>16.8384</v>
       </c>
       <c r="C565" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="566">
@@ -6654,10 +6654,10 @@
         <v>564</v>
       </c>
       <c r="B566" t="n">
-        <v>6.4176</v>
+        <v>4.8408</v>
       </c>
       <c r="C566" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="567">
@@ -6665,10 +6665,10 @@
         <v>565</v>
       </c>
       <c r="B567" t="n">
-        <v>2.408</v>
+        <v>2.9104</v>
       </c>
       <c r="C567" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="568">
@@ -6676,10 +6676,10 @@
         <v>566</v>
       </c>
       <c r="B568" t="n">
-        <v>4.9048</v>
+        <v>16.9248</v>
       </c>
       <c r="C568" t="n">
-        <v>9062501</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="569">
@@ -6687,10 +6687,10 @@
         <v>567</v>
       </c>
       <c r="B569" t="n">
-        <v>3.316</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C569" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="570">
@@ -6698,10 +6698,10 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>0.42</v>
+        <v>35.8312</v>
       </c>
       <c r="C570" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="571">
@@ -6709,10 +6709,10 @@
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>3.8432</v>
+        <v>23.9048</v>
       </c>
       <c r="C571" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="572">
@@ -6720,10 +6720,10 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>0.9104000000000001</v>
+        <v>30.9104</v>
       </c>
       <c r="C572" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="573">
@@ -6731,10 +6731,10 @@
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>0.9168000000000001</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C573" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="574">
@@ -6742,10 +6742,10 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>4.3232</v>
+        <v>115.4216</v>
       </c>
       <c r="C574" t="n">
-        <v>9062501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="575">
@@ -6753,10 +6753,10 @@
         <v>573</v>
       </c>
       <c r="B575" t="n">
-        <v>1.4136</v>
+        <v>335.504</v>
       </c>
       <c r="C575" t="n">
-        <v>9062501</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="576">
@@ -6764,10 +6764,10 @@
         <v>574</v>
       </c>
       <c r="B576" t="n">
-        <v>3.904</v>
+        <v>0.0568</v>
       </c>
       <c r="C576" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="577">
@@ -6775,10 +6775,10 @@
         <v>575</v>
       </c>
       <c r="B577" t="n">
-        <v>1.912</v>
+        <v>0.012</v>
       </c>
       <c r="C577" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="578">
@@ -6786,10 +6786,10 @@
         <v>576</v>
       </c>
       <c r="B578" t="n">
-        <v>5.4168</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C578" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="579">
@@ -6797,10 +6797,10 @@
         <v>577</v>
       </c>
       <c r="B579" t="n">
-        <v>2.924</v>
+        <v>0.0216</v>
       </c>
       <c r="C579" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="580">
@@ -6808,10 +6808,10 @@
         <v>578</v>
       </c>
       <c r="B580" t="n">
-        <v>3.408</v>
+        <v>0.0272</v>
       </c>
       <c r="C580" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="581">
@@ -6819,10 +6819,10 @@
         <v>579</v>
       </c>
       <c r="B581" t="n">
-        <v>1.408</v>
+        <v>0.0416</v>
       </c>
       <c r="C581" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="582">
@@ -6830,10 +6830,10 @@
         <v>580</v>
       </c>
       <c r="B582" t="n">
-        <v>4.912</v>
+        <v>0.0344</v>
       </c>
       <c r="C582" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="583">
@@ -6841,10 +6841,10 @@
         <v>581</v>
       </c>
       <c r="B583" t="n">
-        <v>6.830400000000001</v>
+        <v>0.016</v>
       </c>
       <c r="C583" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="584">
@@ -6852,10 +6852,10 @@
         <v>582</v>
       </c>
       <c r="B584" t="n">
-        <v>7.428</v>
+        <v>0.008</v>
       </c>
       <c r="C584" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="585">
@@ -6863,10 +6863,10 @@
         <v>583</v>
       </c>
       <c r="B585" t="n">
-        <v>8.427200000000001</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C585" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="586">
@@ -6874,10 +6874,10 @@
         <v>584</v>
       </c>
       <c r="B586" t="n">
-        <v>0.4216</v>
+        <v>0.0568</v>
       </c>
       <c r="C586" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="587">
@@ -6885,10 +6885,10 @@
         <v>585</v>
       </c>
       <c r="B587" t="n">
-        <v>1.9088</v>
+        <v>0.044</v>
       </c>
       <c r="C587" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="588">
@@ -6896,10 +6896,10 @@
         <v>586</v>
       </c>
       <c r="B588" t="n">
-        <v>3.9144</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C588" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="589">
@@ -6907,10 +6907,10 @@
         <v>587</v>
       </c>
       <c r="B589" t="n">
-        <v>11.9144</v>
+        <v>9.3712</v>
       </c>
       <c r="C589" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="590">
@@ -6918,10 +6918,10 @@
         <v>588</v>
       </c>
       <c r="B590" t="n">
-        <v>17.0664</v>
+        <v>0.428</v>
       </c>
       <c r="C590" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="591">
@@ -6929,10 +6929,10 @@
         <v>589</v>
       </c>
       <c r="B591" t="n">
-        <v>0.16</v>
+        <v>0.4216</v>
       </c>
       <c r="C591" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="592">
@@ -6940,10 +6940,10 @@
         <v>590</v>
       </c>
       <c r="B592" t="n">
-        <v>15.544</v>
+        <v>0.2592</v>
       </c>
       <c r="C592" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="593">
@@ -6951,10 +6951,10 @@
         <v>591</v>
       </c>
       <c r="B593" t="n">
-        <v>14.9216</v>
+        <v>0.1856</v>
       </c>
       <c r="C593" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="594">
@@ -6962,10 +6962,10 @@
         <v>592</v>
       </c>
       <c r="B594" t="n">
-        <v>5.924</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C594" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="595">
@@ -6973,10 +6973,10 @@
         <v>593</v>
       </c>
       <c r="B595" t="n">
-        <v>14.8312</v>
+        <v>0.4096</v>
       </c>
       <c r="C595" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="596">
@@ -6984,10 +6984,10 @@
         <v>594</v>
       </c>
       <c r="B596" t="n">
-        <v>8.928000000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C596" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="597">
@@ -6995,10 +6995,10 @@
         <v>595</v>
       </c>
       <c r="B597" t="n">
-        <v>7.416</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C597" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="598">
@@ -7006,10 +7006,10 @@
         <v>596</v>
       </c>
       <c r="B598" t="n">
-        <v>0.4248</v>
+        <v>0.9136</v>
       </c>
       <c r="C598" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="599">
@@ -7017,10 +7017,10 @@
         <v>597</v>
       </c>
       <c r="B599" t="n">
-        <v>9.913600000000001</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C599" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="600">
@@ -7028,10 +7028,10 @@
         <v>598</v>
       </c>
       <c r="B600" t="n">
-        <v>53.9144</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C600" t="n">
-        <v>9062501</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="601">
@@ -7039,10 +7039,10 @@
         <v>599</v>
       </c>
       <c r="B601" t="n">
-        <v>17.9136</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C601" t="n">
-        <v>9375001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="602">
@@ -7050,10 +7050,10 @@
         <v>600</v>
       </c>
       <c r="B602" t="n">
-        <v>195.9096</v>
+        <v>1.9184</v>
       </c>
       <c r="C602" t="n">
-        <v>9375001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="603">
@@ -7061,10 +7061,10 @@
         <v>601</v>
       </c>
       <c r="B603" t="n">
-        <v>368.928</v>
+        <v>1.92</v>
       </c>
       <c r="C603" t="n">
-        <v>9375001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="604">
@@ -7072,10 +7072,10 @@
         <v>602</v>
       </c>
       <c r="B604" t="n">
-        <v>0.3552000000000001</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C604" t="n">
-        <v>10000001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="605">
@@ -7083,10 +7083,10 @@
         <v>603</v>
       </c>
       <c r="B605" t="n">
-        <v>0.1296</v>
+        <v>11.92</v>
       </c>
       <c r="C605" t="n">
-        <v>10000001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="606">
@@ -7094,10 +7094,10 @@
         <v>604</v>
       </c>
       <c r="B606" t="n">
-        <v>0.0408</v>
+        <v>1.9032</v>
       </c>
       <c r="C606" t="n">
-        <v>10000001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="607">
@@ -7105,10 +7105,10 @@
         <v>605</v>
       </c>
       <c r="B607" t="n">
-        <v>0.0264</v>
+        <v>96.604</v>
       </c>
       <c r="C607" t="n">
-        <v>10000001</v>
+        <v>8750001</v>
       </c>
     </row>
     <row r="608">
@@ -7116,10 +7116,10 @@
         <v>606</v>
       </c>
       <c r="B608" t="n">
-        <v>0.3368</v>
+        <v>1.7216</v>
       </c>
       <c r="C608" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="609">
@@ -7127,10 +7127,10 @@
         <v>607</v>
       </c>
       <c r="B609" t="n">
-        <v>0.08</v>
+        <v>4.4096</v>
       </c>
       <c r="C609" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="610">
@@ -7138,10 +7138,10 @@
         <v>608</v>
       </c>
       <c r="B610" t="n">
-        <v>0.07440000000000001</v>
+        <v>3.9176</v>
       </c>
       <c r="C610" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="611">
@@ -7149,10 +7149,10 @@
         <v>609</v>
       </c>
       <c r="B611" t="n">
-        <v>0.0576</v>
+        <v>0.4064</v>
       </c>
       <c r="C611" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="612">
@@ -7160,10 +7160,10 @@
         <v>610</v>
       </c>
       <c r="B612" t="n">
-        <v>0.0488</v>
+        <v>4.3136</v>
       </c>
       <c r="C612" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="613">
@@ -7171,10 +7171,10 @@
         <v>611</v>
       </c>
       <c r="B613" t="n">
-        <v>0.0328</v>
+        <v>1.4216</v>
       </c>
       <c r="C613" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="614">
@@ -7182,10 +7182,10 @@
         <v>612</v>
       </c>
       <c r="B614" t="n">
-        <v>11.0056</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C614" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="615">
@@ -7193,10 +7193,10 @@
         <v>613</v>
       </c>
       <c r="B615" t="n">
-        <v>0.4176</v>
+        <v>0.92</v>
       </c>
       <c r="C615" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="616">
@@ -7204,10 +7204,10 @@
         <v>614</v>
       </c>
       <c r="B616" t="n">
-        <v>0.7664000000000001</v>
+        <v>2.828</v>
       </c>
       <c r="C616" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="617">
@@ -7215,10 +7215,10 @@
         <v>615</v>
       </c>
       <c r="B617" t="n">
-        <v>0.1904</v>
+        <v>1.4208</v>
       </c>
       <c r="C617" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="618">
@@ -7226,10 +7226,10 @@
         <v>616</v>
       </c>
       <c r="B618" t="n">
-        <v>0.3336</v>
+        <v>0.424</v>
       </c>
       <c r="C618" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="619">
@@ -7237,10 +7237,10 @@
         <v>617</v>
       </c>
       <c r="B619" t="n">
-        <v>0.2592</v>
+        <v>0.2616</v>
       </c>
       <c r="C619" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="620">
@@ -7248,10 +7248,10 @@
         <v>618</v>
       </c>
       <c r="B620" t="n">
-        <v>0.408</v>
+        <v>5.4208</v>
       </c>
       <c r="C620" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="621">
@@ -7259,10 +7259,10 @@
         <v>619</v>
       </c>
       <c r="B621" t="n">
-        <v>0.3344</v>
+        <v>1.9056</v>
       </c>
       <c r="C621" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="622">
@@ -7270,10 +7270,10 @@
         <v>620</v>
       </c>
       <c r="B622" t="n">
-        <v>1.4104</v>
+        <v>2.26</v>
       </c>
       <c r="C622" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="623">
@@ -7281,10 +7281,10 @@
         <v>621</v>
       </c>
       <c r="B623" t="n">
-        <v>0.736</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C623" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="624">
@@ -7292,10 +7292,10 @@
         <v>622</v>
       </c>
       <c r="B624" t="n">
-        <v>0.4104</v>
+        <v>0.4128</v>
       </c>
       <c r="C624" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="625">
@@ -7303,10 +7303,10 @@
         <v>623</v>
       </c>
       <c r="B625" t="n">
-        <v>0.4056</v>
+        <v>0.42</v>
       </c>
       <c r="C625" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="626">
@@ -7314,10 +7314,10 @@
         <v>624</v>
       </c>
       <c r="B626" t="n">
-        <v>11.4176</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C626" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="627">
@@ -7325,10 +7325,10 @@
         <v>625</v>
       </c>
       <c r="B627" t="n">
-        <v>1.428</v>
+        <v>1.9168</v>
       </c>
       <c r="C627" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="628">
@@ -7336,10 +7336,10 @@
         <v>626</v>
       </c>
       <c r="B628" t="n">
-        <v>2.4168</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C628" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="629">
@@ -7347,10 +7347,10 @@
         <v>627</v>
       </c>
       <c r="B629" t="n">
-        <v>2.9104</v>
+        <v>3.5672</v>
       </c>
       <c r="C629" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="630">
@@ -7358,10 +7358,10 @@
         <v>628</v>
       </c>
       <c r="B630" t="n">
-        <v>53.9984</v>
+        <v>5.4048</v>
       </c>
       <c r="C630" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="631">
@@ -7369,10 +7369,10 @@
         <v>629</v>
       </c>
       <c r="B631" t="n">
-        <v>57.896</v>
+        <v>0.92</v>
       </c>
       <c r="C631" t="n">
-        <v>10000001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="632">
@@ -7380,10 +7380,10 @@
         <v>630</v>
       </c>
       <c r="B632" t="n">
-        <v>0.408</v>
+        <v>0.912</v>
       </c>
       <c r="C632" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="633">
@@ -7391,10 +7391,10 @@
         <v>631</v>
       </c>
       <c r="B633" t="n">
-        <v>0.424</v>
+        <v>5.4168</v>
       </c>
       <c r="C633" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="634">
@@ -7402,10 +7402,10 @@
         <v>632</v>
       </c>
       <c r="B634" t="n">
-        <v>3.9056</v>
+        <v>10.424</v>
       </c>
       <c r="C634" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="635">
@@ -7413,10 +7413,10 @@
         <v>633</v>
       </c>
       <c r="B635" t="n">
-        <v>5.7472</v>
+        <v>15.4064</v>
       </c>
       <c r="C635" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="636">
@@ -7424,10 +7424,10 @@
         <v>634</v>
       </c>
       <c r="B636" t="n">
-        <v>6.4176</v>
+        <v>15.4264</v>
       </c>
       <c r="C636" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="637">
@@ -7435,10 +7435,10 @@
         <v>635</v>
       </c>
       <c r="B637" t="n">
-        <v>2.408</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C637" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="638">
@@ -7446,10 +7446,10 @@
         <v>636</v>
       </c>
       <c r="B638" t="n">
-        <v>4.9048</v>
+        <v>18.4064</v>
       </c>
       <c r="C638" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="639">
@@ -7457,10 +7457,10 @@
         <v>637</v>
       </c>
       <c r="B639" t="n">
-        <v>3.316</v>
+        <v>0.924</v>
       </c>
       <c r="C639" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="640">
@@ -7468,10 +7468,10 @@
         <v>638</v>
       </c>
       <c r="B640" t="n">
-        <v>0.42</v>
+        <v>4.9176</v>
       </c>
       <c r="C640" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="641">
@@ -7479,10 +7479,10 @@
         <v>639</v>
       </c>
       <c r="B641" t="n">
-        <v>3.8432</v>
+        <v>2.9144</v>
       </c>
       <c r="C641" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="642">
@@ -7490,10 +7490,10 @@
         <v>640</v>
       </c>
       <c r="B642" t="n">
-        <v>0.9104000000000001</v>
+        <v>9.912800000000001</v>
       </c>
       <c r="C642" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="643">
@@ -7501,10 +7501,10 @@
         <v>641</v>
       </c>
       <c r="B643" t="n">
-        <v>0.9168000000000001</v>
+        <v>3.9184</v>
       </c>
       <c r="C643" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="644">
@@ -7512,10 +7512,10 @@
         <v>642</v>
       </c>
       <c r="B644" t="n">
-        <v>4.3232</v>
+        <v>16.8384</v>
       </c>
       <c r="C644" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="645">
@@ -7523,10 +7523,10 @@
         <v>643</v>
       </c>
       <c r="B645" t="n">
-        <v>1.4136</v>
+        <v>4.8408</v>
       </c>
       <c r="C645" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="646">
@@ -7534,10 +7534,10 @@
         <v>644</v>
       </c>
       <c r="B646" t="n">
-        <v>3.904</v>
+        <v>2.9104</v>
       </c>
       <c r="C646" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="647">
@@ -7545,10 +7545,10 @@
         <v>645</v>
       </c>
       <c r="B647" t="n">
-        <v>1.912</v>
+        <v>16.9248</v>
       </c>
       <c r="C647" t="n">
-        <v>10312501</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="648">
@@ -7556,10 +7556,10 @@
         <v>646</v>
       </c>
       <c r="B648" t="n">
-        <v>5.4168</v>
+        <v>43.90560000000001</v>
       </c>
       <c r="C648" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="649">
@@ -7567,10 +7567,10 @@
         <v>647</v>
       </c>
       <c r="B649" t="n">
-        <v>2.924</v>
+        <v>35.8312</v>
       </c>
       <c r="C649" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="650">
@@ -7578,10 +7578,10 @@
         <v>648</v>
       </c>
       <c r="B650" t="n">
-        <v>3.408</v>
+        <v>23.9048</v>
       </c>
       <c r="C650" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="651">
@@ -7589,10 +7589,10 @@
         <v>649</v>
       </c>
       <c r="B651" t="n">
-        <v>1.408</v>
+        <v>30.9104</v>
       </c>
       <c r="C651" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="652">
@@ -7600,10 +7600,10 @@
         <v>650</v>
       </c>
       <c r="B652" t="n">
-        <v>4.912</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C652" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="653">
@@ -7611,10 +7611,10 @@
         <v>651</v>
       </c>
       <c r="B653" t="n">
-        <v>6.830400000000001</v>
+        <v>115.4216</v>
       </c>
       <c r="C653" t="n">
-        <v>10312501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="654">
@@ -7622,10 +7622,10 @@
         <v>652</v>
       </c>
       <c r="B654" t="n">
-        <v>7.428</v>
+        <v>335.504</v>
       </c>
       <c r="C654" t="n">
-        <v>10312501</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="655">
@@ -7633,10 +7633,10 @@
         <v>653</v>
       </c>
       <c r="B655" t="n">
-        <v>8.427200000000001</v>
+        <v>0.0568</v>
       </c>
       <c r="C655" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="656">
@@ -7644,10 +7644,10 @@
         <v>654</v>
       </c>
       <c r="B656" t="n">
-        <v>0.4216</v>
+        <v>0.012</v>
       </c>
       <c r="C656" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="657">
@@ -7655,10 +7655,10 @@
         <v>655</v>
       </c>
       <c r="B657" t="n">
-        <v>1.9088</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C657" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="658">
@@ -7666,10 +7666,10 @@
         <v>656</v>
       </c>
       <c r="B658" t="n">
-        <v>3.9144</v>
+        <v>0.0216</v>
       </c>
       <c r="C658" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="659">
@@ -7677,10 +7677,10 @@
         <v>657</v>
       </c>
       <c r="B659" t="n">
-        <v>11.9144</v>
+        <v>0.0272</v>
       </c>
       <c r="C659" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="660">
@@ -7688,10 +7688,10 @@
         <v>658</v>
       </c>
       <c r="B660" t="n">
-        <v>17.0664</v>
+        <v>0.0416</v>
       </c>
       <c r="C660" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="661">
@@ -7699,10 +7699,10 @@
         <v>659</v>
       </c>
       <c r="B661" t="n">
-        <v>0.16</v>
+        <v>0.0344</v>
       </c>
       <c r="C661" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="662">
@@ -7710,10 +7710,10 @@
         <v>660</v>
       </c>
       <c r="B662" t="n">
-        <v>15.544</v>
+        <v>0.016</v>
       </c>
       <c r="C662" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="663">
@@ -7721,10 +7721,10 @@
         <v>661</v>
       </c>
       <c r="B663" t="n">
-        <v>14.9216</v>
+        <v>0.008</v>
       </c>
       <c r="C663" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="664">
@@ -7732,10 +7732,10 @@
         <v>662</v>
       </c>
       <c r="B664" t="n">
-        <v>5.924</v>
+        <v>0.06720000000000001</v>
       </c>
       <c r="C664" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="665">
@@ -7743,10 +7743,10 @@
         <v>663</v>
       </c>
       <c r="B665" t="n">
-        <v>14.8312</v>
+        <v>0.0568</v>
       </c>
       <c r="C665" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="666">
@@ -7754,10 +7754,10 @@
         <v>664</v>
       </c>
       <c r="B666" t="n">
-        <v>8.928000000000001</v>
+        <v>0.044</v>
       </c>
       <c r="C666" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="667">
@@ -7765,10 +7765,10 @@
         <v>665</v>
       </c>
       <c r="B667" t="n">
-        <v>7.416</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C667" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="668">
@@ -7776,10 +7776,10 @@
         <v>666</v>
       </c>
       <c r="B668" t="n">
-        <v>0.4248</v>
+        <v>9.3712</v>
       </c>
       <c r="C668" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="669">
@@ -7787,10 +7787,10 @@
         <v>667</v>
       </c>
       <c r="B669" t="n">
-        <v>9.913600000000001</v>
+        <v>0.428</v>
       </c>
       <c r="C669" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="670">
@@ -7798,10 +7798,10 @@
         <v>668</v>
       </c>
       <c r="B670" t="n">
-        <v>53.91520000000001</v>
+        <v>0.4216</v>
       </c>
       <c r="C670" t="n">
-        <v>10312501</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="671">
@@ -7809,10 +7809,10 @@
         <v>669</v>
       </c>
       <c r="B671" t="n">
-        <v>17.9128</v>
+        <v>0.2592</v>
       </c>
       <c r="C671" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="672">
@@ -7820,10 +7820,10 @@
         <v>670</v>
       </c>
       <c r="B672" t="n">
-        <v>195.9096</v>
+        <v>0.1856</v>
       </c>
       <c r="C672" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="673">
@@ -7831,10 +7831,10 @@
         <v>671</v>
       </c>
       <c r="B673" t="n">
-        <v>368.928</v>
+        <v>0.7512000000000001</v>
       </c>
       <c r="C673" t="n">
-        <v>10625001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="674">
@@ -7842,10 +7842,10 @@
         <v>672</v>
       </c>
       <c r="B674" t="n">
-        <v>0.3552000000000001</v>
+        <v>0.4096</v>
       </c>
       <c r="C674" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="675">
@@ -7853,10 +7853,10 @@
         <v>673</v>
       </c>
       <c r="B675" t="n">
-        <v>0.1296</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C675" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="676">
@@ -7864,10 +7864,10 @@
         <v>674</v>
       </c>
       <c r="B676" t="n">
-        <v>0.0416</v>
+        <v>0.8264000000000001</v>
       </c>
       <c r="C676" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="677">
@@ -7875,10 +7875,10 @@
         <v>675</v>
       </c>
       <c r="B677" t="n">
-        <v>0.0256</v>
+        <v>0.9136</v>
       </c>
       <c r="C677" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="678">
@@ -7886,10 +7886,10 @@
         <v>676</v>
       </c>
       <c r="B678" t="n">
-        <v>0.3368</v>
+        <v>0.8144000000000001</v>
       </c>
       <c r="C678" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="679">
@@ -7897,10 +7897,10 @@
         <v>677</v>
       </c>
       <c r="B679" t="n">
-        <v>0.08</v>
+        <v>8.924800000000001</v>
       </c>
       <c r="C679" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="680">
@@ -7908,10 +7908,10 @@
         <v>678</v>
       </c>
       <c r="B680" t="n">
-        <v>0.07440000000000001</v>
+        <v>0.9208000000000001</v>
       </c>
       <c r="C680" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="681">
@@ -7919,10 +7919,10 @@
         <v>679</v>
       </c>
       <c r="B681" t="n">
-        <v>0.05840000000000001</v>
+        <v>1.9184</v>
       </c>
       <c r="C681" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="682">
@@ -7930,10 +7930,10 @@
         <v>680</v>
       </c>
       <c r="B682" t="n">
-        <v>0.048</v>
+        <v>1.92</v>
       </c>
       <c r="C682" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="683">
@@ -7941,10 +7941,10 @@
         <v>681</v>
       </c>
       <c r="B683" t="n">
-        <v>0.0336</v>
+        <v>0.9248000000000001</v>
       </c>
       <c r="C683" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="684">
@@ -7952,10 +7952,10 @@
         <v>682</v>
       </c>
       <c r="B684" t="n">
-        <v>11.0048</v>
+        <v>11.92</v>
       </c>
       <c r="C684" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="685">
@@ -7963,10 +7963,10 @@
         <v>683</v>
       </c>
       <c r="B685" t="n">
-        <v>0.4184</v>
+        <v>1.9032</v>
       </c>
       <c r="C685" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="686">
@@ -7974,10 +7974,10 @@
         <v>684</v>
       </c>
       <c r="B686" t="n">
-        <v>0.7656000000000001</v>
+        <v>96.604</v>
       </c>
       <c r="C686" t="n">
-        <v>11250001</v>
+        <v>10000001</v>
       </c>
     </row>
     <row r="687">
@@ -7985,10 +7985,10 @@
         <v>685</v>
       </c>
       <c r="B687" t="n">
-        <v>0.1912</v>
+        <v>1.7216</v>
       </c>
       <c r="C687" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="688">
@@ -7996,10 +7996,10 @@
         <v>686</v>
       </c>
       <c r="B688" t="n">
-        <v>0.3328</v>
+        <v>4.4096</v>
       </c>
       <c r="C688" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="689">
@@ -8007,10 +8007,10 @@
         <v>687</v>
       </c>
       <c r="B689" t="n">
-        <v>0.2592</v>
+        <v>3.9176</v>
       </c>
       <c r="C689" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="690">
@@ -8018,10 +8018,10 @@
         <v>688</v>
       </c>
       <c r="B690" t="n">
-        <v>0.408</v>
+        <v>0.4064</v>
       </c>
       <c r="C690" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="691">
@@ -8029,10 +8029,10 @@
         <v>689</v>
       </c>
       <c r="B691" t="n">
-        <v>0.3344</v>
+        <v>4.3136</v>
       </c>
       <c r="C691" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="692">
@@ -8040,10 +8040,10 @@
         <v>690</v>
       </c>
       <c r="B692" t="n">
-        <v>1.4112</v>
+        <v>1.4216</v>
       </c>
       <c r="C692" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="693">
@@ -8051,10 +8051,10 @@
         <v>691</v>
       </c>
       <c r="B693" t="n">
-        <v>0.7352000000000001</v>
+        <v>4.276800000000001</v>
       </c>
       <c r="C693" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="694">
@@ -8062,10 +8062,10 @@
         <v>692</v>
       </c>
       <c r="B694" t="n">
-        <v>0.4112000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C694" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="695">
@@ -8073,10 +8073,10 @@
         <v>693</v>
       </c>
       <c r="B695" t="n">
-        <v>0.4048</v>
+        <v>2.828</v>
       </c>
       <c r="C695" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="696">
@@ -8084,10 +8084,10 @@
         <v>694</v>
       </c>
       <c r="B696" t="n">
-        <v>11.4176</v>
+        <v>1.4208</v>
       </c>
       <c r="C696" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="697">
@@ -8095,10 +8095,10 @@
         <v>695</v>
       </c>
       <c r="B697" t="n">
-        <v>1.428</v>
+        <v>0.424</v>
       </c>
       <c r="C697" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="698">
@@ -8106,10 +8106,10 @@
         <v>696</v>
       </c>
       <c r="B698" t="n">
-        <v>2.4176</v>
+        <v>0.2616</v>
       </c>
       <c r="C698" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="699">
@@ -8117,10 +8117,10 @@
         <v>697</v>
       </c>
       <c r="B699" t="n">
-        <v>2.9104</v>
+        <v>5.4208</v>
       </c>
       <c r="C699" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="700">
@@ -8128,10 +8128,10 @@
         <v>698</v>
       </c>
       <c r="B700" t="n">
-        <v>53.9984</v>
+        <v>1.9056</v>
       </c>
       <c r="C700" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="701">
@@ -8139,10 +8139,10 @@
         <v>699</v>
       </c>
       <c r="B701" t="n">
-        <v>57.8952</v>
+        <v>2.26</v>
       </c>
       <c r="C701" t="n">
-        <v>11250001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="702">
@@ -8150,10 +8150,10 @@
         <v>700</v>
       </c>
       <c r="B702" t="n">
-        <v>0.408</v>
+        <v>0.5903999999999999</v>
       </c>
       <c r="C702" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="703">
@@ -8161,10 +8161,10 @@
         <v>701</v>
       </c>
       <c r="B703" t="n">
-        <v>0.424</v>
+        <v>0.4128</v>
       </c>
       <c r="C703" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="704">
@@ -8172,10 +8172,10 @@
         <v>702</v>
       </c>
       <c r="B704" t="n">
-        <v>3.9056</v>
+        <v>0.42</v>
       </c>
       <c r="C704" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="705">
@@ -8183,10 +8183,10 @@
         <v>703</v>
       </c>
       <c r="B705" t="n">
-        <v>5.7472</v>
+        <v>3.841600000000001</v>
       </c>
       <c r="C705" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="706">
@@ -8194,10 +8194,10 @@
         <v>704</v>
       </c>
       <c r="B706" t="n">
-        <v>6.4176</v>
+        <v>1.9168</v>
       </c>
       <c r="C706" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="707">
@@ -8205,10 +8205,10 @@
         <v>705</v>
       </c>
       <c r="B707" t="n">
-        <v>2.408</v>
+        <v>0.7736000000000001</v>
       </c>
       <c r="C707" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="708">
@@ -8216,10 +8216,10 @@
         <v>706</v>
       </c>
       <c r="B708" t="n">
-        <v>4.9048</v>
+        <v>3.5672</v>
       </c>
       <c r="C708" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="709">
@@ -8227,10 +8227,10 @@
         <v>707</v>
       </c>
       <c r="B709" t="n">
-        <v>3.316</v>
+        <v>5.4048</v>
       </c>
       <c r="C709" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="710">
@@ -8238,10 +8238,10 @@
         <v>708</v>
       </c>
       <c r="B710" t="n">
-        <v>0.42</v>
+        <v>0.92</v>
       </c>
       <c r="C710" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="711">
@@ -8249,10 +8249,10 @@
         <v>709</v>
       </c>
       <c r="B711" t="n">
-        <v>3.844</v>
+        <v>0.912</v>
       </c>
       <c r="C711" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="712">
@@ -8260,10 +8260,10 @@
         <v>710</v>
       </c>
       <c r="B712" t="n">
-        <v>0.9104000000000001</v>
+        <v>5.4168</v>
       </c>
       <c r="C712" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="713">
@@ -8271,10 +8271,10 @@
         <v>711</v>
       </c>
       <c r="B713" t="n">
-        <v>0.9168000000000001</v>
+        <v>10.424</v>
       </c>
       <c r="C713" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="714">
@@ -8282,10 +8282,10 @@
         <v>712</v>
       </c>
       <c r="B714" t="n">
-        <v>4.3232</v>
+        <v>15.4064</v>
       </c>
       <c r="C714" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="715">
@@ -8293,10 +8293,10 @@
         <v>713</v>
       </c>
       <c r="B715" t="n">
-        <v>1.4128</v>
+        <v>15.4264</v>
       </c>
       <c r="C715" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="716">
@@ -8304,10 +8304,10 @@
         <v>714</v>
       </c>
       <c r="B716" t="n">
-        <v>3.904</v>
+        <v>63.41760000000001</v>
       </c>
       <c r="C716" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="717">
@@ -8315,10 +8315,10 @@
         <v>715</v>
       </c>
       <c r="B717" t="n">
-        <v>1.912</v>
+        <v>18.4072</v>
       </c>
       <c r="C717" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="718">
@@ -8326,10 +8326,10 @@
         <v>716</v>
       </c>
       <c r="B718" t="n">
-        <v>5.4168</v>
+        <v>0.9232</v>
       </c>
       <c r="C718" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="719">
@@ -8337,10 +8337,10 @@
         <v>717</v>
       </c>
       <c r="B719" t="n">
-        <v>2.924</v>
+        <v>4.9184</v>
       </c>
       <c r="C719" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="720">
@@ -8348,10 +8348,10 @@
         <v>718</v>
       </c>
       <c r="B720" t="n">
-        <v>3.408</v>
+        <v>2.9144</v>
       </c>
       <c r="C720" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="721">
@@ -8359,10 +8359,10 @@
         <v>719</v>
       </c>
       <c r="B721" t="n">
-        <v>1.408</v>
+        <v>9.912000000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="722">
@@ -8370,10 +8370,10 @@
         <v>720</v>
       </c>
       <c r="B722" t="n">
-        <v>4.912</v>
+        <v>3.9192</v>
       </c>
       <c r="C722" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="723">
@@ -8381,10 +8381,10 @@
         <v>721</v>
       </c>
       <c r="B723" t="n">
-        <v>6.831200000000001</v>
+        <v>16.8376</v>
       </c>
       <c r="C723" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="724">
@@ -8392,10 +8392,10 @@
         <v>722</v>
       </c>
       <c r="B724" t="n">
-        <v>7.427200000000001</v>
+        <v>4.841600000000001</v>
       </c>
       <c r="C724" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="725">
@@ -8403,10 +8403,10 @@
         <v>723</v>
       </c>
       <c r="B725" t="n">
-        <v>8.427200000000001</v>
+        <v>2.9104</v>
       </c>
       <c r="C725" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="726">
@@ -8414,10 +8414,10 @@
         <v>724</v>
       </c>
       <c r="B726" t="n">
-        <v>0.4216</v>
+        <v>16.9248</v>
       </c>
       <c r="C726" t="n">
-        <v>11562501</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="727">
@@ -8425,10 +8425,10 @@
         <v>725</v>
       </c>
       <c r="B727" t="n">
-        <v>1.9096</v>
+        <v>43.9048</v>
       </c>
       <c r="C727" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="728">
@@ -8436,10 +8436,10 @@
         <v>726</v>
       </c>
       <c r="B728" t="n">
-        <v>3.9144</v>
+        <v>35.832</v>
       </c>
       <c r="C728" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="729">
@@ -8447,10 +8447,10 @@
         <v>727</v>
       </c>
       <c r="B729" t="n">
-        <v>11.9144</v>
+        <v>23.9048</v>
       </c>
       <c r="C729" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="730">
@@ -8458,10 +8458,10 @@
         <v>728</v>
       </c>
       <c r="B730" t="n">
-        <v>17.0664</v>
+        <v>30.9104</v>
       </c>
       <c r="C730" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="731">
@@ -8469,10 +8469,10 @@
         <v>729</v>
       </c>
       <c r="B731" t="n">
-        <v>0.16</v>
+        <v>9.920800000000002</v>
       </c>
       <c r="C731" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="732">
@@ -8480,10 +8480,10 @@
         <v>730</v>
       </c>
       <c r="B732" t="n">
-        <v>15.5432</v>
+        <v>115.4208</v>
       </c>
       <c r="C732" t="n">
-        <v>11562501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="733">
@@ -8491,10 +8491,10 @@
         <v>731</v>
       </c>
       <c r="B733" t="n">
-        <v>14.9216</v>
+        <v>335.504</v>
       </c>
       <c r="C733" t="n">
-        <v>11562501</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="734">
@@ -8502,10 +8502,10 @@
         <v>732</v>
       </c>
       <c r="B734" t="n">
-        <v>5.924</v>
+        <v>0.0568</v>
       </c>
       <c r="C734" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="735">
@@ -8513,10 +8513,10 @@
         <v>733</v>
       </c>
       <c r="B735" t="n">
-        <v>14.8312</v>
+        <v>0.012</v>
       </c>
       <c r="C735" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="736">
@@ -8524,10 +8524,10 @@
         <v>734</v>
       </c>
       <c r="B736" t="n">
-        <v>8.928000000000001</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C736" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="737">
@@ -8535,10 +8535,10 @@
         <v>735</v>
       </c>
       <c r="B737" t="n">
-        <v>7.416</v>
+        <v>0.0224</v>
       </c>
       <c r="C737" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="738">
@@ -8546,10 +8546,10 @@
         <v>736</v>
       </c>
       <c r="B738" t="n">
-        <v>0.4256</v>
+        <v>0.0264</v>
       </c>
       <c r="C738" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="739">
@@ -8557,10 +8557,10 @@
         <v>737</v>
       </c>
       <c r="B739" t="n">
-        <v>9.912800000000001</v>
+        <v>0.04240000000000001</v>
       </c>
       <c r="C739" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="740">
@@ -8568,10 +8568,10 @@
         <v>738</v>
       </c>
       <c r="B740" t="n">
-        <v>53.91520000000001</v>
+        <v>0.0336</v>
       </c>
       <c r="C740" t="n">
-        <v>11562501</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="741">
@@ -8579,10 +8579,10 @@
         <v>739</v>
       </c>
       <c r="B741" t="n">
-        <v>17.9128</v>
+        <v>0.016</v>
       </c>
       <c r="C741" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="742">
@@ -8590,10 +8590,10 @@
         <v>740</v>
       </c>
       <c r="B742" t="n">
-        <v>195.9096</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="C742" t="n">
-        <v>11875001</v>
+        <v>11250001</v>
       </c>
     </row>
     <row r="743">
@@ -8601,10 +8601,769 @@
         <v>741</v>
       </c>
       <c r="B743" t="n">
-        <v>265.9968</v>
+        <v>0.0664</v>
       </c>
       <c r="C743" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="C744" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="C745" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.03920000000000001</v>
+      </c>
+      <c r="C746" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>9.3712</v>
+      </c>
+      <c r="C747" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.4272</v>
+      </c>
+      <c r="C748" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0.4216</v>
+      </c>
+      <c r="C749" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C750" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>0.1856</v>
+      </c>
+      <c r="C751" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>0.7504000000000001</v>
+      </c>
+      <c r="C752" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>0.4104</v>
+      </c>
+      <c r="C753" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.9208000000000001</v>
+      </c>
+      <c r="C754" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>0.8256</v>
+      </c>
+      <c r="C755" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>0.9144000000000001</v>
+      </c>
+      <c r="C756" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>0.8136</v>
+      </c>
+      <c r="C757" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>8.925600000000001</v>
+      </c>
+      <c r="C758" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>0.9208000000000001</v>
+      </c>
+      <c r="C759" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>1.9184</v>
+      </c>
+      <c r="C760" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>1.9192</v>
+      </c>
+      <c r="C761" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>0.9256</v>
+      </c>
+      <c r="C762" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>11.9192</v>
+      </c>
+      <c r="C763" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>1.9032</v>
+      </c>
+      <c r="C764" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>96.604</v>
+      </c>
+      <c r="C765" t="n">
+        <v>11250001</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>1.7224</v>
+      </c>
+      <c r="C766" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>4.4088</v>
+      </c>
+      <c r="C767" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>3.9176</v>
+      </c>
+      <c r="C768" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0.4072000000000001</v>
+      </c>
+      <c r="C769" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>4.3128</v>
+      </c>
+      <c r="C770" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>1.4216</v>
+      </c>
+      <c r="C771" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>4.276800000000001</v>
+      </c>
+      <c r="C772" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C773" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.828</v>
+      </c>
+      <c r="C774" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>1.4216</v>
+      </c>
+      <c r="C775" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>0.4232</v>
+      </c>
+      <c r="C776" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0.2616</v>
+      </c>
+      <c r="C777" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>5.421600000000001</v>
+      </c>
+      <c r="C778" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>1.9048</v>
+      </c>
+      <c r="C779" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C780" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.5903999999999999</v>
+      </c>
+      <c r="C781" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0.4136</v>
+      </c>
+      <c r="C782" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.4192000000000001</v>
+      </c>
+      <c r="C783" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>3.841600000000001</v>
+      </c>
+      <c r="C784" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>783</v>
+      </c>
+      <c r="B785" t="n">
+        <v>1.9176</v>
+      </c>
+      <c r="C785" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>784</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.7728</v>
+      </c>
+      <c r="C786" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>785</v>
+      </c>
+      <c r="B787" t="n">
+        <v>3.5672</v>
+      </c>
+      <c r="C787" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>786</v>
+      </c>
+      <c r="B788" t="n">
+        <v>5.405600000000001</v>
+      </c>
+      <c r="C788" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>787</v>
+      </c>
+      <c r="B789" t="n">
+        <v>0.9192</v>
+      </c>
+      <c r="C789" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>788</v>
+      </c>
+      <c r="B790" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="C790" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>789</v>
+      </c>
+      <c r="B791" t="n">
+        <v>5.4168</v>
+      </c>
+      <c r="C791" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>790</v>
+      </c>
+      <c r="B792" t="n">
+        <v>10.424</v>
+      </c>
+      <c r="C792" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>791</v>
+      </c>
+      <c r="B793" t="n">
+        <v>15.4072</v>
+      </c>
+      <c r="C793" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>792</v>
+      </c>
+      <c r="B794" t="n">
+        <v>15.4264</v>
+      </c>
+      <c r="C794" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>793</v>
+      </c>
+      <c r="B795" t="n">
+        <v>63.4168</v>
+      </c>
+      <c r="C795" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>794</v>
+      </c>
+      <c r="B796" t="n">
+        <v>18.4072</v>
+      </c>
+      <c r="C796" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>795</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.9232</v>
+      </c>
+      <c r="C797" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>796</v>
+      </c>
+      <c r="B798" t="n">
+        <v>4.9184</v>
+      </c>
+      <c r="C798" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>797</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.9144</v>
+      </c>
+      <c r="C799" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>798</v>
+      </c>
+      <c r="B800" t="n">
+        <v>9.912800000000001</v>
+      </c>
+      <c r="C800" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>799</v>
+      </c>
+      <c r="B801" t="n">
+        <v>3.9184</v>
+      </c>
+      <c r="C801" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>800</v>
+      </c>
+      <c r="B802" t="n">
+        <v>16.8376</v>
+      </c>
+      <c r="C802" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>801</v>
+      </c>
+      <c r="B803" t="n">
+        <v>4.841600000000001</v>
+      </c>
+      <c r="C803" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>802</v>
+      </c>
+      <c r="B804" t="n">
+        <v>2.9104</v>
+      </c>
+      <c r="C804" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>803</v>
+      </c>
+      <c r="B805" t="n">
+        <v>16.9248</v>
+      </c>
+      <c r="C805" t="n">
+        <v>11562501</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>804</v>
+      </c>
+      <c r="B806" t="n">
+        <v>43.9048</v>
+      </c>
+      <c r="C806" t="n">
         <v>11875001</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>805</v>
+      </c>
+      <c r="B807" t="n">
+        <v>35.832</v>
+      </c>
+      <c r="C807" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>806</v>
+      </c>
+      <c r="B808" t="n">
+        <v>23.9048</v>
+      </c>
+      <c r="C808" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>807</v>
+      </c>
+      <c r="B809" t="n">
+        <v>30.9104</v>
+      </c>
+      <c r="C809" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>808</v>
+      </c>
+      <c r="B810" t="n">
+        <v>9.920800000000002</v>
+      </c>
+      <c r="C810" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>809</v>
+      </c>
+      <c r="B811" t="n">
+        <v>115.4208</v>
+      </c>
+      <c r="C811" t="n">
+        <v>11875001</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="B812" t="n">
+        <v>235.4968</v>
+      </c>
+      <c r="C812" t="n">
+        <v>12187501</v>
       </c>
     </row>
   </sheetData>
